--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="676">
   <si>
     <t>SNo</t>
   </si>
@@ -46,15 +46,18 @@
     <t>['HTML is the standard markup language for Web pages.', 'With HTML you can create your own Website.', 'HTML is easy to learn - You will enjoy it!', 'With our "Try it Yourself" editor, you can edit the HTML code and view the \nresult:', 'Click on the "Try it Yourself" button to see how it works.', 'In this HTML tutorial, you will find more than 200 examples. With our online \n"Try it Yourself" editor, you can edit and test each example yourself!', 'Go to HTML Examples!', 'This HTML tutorial also contains nearly 100 HTML exercises.', 'Add a "tooltip" to the paragraph below with the text "About W3Schools".', 'Start the Exercise', 'Test your HTML skills with our HTML Quiz!', 'Start HTML Quiz!', 'At W3Schools you will find complete references about HTML elements, \nattributes, events, color names, entities, character-sets, URL encoding, \nlanguage codes, HTTP messages, browser support, and more:', 'Get certified by completing the  course', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
+    <t>Color|||Name|||&amp;&amp;&amp; |||Red|||&amp;&amp;&amp; |||Yellow|||&amp;&amp;&amp; |||Cyan|||&amp;&amp;&amp; |||Blue|||&amp;&amp;&amp; |||Magenta|||&amp;&amp;&amp;Color|||RGB|||Color|||&amp;&amp;&amp; |||rgb(255,0,0)|||Red|||&amp;&amp;&amp; |||rgb(0,255,0)|||Green|||&amp;&amp;&amp; |||rgb(0,0,255)|||Blue|||&amp;&amp;&amp;Color|||RGB|||Color|||&amp;&amp;&amp; |||rgb(0,0,0)|||Black|||&amp;&amp;&amp; |||rgb(128,128,128)|||Gray|||&amp;&amp;&amp; |||rgb(255,255,255)|||White|||&amp;&amp;&amp;Color|||HEX|||RGB|||Color|||&amp;&amp;&amp; |||#FF0000|||rgb(255,0,0)|||Red|||&amp;&amp;&amp; |||#00FF00|||rgb(0,255,0)|||Green|||&amp;&amp;&amp; |||#0000FF|||rgb(0,0,255)|||Blue|||&amp;&amp;&amp;Color|||HEX|||RGB|||Color|||&amp;&amp;&amp; |||#000000|||rgb(0,0,0)|||Black|||&amp;&amp;&amp; |||#808080|||rgb(128,128,128)|||Gray|||&amp;&amp;&amp; |||#FFFFFF|||rgb(255,255,255)|||White|||&amp;&amp;&amp;Color Name|||Hex|||Color|||&amp;&amp;&amp;AliceBlue|||#F0F8FF||| |||&amp;&amp;&amp;AntiqueWhite|||#FAEBD7||| |||&amp;&amp;&amp;Aqua|||#00FFFF||| |||&amp;&amp;&amp;Aquamarine|||#7FFFD4||| |||&amp;&amp;&amp;Azure|||#F0FFFF||| |||&amp;&amp;&amp;Beige|||#F5F5DC||| |||&amp;&amp;&amp;Bisque|||#FFE4C4||| |||&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>http://www.w3schools.com//html/default.asp</t>
+  </si>
+  <si>
+    <t>['\nExample\n\n&lt;!DOCTYPE html&gt;\n&lt;html&gt;&lt;head&gt;&lt;title&gt;Page Title&lt;/title&gt;\n&lt;/head&gt;&lt;body&gt;&lt;h1&gt;This is a Heading&lt;/h1&gt;&lt;p&gt;This is a paragraph.&lt;/p&gt;\n&lt;/body&gt;&lt;/html&gt;\n\nTry it Yourself »\n']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>http://www.w3schools.com//html/default.asp</t>
-  </si>
-  <si>
-    <t>['\nExample\n\n&lt;!DOCTYPE html&gt;\n&lt;html&gt;&lt;head&gt;&lt;title&gt;Page Title&lt;/title&gt;\n&lt;/head&gt;&lt;body&gt;&lt;h1&gt;This is a Heading&lt;/h1&gt;&lt;p&gt;This is a paragraph.&lt;/p&gt;\n&lt;/body&gt;&lt;/html&gt;\n\nTry it Yourself »\n']</t>
-  </si>
-  <si>
     <t>['/images/htmlvideoad_footer.png', '/images/colorpicker2000.png', '/images/w3lynx_200.png']</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>['Colors are displayed combining RED, GREEN, and BLUE light.', 'With CSS, colors can be set by using color names:', 'With CSS, colors can be specified in different ways:', 'RGB color values are supported in all browsers.', 'An RGB color value is specified with: rgb(\nRED ,\nGREEN ,\nBLUE ).', 'Each parameter defines the intensity of the color as an integer between 0 and 255.', 'For example, rgb(0,0,255) is rendered as blue, \nbecause the blue parameter is set to its highest value (255) and the others are set to 0.', 'Shades of gray are often defined using equal values for all the 3 light sources:', 'Hexadecimal color values are also supported in all browsers.', 'A hexadecimal color is specified with:\n#RRGGBB.', 'RR (red), GG (green) and BB (blue) are hexadecimal integers between 00 and \nFF specifying the intensity of the color.', 'For example, #0000FF is displayed as blue, because the blue component is set to its highest value (FF) and the others are set to \n00.', 'Shades of gray are often defined using equal values for all the 3 light sources:', 'You can use upper case or lower case letters to specify hexadecimal values.\n', 'Lower case are easier to write. Upper case are easier to read.', 'CSS supports 140 standard color names.', 'In the next chapter you will find a complete alphabetical list of color names \nwith hexadecimal values:', 'The currentcolor keyword refers to the value of the color property of an element.', 'The border color of the following &lt;div&gt; element will be blue, because the \n text color of the &lt;div&gt; element is blue:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:50%"&gt;Color||| |||Name||| &amp;&amp;&amp; &amp;&amp;&amp;||| style="background-color:red"&gt; |||&gt;|||&gt;Red|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;||| style="background-color:yellow"&gt; |||&gt;|||&gt;Yellow|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;||| style="background-color:cyan"&gt; |||&gt;|||&gt;Cyan|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;||| style="background-color:blue"&gt; |||&gt;|||&gt;Blue|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;||| style="background-color:magenta"&gt; |||&gt;|||&gt;Magenta|||&gt;&amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Color||| &lt;th style="width:25%"&gt;RGB||| |||Color||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#FF0000"&gt; |||&gt; |||&gt;rgb(255,0,0)|||&gt; |||&gt;Red|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#00FF00"&gt; |||&gt; |||&gt;rgb(0,255,0)|||&gt; |||&gt;Green|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#0000FF"&gt; |||&gt; |||&gt;rgb(0,0,255)|||&gt; |||&gt;Blue|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Color||| &lt;th style="width:25%"&gt;RGB||| |||Color||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#000000"&gt; |||&gt; |||&gt;rgb(0,0,0)|||&gt; |||&gt;Black|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#808080"&gt; |||&gt; |||&gt;rgb(128,128,128)|||&gt; |||&gt;Gray|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#FFFFFF"&gt; |||&gt; |||&gt;rgb(255,255,255)|||&gt; |||&gt;White|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Color||| &lt;th style="width:25%"&gt;HEX||| &lt;th style="width:25%"&gt;RGB||| |||Color||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#FF0000"&gt; |||&gt; |||&gt;#FF0000|||&gt; |||&gt;rgb(255,0,0)|||&gt; |||&gt;Red|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#00FF00"&gt; |||&gt; |||&gt;#00FF00|||&gt; |||&gt;rgb(0,255,0)|||&gt; |||&gt;Green|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#0000FF"&gt; |||&gt; |||&gt;#0000FF|||&gt; |||&gt;rgb(0,0,255)|||&gt; |||&gt;Blue|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Color||| &lt;th style="width:25%"&gt;HEX||| &lt;th style="width:25%"&gt;RGB||| |||Color||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#000000"&gt; |||&gt; |||&gt;#000000|||&gt; |||&gt;rgb(0,0,0)|||&gt; |||&gt;Black|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#808080"&gt; |||&gt; |||&gt;#808080|||&gt; |||&gt;rgb(128,128,128)|||&gt; |||&gt;Gray|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="background-color:#FFFFFF"&gt; |||&gt; |||&gt;#FFFFFF|||&gt; |||&gt;rgb(255,255,255)|||&gt; |||&gt;White|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Color Name||| &lt;th style="width:25%"&gt;Hex||| |||Color||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;AliceBlue|||&gt; |||&gt;#F0F8FF|||&gt; ||| bgcolor="#F0F8FF"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;AntiqueWhite|||&gt; |||&gt;#FAEBD7|||&gt; ||| bgcolor="#FAEBD7"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Aqua|||&gt; |||&gt;#00FFFF|||&gt; ||| bgcolor="#00FFFF"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Aquamarine|||&gt; |||&gt;#7FFFD4|||&gt; ||| bgcolor="#7FFFD4"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Azure|||&gt; |||&gt;#F0FFFF|||&gt; ||| bgcolor="#F0FFFF"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Beige|||&gt; |||&gt;#F5F5DC|||&gt; ||| bgcolor="#F5F5DC"&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Bisque|||&gt; |||&gt;#FFE4C4|||&gt; ||| bgcolor="#FFE4C4"&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//colors/default.asp</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>['The HTML &lt;canvas&gt; element is used to draw graphics on a web page.', 'The graphic above is created with &lt;canvas&gt;.', 'It shows four elements: a red rectangle, a gradient rectangle,\na multicolor rectangle, and a multicolor text.', 'The HTML &lt;canvas&gt; element is used to draw graphics, on the fly, via scripting (usually JavaScript).', 'The &lt;canvas&gt; element is only a container for graphics. You must use a script to actually draw the graphics.', 'Canvas has several methods for drawing paths, boxes, circles, text, and adding images.', 'The numbers in the table specify the first browser version that fully supports the \n&lt;canvas&gt; element.', 'Canvas can draw colorful text, with or without animation. ', 'Canvas has great features for graphical data presentation with an imagery of \ngraphs and charts. ', 'Canvas objects can move. Everything is possible: from simple bouncing balls \nto complex animations.', 'Canvas can respond to \nJavaScript events.', 'Canvas can respond to any user action (key clicks, mouse \nclicks, button clicks, finger movement).', "Canvas' methods for animations, offer a lot of possibilities for HTML gaming \napplications.", 'In HTML, a &lt;canvas&gt; element looks like this:', 'The &lt;canvas&gt; element must have an id attribute so it can be referred to by JavaScript.', 'The width and height attribute is necessary to define the size of the canvas.', 'Tip: You can have multiple &lt;canvas&gt; elements on one HTML page.', 'By default, the &lt;canvas&gt; element has no border and no content.', 'To add a border, use a style attribute:', 'The next chapters show how to draw on the canvas.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%;font-size:16px;text-align:left;"&gt;Element||| &lt;th class="bsChrome" style="width:16%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:16%;" title="Internet Explorer / Edge"&gt;||| &lt;th class="bsFirefox" style="width:16%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:16%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:16%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&amp;lt;canvas&amp;gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;2.0|||&gt; |||&gt;3.1|||&gt; |||&gt;9.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//graphics/canvas_intro.asp</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>['Machine Learning is making the computer learn from studying data and statistics.', 'Machine Learning is a step into the direction of artificial intelligence (AI).', 'Machine Learning is a program that analyses data and learns to predict the \noutcome.', 'In this tutorial we will go back to mathematics and study statistics, and how to calculate \nimportant numbers based on data sets.', 'We will also learn how to use various Python modules to get the answers we \nneed.', 'And we will learn how to make functions that are able to predict the outcome \nbased on what we have learned.', 'In the mind of a computer, a data set is any collection of data.\nIt can be anything from an array to a complete database.', 'Example of an array:', '[99,86,87,88,111,86,103,87,94,78,77,85,86]', 'Example of a database:', 'By looking at the array, we can guess that the average value is probably around 80 \nor 90, and we are also able to determine the highest value and the lowest value, but what else can we do?', 'And by looking at the database we can see that the most popular color is white, and the oldest car is 17 years,\nbut what if we could predict if a car had an AutoPass, just by looking at the other values?', 'That is what Machine Learning is for! Analyzing data and predicting the outcome!', 'In Machine Learning it is common to work with very large data sets. In this \n  tutorial we will try to make it as easy as possible to understand the \n  different concepts of machine learning, and we will work with small \n  easy-to-understand data sets.', 'To analyze data, it is important to know what type of data we are dealing with.', 'We can split the data types into three main categories:', 'Numerical data are numbers, and can be split into two \nnumerical categories:', 'Categorical data are values that cannot be measured up \nagainst each other. Example: a color value, or any yes/no values.', 'Ordinal data are like categorical data, but can be measured \nup against each other. Example: school grades where A is better than B and so \non.', 'By knowing the data type of your data source, you will be able to know what \ntechnique to use when analyzing them.', 'You will learn more about statistics and analyzing data in the next chapters.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all"&gt; &amp;&amp;&amp; |||&gt;Carname|||&gt;|||&gt;Color|||&gt;||| class="auto-style1"&gt;Age|||&gt;||| class="auto-style1"&gt;Speed|||&gt;||| class="auto-style2"&gt;AutoPass|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BMW|||&gt;|||&gt;red|||&gt;||| class="auto-style1"&gt;5|||&gt;||| class="auto-style1"&gt;99|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Volvo|||&gt;|||&gt;black|||&gt;||| class="auto-style1"&gt;7|||&gt;||| class="auto-style1"&gt;86|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VW|||&gt;|||&gt;gray|||&gt;||| class="auto-style1"&gt;8|||&gt;||| class="auto-style1"&gt;87|||&gt;||| class="auto-style2"&gt;N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VW|||&gt;|||&gt;white|||&gt;||| class="auto-style1"&gt;7|||&gt;||| class="auto-style1"&gt;88|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Ford|||&gt;|||&gt;white|||&gt;||| class="auto-style1"&gt;2|||&gt;||| class="auto-style1"&gt;111|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VW|||&gt;|||&gt;white|||&gt;||| class="auto-style1"&gt;17|||&gt;||| class="auto-style1"&gt;86|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Tesla|||&gt;|||&gt;red|||&gt;||| class="auto-style1"&gt;2|||&gt;||| class="auto-style1"&gt;103|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BMW|||&gt;|||&gt;black|||&gt;||| class="auto-style1"&gt;9|||&gt;||| class="auto-style1"&gt;87|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Volvo|||&gt;|||&gt;gray|||&gt;||| class="auto-style1"&gt;4|||&gt;||| class="auto-style1"&gt;94|||&gt;||| class="auto-style2"&gt;N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Ford|||&gt;|||&gt;white|||&gt;||| class="auto-style1"&gt;11|||&gt;||| class="auto-style1"&gt;78|||&gt;||| class="auto-style2"&gt;N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Toyota|||&gt;|||&gt;gray|||&gt;||| class="auto-style1"&gt;12|||&gt;||| class="auto-style1"&gt;77|||&gt;||| class="auto-style2"&gt;N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VW|||&gt;|||&gt;white|||&gt;||| class="auto-style1"&gt;9|||&gt;||| class="auto-style1"&gt;85|||&gt;||| class="auto-style2"&gt;N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Toyota|||&gt;|||&gt;blue|||&gt;||| class="auto-style1"&gt;6|||&gt;||| class="auto-style1"&gt;86|||&gt;||| class="auto-style2"&gt;Y|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//python/python_ml_getting_started.asp</t>
   </si>
   <si>
@@ -442,9 +436,6 @@
     <t>['XPath is a major element in the XSLT standard.', 'XPath can be used to navigate through elements and attributes in an XML document.', 'XPath uses path expressions to select nodes or node-sets in an XML document.', 'These path expressions look very much like the path expressions you use with  \ntraditional computer file systems:', 'XPath includes over 200 built-in functions.', 'There are functions for string values, numeric values, booleans, date and time comparison, \nnode manipulation, sequence manipulation, and much more.', 'Today XPath expressions can also be used in JavaScript, Java, XML Schema, PHP, Python, \nC and C++, and lots of other languages.', 'XPath is a major element in the XSLT standard.', 'With XPath knowledge you will be able to take great advantage of your XSLT \nknowledge.', 'XPath 1.0 became a W3C Recommendation on November 16, 1999.', 'XPath 2.0 became a W3C Recommendation on January 23, 2007.', 'XPath 3.0 became a W3C Recommendation on April 8, 2014.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table style="width:100%;border:0"&gt; &amp;&amp;&amp; ||| style="vertical-align:top;width:165px"&gt; &lt;img alt="XPath" height="160" src="pic_xpath.gif" width="160"/&gt; |||&gt; |||&gt; &lt;ul&gt; &lt;li&gt;XPath stands for XML Path Language&lt;/li&gt; &lt;li&gt;XPath uses "path like" syntax to identify and navigate nodes in an XML document&lt;/li&gt; &lt;li&gt;XPath contains over 200 built-in functions&lt;/li&gt; &lt;li&gt;XPath is a major element in the XSLT standard&lt;/li&gt; &lt;li&gt;XPath is a W3C recommendation&lt;/li&gt; &lt;/ul&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/xpath_intro.asp</t>
   </si>
   <si>
@@ -460,9 +451,6 @@
     <t>['XQuery is to XML what SQL is to databases.', 'XQuery is designed to query XML data.', 'XQuery is a language for finding and extracting elements and attributes from XML \ndocuments.', 'Here is an example of what XQuery could solve:', '"Select all CD records with a price less than $10 from the CD collection \nstored in cd_catalog.xml"', 'XQuery 1.0 and XPath 2.0 share the same data model and support the same functions \nand operators. If you have already studied XPath you will have no problems with \nunderstanding XQuery.', 'XQuery can be used to:', 'XQuery is compatible with several W3C standards, such as XML, Namespaces, \nXSLT, XPath, and XML Schema.', 'XQuery 1.0 became a W3C Recommendation in 2007.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table style="width:100%;border:0"&gt; &amp;&amp;&amp; ||| style="vertical-align:top;width:165px"&gt; &lt;img alt="XQuery" height="160" src="pic_xpath.gif" width="160"/&gt;|||&gt; |||&gt; &lt;ul&gt; &lt;li&gt;XQuery is &lt;b&gt;&lt;i&gt;the&lt;/i&gt;&lt;/b&gt; language for querying XML data&lt;/li&gt; &lt;li&gt;XQuery for XML is like SQL for databases&lt;/li&gt; &lt;li&gt;XQuery is built on XPath expressions&lt;/li&gt; &lt;li&gt;XQuery is supported by all major databases&lt;/li&gt; &lt;li&gt;XQuery is a W3C Recommendation&lt;/li&gt; &lt;/ul&gt; |||&gt; &amp;&amp;&amp;&lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/xquery_intro.asp</t>
   </si>
   <si>
@@ -826,9 +814,6 @@
     <t>['W3Schools has over 60 million monthly visits.', 'From the statistics below (collected since 2002) you can read the long term trends of browser usage.', 'Click on the browser names to see detailed browser information:', '"The pure and simple truth is rarely pure and never simple."', 'Oscar Wilde', "W3Schools' statistics may not be relevant to your web site. Different sites \nattract different audiences. Some web sites attract developers \nusing professional hardware, while other sites attract hobbyists using older  computers.", "Anyway, data collected from W3Schools' log-files over many years clearly shows the long \nterm trends.", "Browser's developer tools can be used to inspect, edit and debug HTML, CSS, and JavaScript of the curently-loaded page. To learn more, check out the browser's own manual for developer tools:", 'Chrome DevTools', 'Microsoft Edge Developer Tools', 'Firefox Developer Tools', 'Safari Web Inspector', 'Opera DevTools', 'Mobile browsers statistics', 'Operating system statistics', 'Screen resolution statistics', 'The first electrical computer, Z3 (1941), could do 5 instructions per second.', 'The first electronic digital computer, ENIAC (1945), could do 5000 instructions \nper second.', "Today's computers can do 5 billion instructions per second.", 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||2021||| &lt;th class="right"&gt;&lt;a href="browsers_chrome.asp"&gt;Chrome&lt;/a&gt;||| &lt;th class="right"&gt;&lt;a href="browsers_explorer.asp"&gt;Edge&lt;/a&gt;||| &lt;th class="right"&gt;&lt;a href="browsers_firefox.asp"&gt;Firefox&lt;/a&gt;||| &lt;th class="right"&gt;&lt;a href="browsers_safari.asp"&gt;Safari&lt;/a&gt;||| &lt;th class="right"&gt;&lt;a href="browsers_opera.asp"&gt;Opera&lt;/a&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;December|||&gt; ||| class="right"&gt;81.0 %|||&gt; ||| class="right"&gt;6.6 %|||&gt; ||| class="right"&gt;5.5 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;80.0 %|||&gt; ||| class="right"&gt;6.8 %|||&gt; ||| class="right"&gt;5.8 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;2.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;October|||&gt; ||| class="right"&gt;80.3 %|||&gt; ||| class="right"&gt;6.7 %|||&gt; ||| class="right"&gt;5.7 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;80.9 %|||&gt; ||| class="right"&gt;6.5 %|||&gt; ||| class="right"&gt;5.6 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;2.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;August|||&gt; ||| class="right"&gt;81.4 %|||&gt; ||| class="right"&gt;6.1 %|||&gt; ||| class="right"&gt;5.6 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;2.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;81.6 %|||&gt; ||| class="right"&gt;6.0 %|||&gt; ||| class="right"&gt;5.6 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;2.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;June|||&gt; ||| class="right"&gt;81.7 %|||&gt; ||| class="right"&gt;5.9 %|||&gt; ||| class="right"&gt;5.6 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;2.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;81.2 %|||&gt; ||| class="right"&gt;5.8 %|||&gt; ||| class="right"&gt;5.8 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;2.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;April|||&gt; ||| class="right"&gt;80.7 %|||&gt; ||| class="right"&gt;5.6 %|||&gt; ||| class="right"&gt;6.1 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;80.8 %|||&gt; ||| class="right"&gt;5.5 %|||&gt; ||| class="right"&gt;6.3 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;February|||&gt; ||| class="right"&gt;80.6 %|||&gt; ||| class="right"&gt;5.4 %|||&gt; ||| class="right"&gt;6.6 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;80.3 %|||&gt; ||| class="right"&gt;5.3 %|||&gt; ||| class="right"&gt;6.7 %|||&gt; ||| class="right"&gt;3.8 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||2020||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;Edge/IE||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;December|||&gt; ||| class="right"&gt;80.5 %|||&gt; ||| class="right"&gt;5.2 %|||&gt; ||| class="right"&gt;6.7 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;80.0 %|||&gt; ||| class="right"&gt;5.3 %|||&gt; ||| class="right"&gt;7.1 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;October|||&gt; ||| class="right"&gt;80.4 %|||&gt; ||| class="right"&gt;5.2 %|||&gt; ||| class="right"&gt;7.1 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;81.0 %|||&gt; ||| class="right"&gt;4.9 %|||&gt; ||| class="right"&gt;7.2 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;2.0 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;August|||&gt; ||| class="right"&gt;81.2 %|||&gt; ||| class="right"&gt;4.6 %|||&gt; ||| class="right"&gt;7.3 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;2.0 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;81.3 %|||&gt; ||| class="right"&gt;4.3 %|||&gt; ||| class="right"&gt;7.6 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;2.0 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;June|||&gt; ||| class="right"&gt;80.7 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;8.1 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;2.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;80.7 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;8.5 %|||&gt; ||| class="right"&gt;4.1 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;April|||&gt; ||| class="right"&gt;80.7 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;8.6 %|||&gt; ||| class="right"&gt;4.2 %|||&gt; ||| class="right"&gt;1.5 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;81.4 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;8.7 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;1.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;February|||&gt; ||| class="right"&gt;82.0 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;8.7 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;1.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;81.9 %|||&gt; ||| class="right"&gt;3.0 %|||&gt; ||| class="right"&gt;9.1 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||2019||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;Edge/IE||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;81.3 %|||&gt; ||| class="right"&gt;3.2 %|||&gt; ||| class="right"&gt;9.2 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;1.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;81.4 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;9.1 %|||&gt; ||| class="right"&gt;3.1 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;80.9 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;9.3 %|||&gt; ||| class="right"&gt;2.7 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;80.4 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;9.5 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.7 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;80.0 %|||&gt; ||| class="right"&gt;3.8 %|||&gt; ||| class="right"&gt;9.6 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.7 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;79.5 %|||&gt; ||| class="right"&gt;4.0 %|||&gt; ||| class="right"&gt;10.2 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||2018||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;IE/Edge||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;79.1 %|||&gt; ||| class="right"&gt;4.1 %|||&gt; ||| class="right"&gt;10.2 %|||&gt; ||| class="right"&gt;3.8 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;79.6 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;10.3 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.5 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;80.1 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;10.8 %|||&gt; ||| class="right"&gt;2.7 %|||&gt; ||| class="right"&gt;1.5 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;79.0 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;10.9 %|||&gt; ||| class="right"&gt;3.2 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;78.1 %|||&gt; ||| class="right"&gt;4.0 %|||&gt; ||| class="right"&gt;11.5 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;77.2 %|||&gt; ||| class="right"&gt;4.1 %|||&gt; ||| class="right"&gt;12.4 %|||&gt; ||| class="right"&gt;3.2 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||2017||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;IE/Edge||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;76.8 %|||&gt; ||| class="right"&gt;4.3 %|||&gt; ||| class="right"&gt;12.5 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;76.5 %|||&gt; ||| class="right"&gt;4.2 %|||&gt; ||| class="right"&gt;12.8 %|||&gt; ||| class="right"&gt;3.2 %|||&gt; ||| class="right"&gt;1.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;76.7 %|||&gt; ||| class="right"&gt;4.2 %|||&gt; ||| class="right"&gt;13.3 %|||&gt; ||| class="right"&gt;3.0 %|||&gt; ||| class="right"&gt;1.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;75.8 %|||&gt; ||| class="right"&gt;4.6 %|||&gt; ||| class="right"&gt;13.6 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;1.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;75.1 %|||&gt; ||| class="right"&gt;4.8 %|||&gt; ||| class="right"&gt;14.1 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;1.0 %|||&gt; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;73.7 %|||&gt; ||| class="right"&gt;4.9 %|||&gt; ||| class="right"&gt;15.4 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;1.0 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||2016||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;IE/Edge||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;November|||&gt; ||| class="right"&gt;73.8 %|||&gt; ||| class="right"&gt;5.2 %|||&gt; ||| class="right"&gt;15.3 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;1.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;September|||&gt; ||| class="right"&gt;72.5 %|||&gt; ||| class="right"&gt;5.3 %|||&gt; ||| class="right"&gt;16.3 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;1.0 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;July|||&gt; ||| class="right"&gt;71.9 %|||&gt; ||| class="right"&gt;5.2 %|||&gt; ||| class="right"&gt;17.1 %|||&gt; ||| class="right"&gt;3.2 %|||&gt; ||| class="right"&gt;1.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;May|||&gt; ||| class="right"&gt;71.4 %|||&gt; ||| class="right"&gt;5.7 %|||&gt; ||| class="right"&gt;16.9 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;1.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;March|||&gt; ||| class="right"&gt;69.9 %|||&gt; ||| class="right"&gt;6.1 %|||&gt; ||| class="right"&gt;17.8 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;1.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;January|||&gt; ||| class="right"&gt;68.4 %|||&gt; ||| class="right"&gt;6.2 %|||&gt; ||| class="right"&gt;18.8 %|||&gt; ||| class="right"&gt;3.7 %|||&gt; ||| class="right"&gt;1.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp;&lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||Year||| &lt;th class="right"&gt;Chrome||| &lt;th class="right"&gt;IE||| &lt;th class="right"&gt;Firefox||| &lt;th class="right"&gt;Safari||| &lt;th class="right"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2015|||&gt; ||| class="right"&gt;63.3 %|||&gt; ||| class="right"&gt;6.5 %|||&gt; ||| class="right"&gt;21.6 %|||&gt; ||| class="right"&gt;4.9 %|||&gt; ||| class="right"&gt;2.5 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2014|||&gt; ||| class="right"&gt;59.8 %|||&gt; ||| class="right"&gt;8.5 %|||&gt; ||| class="right"&gt;24.9 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;1.7 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2013|||&gt; ||| class="right"&gt;52.8 %|||&gt; ||| class="right"&gt;11.8 %|||&gt; ||| class="right"&gt;28.9 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2012|||&gt; ||| class="right"&gt;42.9 %|||&gt; ||| class="right"&gt;16.3 %|||&gt; ||| class="right"&gt;33.7 %|||&gt; ||| class="right"&gt;3.9 %|||&gt; ||| class="right"&gt;2.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2011|||&gt; ||| class="right"&gt;29.4 %|||&gt; ||| class="right"&gt;22.0 %|||&gt; ||| class="right"&gt;42.0 %|||&gt; ||| class="right"&gt;3.6 %|||&gt; ||| class="right"&gt;2.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2010|||&gt; ||| class="right"&gt;16.7 %|||&gt; ||| class="right"&gt;30.4 %|||&gt; ||| class="right"&gt;46.4 %|||&gt; ||| class="right"&gt;3.4 %|||&gt; ||| class="right"&gt;2.3 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2009|||&gt; ||| class="right"&gt;6.5 %|||&gt; ||| class="right"&gt;39.4 %|||&gt; ||| class="right"&gt;47.9 %|||&gt; ||| class="right"&gt;3.3 %|||&gt; ||| class="right"&gt;2.1 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2008|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;52.4 %|||&gt; ||| class="right"&gt;42.6 %|||&gt; ||| class="right"&gt;2.5 %|||&gt; ||| class="right"&gt;1.9 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2007|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;58.5 %|||&gt; ||| class="right"&gt;35.9 %|||&gt; ||| class="right"&gt;1.5 %|||&gt; ||| class="right"&gt;1.9 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||||| ||| class="right"&gt;|||&gt; &lt;th class="right"&gt;||| &lt;th class="right"&gt;||| &lt;th class="right"&gt;Netscape||| &lt;th class="right"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2006|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;62.4 %|||&gt; ||| class="right"&gt;27.8 %|||&gt; ||| class="right"&gt;0.4 %|||&gt; ||| class="right"&gt;1.4 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2005|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;73.8 %|||&gt; ||| class="right"&gt;22.4 %|||&gt; ||| class="right"&gt;0.5 %|||&gt; ||| class="right"&gt;1.2 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||||| |||||| &lt;th class="right"&gt;||| &lt;th class="right"&gt;Mozilla||| &lt;th class="right"&gt;||| &lt;th class="right"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2004|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;80.4 %|||&gt; ||| class="right"&gt;12.6 %|||&gt; ||| class="right"&gt;2.2 %|||&gt; ||| class="right"&gt;1.6 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2003|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;87.2 %|||&gt; ||| class="right"&gt;5.7 %|||&gt; ||| class="right"&gt;2.7 %|||&gt; ||| class="right"&gt;1.7 %|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2002|||&gt; ||| class="right"&gt;|||&gt; ||| class="right"&gt;84.5 %|||&gt; ||| class="right"&gt;3.5 %|||&gt; ||| class="right"&gt;7.3 %|||&gt; ||| class="right"&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all"&gt; &amp;&amp;&amp;|||Computer||||||Year||||||Instructions&lt;br/&gt;per Second||||||Bits&lt;br/&gt;   per Instruction|||&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Z3|||&gt;|||&gt;1941|||&gt;|||&gt;5|||&gt;|||&gt;4|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ENIAC|||&gt;|||&gt;1945|||&gt;|||&gt;5.000|||&gt;|||&gt;8|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;IBM PC|||&gt;|||&gt;1981|||&gt;|||&gt;5.000.000|||&gt;|||&gt;16|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Intel Pentium|||&gt;|||&gt;1995|||&gt;|||&gt;100.000.000|||&gt;|||&gt;32|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;AMD|||&gt;|||&gt;2000|||&gt;|||&gt;1.000.000.000|||&gt;|||&gt;64|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Today|||&gt;|||&gt;2020|||&gt;|||&gt;5.000.000.000|||&gt;|||&gt;128|||&gt;&amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//browsers/default.asp</t>
   </si>
   <si>
@@ -868,9 +853,6 @@
     <t>['With W3Schools online code editor, you can edit HTML, CSS and JavaScript \ncode, and view the result in your browser.', 'The window to the left is editable - edit the code and click on the "Run" button to view the result in the right window.', 'The "Result Size" returns the width and the height of the result window in pixels (even when you resize the browser window).', 'You can control the size of a window with the bar in between the windows (draggable gutter).', 'The icons are explained in the table below:', 'If you are new to coding, we suggest that you start with HTML, and move on to CSS and JavaScript:', 'The backend code compiler allows you to edit Python, C#, C++, PHP, \nNode.js, Java, Bash, Clojure, Fortran, Go, Kotlin, Perl, R, Ruby, Scala, Swift, \nTypeScript, and VB.NET code, and view the result in your browser.', 'Click on the "Try it Yourself" button to see how it works.', 'The Dropdown list to the right of the "Run" button allows you to change programming languages.', 'By selecting the "input" tab, you can add user input to use in the code.', 'The "+" tabs allows you to add additional files (for the same language you are currently running) to run.', 'Tip: You will find most of the topics above in our home page.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all"&gt; &amp;&amp;&amp; |||Icon||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-home w3-xlarge" style="color:#888"&gt;&lt;/span&gt;|||&gt; |||&gt;Go to www.w3schools.com|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bars w3-xlarge" style="color:#888"&gt;&lt;/span&gt;|||&gt; |||&gt;Menu button for more options|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-save w3-xlarge" style="color:#888"&gt;&lt;/span&gt;|||&gt; |||&gt;Save your code (and share it with others)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-rotate w3-xlarge" style="color:#888"&gt;&lt;/span&gt;|||&gt; |||&gt;Change orientation (horizontally or vertically)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-adjust w3-xlarge" style="color:#888"&gt;&lt;/span&gt;|||&gt; |||&gt;Change color theme (dark or light)|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//tryit/default.asp</t>
   </si>
   <si>
@@ -922,9 +904,6 @@
     <t>HTML Reference</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Tag||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_comment.asp"&gt;&amp;lt;!--...--&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a comment|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_doctype.asp"&gt;&amp;lt;!DOCTYPE&amp;gt;&lt;/a&gt; |||&gt; |||&gt;Defines the document type|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a hyperlink|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_abbr.asp"&gt;&amp;lt;abbr&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an abbreviation or an acronym|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_acronym.asp"&gt;&amp;lt;acronym&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use &lt;a href="tag_abbr.asp"&gt;&amp;lt;abbr&amp;gt;&lt;/a&gt; instead.&lt;br/&gt;&lt;/span&gt;Defines an acronym|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_address.asp"&gt;&amp;lt;address&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines contact information for the author/owner of a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_applet.asp"&gt;&amp;lt;applet&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt; or &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt; instead.&lt;br/&gt;&lt;/span&gt;Defines an embedded applet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an area inside an image map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="html5badge"&gt;&lt;a href="tag_article.asp"&gt;&amp;lt;article&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an article|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="html5badge"&gt;&lt;a href="tag_aside.asp"&gt;&amp;lt;aside&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines content aside from the page content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="html5badge"&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines embedded sound content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_b.asp"&gt;&amp;lt;b&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines bold text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_base.asp"&gt;&amp;lt;base&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the base URL/target for all relative URLs in a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_basefont.asp"&gt;&amp;lt;basefont&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use CSS instead.&lt;br/&gt;&lt;/span&gt;Specifies a default color, size, and font for all text in a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_bdi.asp"&gt;&amp;lt;bdi&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Isolates a part of text that might be formatted in a different direction  from other text outside it|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_bdo.asp"&gt;&amp;lt;bdo&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Overrides the current text direction|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_big.asp"&gt;&amp;lt;big&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use CSS instead.&lt;br/&gt;&lt;/span&gt;Defines big text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_blockquote.asp"&gt;&amp;lt;blockquote&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a section that is quoted from another source|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines the document's body|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_br.asp"&gt;&amp;lt;br&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a single line break|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a clickable button|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_canvas.asp"&gt;&amp;lt;canvas&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Used to draw graphics, on the fly, via scripting (usually JavaScript)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_caption.asp"&gt;&amp;lt;caption&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a table caption|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_center.asp"&gt;&amp;lt;center&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use CSS instead.&lt;br/&gt;&lt;/span&gt;Defines centered text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_cite.asp"&gt;&amp;lt;cite&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines the title of a work|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_code.asp"&gt;&amp;lt;code&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a piece of computer code|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_col.asp"&gt;&amp;lt;col&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies column properties for each column within a &amp;lt;colgroup&amp;gt; element |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_colgroup.asp"&gt;&amp;lt;colgroup&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a group of one or more columns in a table for formatting|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_data.asp"&gt;&amp;lt;data&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Adds a machine-readable  translation of a given content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_datalist.asp"&gt;&amp;lt;datalist&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a list of pre-defined options for input controls|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_dd.asp"&gt;&amp;lt;dd&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a description/value of a term in a description list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_del.asp"&gt;&amp;lt;del&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines text that has been deleted from a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_details.asp"&gt;&amp;lt;details&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines additional details that the user can view or hide|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_dfn.asp"&gt;&amp;lt;dfn&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a term that is going to be defined within the content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_dialog.asp"&gt;&amp;lt;dialog&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a dialog box or window|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_dir.asp"&gt;&amp;lt;dir&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use &lt;a href="tag_ul.asp"&gt;&amp;lt;ul&amp;gt;&lt;/a&gt; instead.&lt;br/&gt;&lt;/span&gt;Defines a directory list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_div.asp"&gt;&amp;lt;div&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a section in a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_dl.asp"&gt;&amp;lt;dl&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a description list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_dt.asp"&gt;&amp;lt;dt&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a term/name in a description list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_em.asp"&gt;&amp;lt;em&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines emphasized text |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a container for an external application|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_fieldset.asp"&gt;&amp;lt;fieldset&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Groups related elements in a form|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="html5badge"&gt;&lt;a href="tag_figcaption.asp"&gt;&amp;lt;figcaption&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a caption for a &amp;lt;figure&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="html5badge"&gt;&lt;a href="tag_figure.asp"&gt;&amp;lt;figure&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies self-contained content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_font.asp"&gt;&amp;lt;font&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use CSS instead.&lt;br/&gt;&lt;/span&gt;Defines font, color, and size for text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_footer.asp"&gt;&amp;lt;footer&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a footer for a document or section|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an HTML form for user input|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_frame.asp"&gt;&amp;lt;frame&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5.&lt;br/&gt;&lt;/span&gt;Defines a window (a frame) in a frameset|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_frameset.asp"&gt;&amp;lt;frameset&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5.&lt;br/&gt;&lt;/span&gt;Defines a set of frames|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_hn.asp"&gt;&amp;lt;h1&amp;gt; to &amp;lt;h6&amp;gt;&lt;/a&gt;|||&gt; |||&gt; Defines HTML headings|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_head.asp"&gt;&amp;lt;head&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Contains metadata/information for the document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_header.asp"&gt;&amp;lt;header&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a header for a document or section|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_hr.asp"&gt;&amp;lt;hr&amp;gt;&lt;/a&gt;|||&gt; |||&gt; Defines a thematic change in the content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_html.asp"&gt;&amp;lt;html&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines the root of an HTML document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_i.asp"&gt;&amp;lt;i&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a part of text in an alternate voice or mood|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an inline frame|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an input control|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_ins.asp"&gt;&amp;lt;ins&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a text that has been inserted into a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_kbd.asp"&gt;&amp;lt;kbd&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines keyboard input|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_label.asp"&gt;&amp;lt;label&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a label for an &amp;lt;input&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_legend.asp"&gt;&amp;lt;legend&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a caption for a &amp;lt;fieldset&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_li.asp"&gt;&amp;lt;li&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a list item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines the relationship between a document and an external resource (most  used to link to style sheets)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_main.asp"&gt;&amp;lt;main&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the main content of a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_map.asp"&gt;&amp;lt;map&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an image map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_mark.asp"&gt;&amp;lt;mark&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines marked/highlighted text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_meta.asp"&gt;&amp;lt;meta&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines metadata about an HTML document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a scalar measurement within a known range (a gauge)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_nav.asp"&gt;&amp;lt;nav&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines navigation links|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_noframes.asp"&gt;&amp;lt;noframes&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5.&lt;br/&gt;&lt;/span&gt;Defines an alternate content for users that do not support frames|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_noscript.asp"&gt;&amp;lt;noscript&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an alternate content for users that do not support  client-side scripts|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a container for an external application|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_ol.asp"&gt;&amp;lt;ol&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an ordered list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_optgroup.asp"&gt;&amp;lt;optgroup&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a group of related options in a drop-down list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_option.asp"&gt;&amp;lt;option&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an option in a drop-down list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_output.asp"&gt;&amp;lt;output&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines the result of a calculation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_p.asp"&gt;&amp;lt;p&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a paragraph|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_param.asp"&gt;&amp;lt;param&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a parameter for an object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_picture.asp"&gt;&amp;lt;picture&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a container for multiple image resources|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_pre.asp"&gt;&amp;lt;pre&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines preformatted text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_progress.asp"&gt;&amp;lt;progress&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Represents the progress of a task|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_q.asp"&gt;&amp;lt;q&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a short quotation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_rp.asp"&gt;&amp;lt;rp&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines what to show in browsers that do not support ruby annotations|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_rt.asp"&gt;&amp;lt;rt&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an explanation/pronunciation of characters (for East Asian  typography)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_ruby.asp"&gt;&amp;lt;ruby&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a ruby annotation (for East Asian typography)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_s.asp"&gt;&amp;lt;s&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines text that is no longer correct|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_samp.asp"&gt;&amp;lt;samp&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines sample output from a computer program|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a client-side script|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_section.asp"&gt;&amp;lt;section&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a section in a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a drop-down list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_small.asp"&gt;&amp;lt;small&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines smaller text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_source.asp"&gt;&amp;lt;source&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines multiple media resources for media elements (&amp;lt;video&amp;gt; and &amp;lt;audio&amp;gt;)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_span.asp"&gt;&amp;lt;span&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a section in a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_strike.asp"&gt;&amp;lt;strike&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use &lt;a href="tag_del.asp"&gt;&amp;lt;del&amp;gt;&lt;/a&gt; or &lt;a href="tag_s.asp"&gt;&amp;lt;s&amp;gt;&lt;/a&gt; instead.&lt;br/&gt;&lt;/span&gt;Defines strikethrough text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_strong.asp"&gt;&amp;lt;strong&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines important text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_style.asp"&gt;&amp;lt;style&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines style information for a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_sub.asp"&gt;&amp;lt;sub&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines subscripted text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_summary.asp"&gt;&amp;lt;summary&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a visible heading for a &amp;lt;details&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_sup.asp"&gt;&amp;lt;sup&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines superscripted text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_svg.asp"&gt;&amp;lt;svg&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a container for SVG graphics|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_table.asp"&gt;&amp;lt;table&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_tbody.asp"&gt;&amp;lt;tbody&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Groups the body content in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_td.asp"&gt;&amp;lt;td&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a cell in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_template.asp"&gt;&amp;lt;template&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a container for content that should be hidden when the page loads|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a multiline input control (text area)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_tfoot.asp"&gt;&amp;lt;tfoot&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Groups the footer content in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_th.asp"&gt;&amp;lt;th&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a header cell in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_thead.asp"&gt;&amp;lt;thead&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Groups the header content in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_time.asp"&gt;&amp;lt;time&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a specific time (or datetime)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_title.asp"&gt;&amp;lt;title&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a title for the document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_tr.asp"&gt;&amp;lt;tr&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a row in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines text tracks for media elements (&amp;lt;video&amp;gt; and &amp;lt;audio&amp;gt;)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a class="notsupported" href="tag_tt.asp"&gt;&amp;lt;tt&amp;gt;&lt;/a&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML5. Use CSS instead.&lt;br/&gt;&lt;/span&gt;Defines teletype text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_u.asp"&gt;&amp;lt;u&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines some text that is unarticulated and styled differently from normal  text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_ul.asp"&gt;&amp;lt;ul&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines an unordered list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_var.asp"&gt;&amp;lt;var&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a variable|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines embedded video content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="tag_wbr.asp"&gt;&amp;lt;wbr&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Defines a possible line-break|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//tags/default.asp</t>
   </si>
   <si>
@@ -934,7 +913,7 @@
     <t>['The table below lists all HTML elements and their attributes, along with browser support:', '* Not supported by default, but can be enabled in about:config (set dom.dialog_element.enabled to true).', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_a.asp"&gt;&lt;big&gt;&lt;strong&gt;&amp;lt;a&amp;gt;&lt;/strong&gt;&lt;/big&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_download.asp"&gt;download&lt;/a&gt;|||&gt; |||&gt;14.0|||&gt; |||&gt;18.0|||&gt; |||&gt;20.0|||&gt; |||&gt;10.1|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_href.asp"&gt;href&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_hreflang.asp"&gt;hreflang&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_media.asp"&gt;media&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_ping.asp"&gt;ping&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_referrepolicy.asp"&gt;referrerpolicy&lt;/a&gt;|||&gt; |||&gt;51.0|||&gt; |||&gt;79.0|||&gt; |||&gt;50.0|||&gt; |||&gt;11.1|||&gt; |||&gt;38.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_rel.asp"&gt;rel&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_target.asp"&gt;target&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_a_type.asp"&gt;type&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_abbr.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;abbr&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_address.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;address&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_area.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;area&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_alt.asp"&gt;alt&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_coords.asp"&gt;coords&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_download.asp"&gt;download&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_href.asp"&gt;href&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_hreflang.asp"&gt;hreflang&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_media.asp"&gt;media&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_referrepolicy.asp"&gt;referrerpolicy&lt;/a&gt;|||&gt; |||&gt;51.0|||&gt; |||&gt;79.0|||&gt; |||&gt;50.0|||&gt; |||&gt;11.1|||&gt; |||&gt;38.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_rel.asp"&gt;rel&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_shape.asp"&gt;shape&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_target.asp"&gt;target&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_area_type.asp"&gt;type&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_article.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;article&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;6.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.0|||&gt; |||&gt;11.1|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_aside.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;aside&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;6.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.0|||&gt; |||&gt;11.1|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_audio.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;audio&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;3.5|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_autoplay.asp"&gt;autoplay&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;3.5|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_controls.asp"&gt;controls&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;3.5|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_loop.asp"&gt;loop&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;3.5|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_muted.asp"&gt;muted&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;10.0|||&gt; |||&gt;11.0|||&gt; |||&gt;7.1|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_preload.asp"&gt;preload&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_audio_src.asp"&gt;src&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;3.5|||&gt; |||&gt;4.0|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_b.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;b&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_base.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;base&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_base_href.asp"&gt;href&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_base_target.asp"&gt;target&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_bdi.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;bdi&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;16.0|||&gt; |||&gt;79.0|||&gt; |||&gt;10.0|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_bdo.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;bdo&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_bdo_dir.asp"&gt;dir&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_blockquote.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;blockquote&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_blockquote_cite.asp"&gt;cite&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_body.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;body&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_br.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;br&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_button.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;button&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_autofocus.asp"&gt;autofocus&lt;/a&gt;|||&gt; |||&gt;5.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.0|||&gt; |||&gt;9.6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_disabled.asp"&gt;disabled&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_form.asp"&gt;form&lt;/a&gt;|||&gt; |||&gt;10.0|||&gt; |||&gt;16.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;9.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_formaction.asp"&gt;formaction&lt;/a&gt;|||&gt; |||&gt;9.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_formenctype.asp"&gt;     formenctype&lt;/a&gt;|||&gt; |||&gt;9.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_formmethod.asp"&gt;formmethod&lt;/a&gt;|||&gt; |||&gt;9.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_formnovalidate.asp"&gt;     formnovalidate&lt;/a&gt;|||&gt; |||&gt;6.0|||&gt; |||&gt;11.0|||&gt; |||&gt;4.0|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_formtarget.asp"&gt;formtarget&lt;/a&gt;|||&gt; |||&gt;9.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;10.6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_name.asp"&gt;name&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_type.asp"&gt;type&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_button_value.asp"&gt;value&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_canvas.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;canvas&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;2.0|||&gt; |||&gt;3.1|||&gt; |||&gt;9.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_canvas_height.asp"&gt;height&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;2.0|||&gt; |||&gt;3.1|||&gt; |||&gt;9.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_canvas_width.asp"&gt;width&lt;/a&gt;|||&gt; |||&gt;4.0|||&gt; |||&gt;9.0|||&gt; |||&gt;2.0|||&gt; |||&gt;3.1|||&gt; |||&gt;9.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_caption.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;caption&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_cite.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;cite&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_code.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;code&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_col.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;col&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_col_span.asp"&gt;span&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_colgroup.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;colgroup&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_colgroup_span.asp"&gt;span&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_data.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;data&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;62.0|||&gt; |||&gt;13.0|||&gt; |||&gt;22.0|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;49.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;value|||&gt; |||&gt;62.0|||&gt; |||&gt;13.0|||&gt; |||&gt;22.0|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;49.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_datalist.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;datalist&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;20.0|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;12.1|||&gt; |||&gt;9.5|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_dd.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;dd&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_del.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;del&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_del_cite.asp"&gt;cite&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_del_datetime.asp"&gt;datetime&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_details.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;details&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;12.0 |||&gt; |||&gt;79.0|||&gt; |||&gt;49.0|||&gt; |||&gt;6.0|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_details_open.asp"&gt;open&lt;/a&gt;|||&gt; |||&gt;12.0|||&gt; |||&gt;79.0|||&gt; |||&gt;49.0|||&gt; |||&gt;6.0|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_dfn.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;dfn&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_dialog.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;dialog&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;37.0|||&gt; |||&gt;79.0|||&gt; |||&gt;53.0*|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;24.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_dialog_open.asp"&gt;open&lt;/a&gt;|||&gt; |||&gt;37.0|||&gt; |||&gt;79.0|||&gt; |||&gt;53.0*|||&gt; |||&gt;&lt;span class="deprecated"&gt;No&lt;/span&gt;|||&gt; |||&gt;24.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_div.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;div&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_dl.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;dl&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_dt.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;dt&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_em.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;em&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_embed.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;embed&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_embed_height.asp"&gt;height&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_embed_src.asp"&gt;src&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_embed_type.asp"&gt;type&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_embed_width.asp"&gt;width&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_fieldset.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;fieldset&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_fieldset_disabled.asp"&gt;disabled&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;6.0|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_fieldset_form.asp"&gt;form&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_fieldset_name.asp"&gt;name&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;11.0|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_figcaption.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;figcaption&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;8.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;11.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_figure.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;figure&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;8.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.1|||&gt; |||&gt;11.0|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_footer.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;footer&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;5.0|||&gt; |||&gt;9.0|||&gt; |||&gt;4.0|||&gt; |||&gt;5.0|||&gt; |||&gt;11.1|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="tag_form.asp"&gt;&lt;strong&gt;&lt;big&gt;&amp;lt;form&amp;gt;&lt;/big&gt;&lt;/strong&gt;&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_accept_charset.asp"&gt;     accept-charset&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_action.asp"&gt;action&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_autocomplete.asp"&gt;     autocomplete&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;4.0|||&gt; |||&gt;5.2|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_enctype.asp"&gt;enctype&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_method.asp"&gt;method&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_name.asp"&gt;name&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_novalidate.asp"&gt;novalidate&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;10.0|||&gt; |||&gt;4.0|||&gt; |||&gt;10.1|||&gt; |||&gt;15.0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_rel.asp"&gt;rel&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="text-align:left;"&gt;&lt;a href="att_form_target.asp"&gt;target&lt;/a&gt;|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; |||&gt;Yes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="browserref notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%;font-size:16px;text-align:left;"&gt; ||| &lt;th class="bsChrome" style="width:15%;" title="Chrome"&gt;||| &lt;th class="bsEdge" style="width:15%;" title="Edge/Internet Explorer"&gt;||| &lt;th class="bsFirefox" style="width:15%;" title="Firefox"&gt;||| &lt;th class="bsSafari" style="width:15%;" title="Safari"&gt;||| &lt;th class="bsOpera" style="width:15%;" title="Opera"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| style</t>
+    <t>http://www.w3schools.com//tags/ref_html_browsersupport.asp</t>
   </si>
   <si>
     <t>HTML Event Attributes</t>
@@ -943,9 +922,6 @@
     <t>['HTML has the ability to let events trigger actions in a browser, like starting a JavaScript when a user clicks on an element.', 'To learn more about programming events, please visit our JavaScript tutorial.', 'Below are the global event attributes that can be added to HTML elements to define event actions.', 'Events triggered for the window object (applies to the &lt;body&gt; tag):', 'Events triggered by actions inside a HTML form (applies to almost all HTML elements, but is most \nused in form elements):', 'Events triggered by medias like videos, images and audio (applies to all HTML elements, but is most common in media elements, \nlike &lt;audio&gt;, &lt;embed&gt;, &lt;img&gt;, &lt;object&gt;, and &lt;video&gt;).', 'Tip: Look at our HTML Audio and Video DOM Reference \nfor more information.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onafterprint.asp"&gt;onafterprint&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run after the document is printed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onbeforeprint.asp"&gt;onbeforeprint&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run before the document is printed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onbeforeunload.asp"&gt;onbeforeunload&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the document is about to be unloaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onerror.asp"&gt;onerror&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an error occurs|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onhashchange.asp"&gt;onhashchange&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when there has been changes to the anchor part of the a URL|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onload.asp"&gt;onload&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires after the page is finished loading|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onmessage|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the message is triggered|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onoffline.asp"&gt;onoffline&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the browser starts to work offline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ononline.asp"&gt;ononline&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the browser starts to work online|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onpagehide|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a user navigates away from a page|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onpageshow.asp"&gt;onpageshow&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a user navigates to a page|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onpopstate|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the window's history changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onresize.asp"&gt;onresize&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the browser window is resized|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onstorage|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a Web Storage area is updated|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onunload.asp"&gt;onunload&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires once a page has unloaded (or the browser window has been closed)|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onblur.asp"&gt;onblur&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires the moment that the element loses focus|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onchange.asp"&gt;onchange&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires the moment when the value of the element is changed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_oncontextmenu.asp"&gt;oncontextmenu&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a context menu is triggered|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onfocus.asp"&gt;onfocus&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires the moment when the element gets focus|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_oninput.asp"&gt;oninput&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element gets user input|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_oninvalid.asp"&gt;oninvalid&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element is invalid|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onreset.asp"&gt;onreset&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the Reset button in a form is clicked|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onsearch.asp"&gt;onsearch&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the user writes something in a search field (for  &amp;lt;input="search"&amp;gt;)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onselect.asp"&gt;onselect&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires after some text has been selected in an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onsubmit.asp"&gt;onsubmit&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a form is submitted|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onkeydown.asp"&gt;onkeydown&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a user is pressing a key|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onkeypress.asp"&gt;onkeypress&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a user presses a key|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onkeyup.asp"&gt;onkeyup&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a user releases a key|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onclick.asp"&gt;onclick&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires on a mouse click on the element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondblclick.asp"&gt;ondblclick&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires on a mouse double-click on the element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onmousedown.asp"&gt;onmousedown&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a mouse button is pressed down on an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onmousemove.asp"&gt;onmousemove&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the mouse pointer is moving while it is over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onmouseout.asp"&gt;onmouseout&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the mouse pointer moves out of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onmouseover.asp"&gt;onmouseover&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the mouse pointer moves over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onmouseup.asp"&gt;onmouseup&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when a mouse button is released over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onmousewheel|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;&lt;span class="deprecated"&gt;Deprecated.&lt;/span&gt; Use the &lt;a href="ev_onwheel.asp"&gt;onwheel&lt;/a&gt; attribute instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onwheel.asp"&gt;onwheel&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the mouse wheel rolls up or down over an element|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondrag.asp"&gt;ondrag&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element is dragged|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondragend.asp"&gt;ondragend&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run at the end of a drag operation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondragenter.asp"&gt;ondragenter&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element has been dragged to a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondragleave.asp"&gt;ondragleave&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element leaves a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| style="height: 32px"&gt;&lt;a href="ev_ondragover.asp"&gt;ondragover&lt;/a&gt;|||&gt; ||| style="height: 32px"&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; ||| style="height: 32px"&gt;Script to be run when an element is being dragged over a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondragstart.asp"&gt;ondragstart&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run at the start of a drag operation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ondrop.asp"&gt;ondrop&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when dragged element is being dropped|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onscroll.asp"&gt;onscroll&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an element's scrollbar is being scrolled|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_oncopy.asp"&gt;oncopy&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the user copies the content of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_oncut.asp"&gt;oncut&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the user cuts the content of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_onpaste.asp"&gt;onpaste&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the user pastes some content in an element|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:180px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onabort|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run on abort|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;oncanplay|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a file is ready to start playing (when it has buffered enough to begin)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;oncanplaythrough|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when a file can be played all the way to the end without pausing for buffering|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;oncuechange|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the cue changes in a &amp;lt;track&amp;gt; element |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ondurationchange|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the length of the media changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onemptied|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when something bad happens and the file is suddenly unavailable (like unexpectedly disconnects)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onended|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the media has reach the end (a useful event for messages like "thanks for listening")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onerror|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when an error occurs when the file is being loaded |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onloadeddata|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when media data is loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onloadedmetadata|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when meta data (like dimensions and duration) are loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onloadstart|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run just as the file begins to load before anything is actually  loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onpause|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the media is paused either by the user or programmatically|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onplay|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the media is ready to start playing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onplaying|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the media actually has started playing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onprogress|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the browser is in the process of getting the media  data|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onratechange|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run each time the playback rate changes (like when a user switches to a slow motion or fast forward mode)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onseeked|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the seeking attribute is set to false indicating that seeking has ended|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onseeking|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the seeking attribute is set to true indicating that seeking is active|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onstalled|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the browser is unable to fetch the media data for whatever reason|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onsuspend|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when fetching the media data is stopped before it is completely loaded for whatever reason|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ontimeupdate|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the playing position has changed (like when the user fast forwards to a different point in the media)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onvolumechange|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run each time the volume is changed which (includes setting the volume to "mute")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onwaiting|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Script to be run when the media has paused but is expected to resume (like when the media pauses to buffer more data)|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:160px"&gt;Attribute||| &lt;th style="width:75px"&gt;Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ev_ontoggle.asp"&gt;ontoggle&lt;/a&gt;|||&gt; |||&gt;&lt;i&gt;script&lt;/i&gt;|||&gt; |||&gt;Fires when the user opens or closes the &amp;lt;details&amp;gt; element|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//tags/ref_eventattributes.asp</t>
   </si>
   <si>
@@ -955,7 +931,7 @@
     <t>['The table below lists all HTML attributes and what elements they can be used within:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &lt;tbody&gt;&amp;&amp;&amp; &lt;th style="width:25%; height: 37px;"&gt;Attribute||| &lt;th style="height: 37px"&gt;Belongs to||| &lt;th style="height: 37px"&gt;Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_accept.asp"&gt;accept&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the types of files that the server accepts (only for type="file")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_accept-charset.asp"&gt;accept-charset&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the character encodings that are to be used for the form  submission|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_accesskey.asp"&gt;accesskey&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies a shortcut key to activate/focus an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_action.asp"&gt;action&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies where to send the form-data when a form is submitted|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;align|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML 5.&lt;/span&gt;|||&gt; |||&gt;Specifies the alignment according to surrounding elements. Use CSS instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_alt.asp"&gt;alt&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies an alternate text when the original element fails to display|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_async.asp"&gt;async&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the script is executed asynchronously (only for external  scripts)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_autocomplete.asp"&gt;autocomplete&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies whether the &amp;lt;form&amp;gt; or the &amp;lt;input&amp;gt; element should have autocomplete  enabled|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_autofocus.asp"&gt;autofocus&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the element should automatically get focus when the page  loads|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_autoplay.asp"&gt;autoplay&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the audio/video will start playing as soon as it is ready|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;bgcolor|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML 5.&lt;/span&gt;|||&gt; |||&gt;Specifies the background color of an element. Use CSS instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;border|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML 5.&lt;/span&gt;|||&gt; |||&gt;Specifies the width of the border of an element. Use CSS instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_charset.asp"&gt;charset&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meta.asp"&gt;&amp;lt;meta&amp;gt;&lt;/a&gt;, &lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the character encoding|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_checked.asp"&gt;checked&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that an &amp;lt;input&amp;gt; element should be pre-selected when the page loads  (for type="checkbox" or type="radio")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_cite.asp"&gt;cite&lt;/a&gt;|||&gt; |||&gt;&amp;lt;blockquote&amp;gt;, &lt;a href="tag_del.asp"&gt;&amp;lt;del&amp;gt;&lt;/a&gt;, &lt;a href="tag_ins.asp"&gt;&amp;lt;ins&amp;gt;&lt;/a&gt;, &amp;lt;q&amp;gt;|||&gt; |||&gt;Specifies a URL which explains the quote/deleted/inserted text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_class.asp"&gt;class&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies one or more classnames for an element (refers to a class in a  style sheet)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;color|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not supported in HTML 5.&lt;/span&gt;|||&gt; |||&gt;Specifies the text color of an element. Use CSS instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_cols.asp"&gt;cols&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the visible width of a text area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_colspan.asp"&gt;colspan&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_td.asp"&gt;&amp;lt;td&amp;gt;&lt;/a&gt;, &lt;a href="tag_th.asp"&gt;&amp;lt;th&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the number of columns a table cell should span|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_content.asp"&gt;content&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meta.asp"&gt;&amp;lt;meta&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Gives the value associated with the http-equiv or name attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_contenteditable.asp"&gt;contenteditable&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies whether the content of an element is editable or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_controls.asp"&gt;controls&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that audio/video controls should be displayed (such as a  play/pause button etc)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_coords.asp"&gt;coords&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the coordinates of the area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_data.asp"&gt;data&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the URL of the resource to be used by the object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_data-.asp"&gt;data-*&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Used to store custom data private to the page or application|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_datetime.asp"&gt;datetime&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_del.asp"&gt;&amp;lt;del&amp;gt;&lt;/a&gt;, &lt;a href="tag_ins.asp"&gt;&amp;lt;ins&amp;gt;&lt;/a&gt;, &lt;a href="tag_time.asp"&gt;&amp;lt;time&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_default.asp"&gt;default&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the track is to be enabled if the user's preferences do not  indicate that another track would be more appropriate|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_defer.asp"&gt;defer&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the script is executed when the page has finished parsing  (only for external scripts)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_dir.asp"&gt;dir&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies the text direction for the content in an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_dirname.asp"&gt;dirname&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the text direction will be submitted|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_disabled.asp"&gt;disabled&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;, &lt;a href="tag_fieldset.asp"&gt;&amp;lt;fieldset&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &amp;lt;optgroup&amp;gt;, &lt;a href="tag_option.asp"&gt;&amp;lt;option&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;,  &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the specified element/group of elements should be disabled|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_download.asp"&gt;download&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;, &lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the target will be downloaded when a user clicks on the  hyperlink|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_draggable.asp"&gt;draggable&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies whether an element is draggable or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_enctype.asp"&gt;enctype&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies how the form-data should be encoded when submitting it to the  server (only for method="post")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_for.asp"&gt;for&lt;/a&gt;|||&gt; |||&gt;&amp;lt;label&amp;gt;, &lt;a href="tag_output.asp"&gt;&amp;lt;output&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies which form element(s) a label/calculation is bound to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_form.asp"&gt;form&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;, &lt;a href="tag_fieldset.asp"&gt;&amp;lt;fieldset&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &amp;lt;label&amp;gt;, &lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;, &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;,  &lt;a href="tag_output.asp"&gt;&amp;lt;output&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the name of the form the element belongs to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_formaction.asp"&gt;formaction&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies where to send the form-data when a form is submitted. Only for  type="submit"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_headers.asp"&gt;headers&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_td.asp"&gt;&amp;lt;td&amp;gt;&lt;/a&gt;, &lt;a href="tag_th.asp"&gt;&amp;lt;th&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies one or more headers cells a cell is related to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_height.asp"&gt;height&lt;/a&gt;|||&gt; |||&gt;&amp;lt;canvas&amp;gt;, &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;, &lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the height of the element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_hidden.asp"&gt;hidden&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies that an element is not yet, or is no longer, relevant|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_high.asp"&gt;high&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the range that is considered to be a high value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_href.asp"&gt;href&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;, &lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;, &lt;a href="tag_base.asp"&gt;&amp;lt;base&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the URL of the page the link goes to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_hreflang.asp"&gt;hreflang&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;, &lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the language of the linked document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_http-equiv.asp"&gt;http-equiv&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meta.asp"&gt;&amp;lt;meta&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Provides an HTTP header for the information/value of the content attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_id.asp"&gt;id&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies a unique id for an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ismap.asp"&gt;ismap&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies an image as a server-side image map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_kind.asp"&gt;kind&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the kind of text track|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_label.asp"&gt;label&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;, &lt;a href="tag_option.asp"&gt;&amp;lt;option&amp;gt;&lt;/a&gt;, &lt;a href="tag_optgroup.asp"&gt;&amp;lt;optgroup&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the title of the text track|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_lang.asp"&gt;lang&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies the language of the element's content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_list.asp"&gt;list&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Refers to a &amp;lt;datalist&amp;gt; element that contains pre-defined options for an &amp;lt;input&amp;gt;  element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_loop.asp"&gt;loop&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the audio/video will start over again, every time it is  finished|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_low.asp"&gt;low&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the range that is considered to be a low value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_max.asp"&gt;max&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;, &lt;a href="tag_progress.asp"&gt;&amp;lt;progress&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the maximum value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_maxlength.asp"&gt;maxlength&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the maximum number of characters allowed in an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_media.asp"&gt;media&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;, &lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;, &lt;a href="tag_source.asp"&gt;&amp;lt;source&amp;gt;&lt;/a&gt;, &lt;a href="tag_style.asp"&gt;&amp;lt;style&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies what media/device the linked document is optimized for|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_method.asp"&gt;method&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the HTTP method to use when sending form-data|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_min.asp"&gt;min&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a minimum value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_multiple.asp"&gt;multiple&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that a user can enter more than one value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_muted.asp"&gt;muted&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;, &lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the audio output of the video should be muted|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_name.asp"&gt;name&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_button.asp"&gt;&amp;lt;button&amp;gt;&lt;/a&gt;, &lt;a href="tag_fieldset.asp"&gt;&amp;lt;fieldset&amp;gt;&lt;/a&gt;, &lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;, &lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_map.asp"&gt;&amp;lt;map&amp;gt;&lt;/a&gt;, &lt;a href="tag_meta.asp"&gt;&amp;lt;meta&amp;gt;&lt;/a&gt;,  &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;, &lt;a href="tag_output.asp"&gt;&amp;lt;output&amp;gt;&lt;/a&gt;, &lt;a href="tag_param.asp"&gt;&amp;lt;param&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the name of the element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_novalidate.asp"&gt;novalidate&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the form should not be validated when submitted|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onabort.asp"&gt;onabort&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run on abort|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onafterprint.asp"&gt;onafterprint&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run after the document is printed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onbeforeprint.asp"&gt;onbeforeprint&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run before the document is printed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onbeforeunload.asp"&gt;onbeforeunload&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the document is about to be unloaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onblur.asp"&gt;onblur&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element loses focus|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncanplay.asp"&gt;oncanplay&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;, &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a file is ready to start playing (when it has buffered  enough to begin)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncanplaythrough.asp"&gt;oncanplaythrough&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a file can be played all the way to the end without  pausing for buffering|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onchange.asp"&gt;onchange&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the value of the element is changed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onclick.asp"&gt;onclick&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element is being clicked|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncontextmenu.asp"&gt;oncontextmenu&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a context menu is triggered|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncopy.asp"&gt;oncopy&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the content of the element is being copied|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncuechange.asp"&gt;oncuechange&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the cue changes in a &lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oncut.asp"&gt;oncut&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the content of the element is being cut|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondblclick.asp"&gt;ondblclick&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element is being double-clicked|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondrag.asp"&gt;ondrag&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element is being dragged|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondragend.asp"&gt;ondragend&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run at the end of a drag operation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondragenter.asp"&gt;ondragenter&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when an element has been dragged to a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondragleave.asp"&gt;ondragleave&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when an element leaves a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondragover.asp"&gt;ondragover&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when an element is being dragged over a valid drop target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondragstart.asp"&gt;ondragstart&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run at the start of a drag operation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondrop.asp"&gt;ondrop&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when dragged element is being dropped|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ondurationchange.asp"&gt;ondurationchange&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the length of the media changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onemptied.asp"&gt;onemptied&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when something bad happens and the file is suddenly  unavailable (like unexpectedly disconnects)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onended.asp"&gt;onended&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the media has reach the end (a useful event for  messages like "thanks for listening")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onerror.asp"&gt;onerror&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;, &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_object.asp"&gt;&amp;lt;object&amp;gt;&lt;/a&gt;, &lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;, &lt;a href="tag_style.asp"&gt;&amp;lt;style&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when an error occurs|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onfocus.asp"&gt;onfocus&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element gets focus|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onhashchange.asp"&gt;onhashchange&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when there has been changes to the anchor part of the a URL|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oninput.asp"&gt;oninput&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element gets user input|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_oninvalid.asp"&gt;oninvalid&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element is invalid|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onkeydown.asp"&gt;onkeydown&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a user is pressing a key|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onkeypress.asp"&gt;onkeypress&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a user presses a key|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onkeyup.asp"&gt;onkeyup&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a user releases a key|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onload.asp"&gt;onload&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;, &lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;, &lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;, &lt;a href="tag_style.asp"&gt;&amp;lt;style&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the element is finished loading|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onloadeddata.asp"&gt;onloadeddata&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when media data is loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onloadedmetadata.asp"&gt;onloadedmetadata&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when meta data (like dimensions and duration) are loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onloadstart.asp"&gt;onloadstart&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run just as the file begins to load before anything is actually  loaded|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmousedown.asp"&gt;onmousedown&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a mouse button is pressed down on an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmousemove.asp"&gt;onmousemove&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run as long as the  mouse pointer is moving over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmouseout.asp"&gt;onmouseout&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a mouse pointer moves out of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmouseover.asp"&gt;onmouseover&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a mouse pointer moves over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmouseup.asp"&gt;onmouseup&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a mouse button is released over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onmousewheel.asp"&gt;onmousewheel&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when a mouse wheel is being scrolled over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onoffline.asp"&gt;onoffline&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the browser starts to work offline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ononline.asp"&gt;ononline&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the browser starts to work online|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onpagehide|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a user navigates away from a page|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onpageshow.asp"&gt;onpageshow&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a user navigates to a page|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onpaste.asp"&gt;onpaste&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the user pastes some content in an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onpause.asp"&gt;onpause&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the media is paused either by the user or  programmatically|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onplay.asp"&gt;onplay&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the media has started playing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onplaying.asp"&gt;onplaying&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the media has started playing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onpopstate|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the window's history changes.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onprogress.asp"&gt;onprogress&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the browser is in the process of getting the media  data|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onratechange.asp"&gt;onratechange&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run each time the playback rate changes (like when a user  switches to a slow motion or fast forward mode).|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onreset.asp"&gt;onreset&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a reset button in a form is clicked.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onresize.asp"&gt;onresize&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the browser window is being resized.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onscroll.asp"&gt;onscroll&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when an element's scrollbar is being scrolled|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onsearch.asp"&gt;onsearch&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the user writes something in a search field (for  &amp;lt;input="search"&amp;gt;)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onseeked.asp"&gt;onseeked&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the seeking attribute is set to false indicating that  seeking has ended|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onseeking.asp"&gt;onseeking&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the seeking attribute is set to true indicating that  seeking is active|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onselect.asp"&gt;onselect&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the element gets selected|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onstalled.asp"&gt;onstalled&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the browser is unable to fetch the media data for  whatever reason|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onstorage|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a Web Storage area is updated|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onsubmit.asp"&gt;onsubmit&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a form is submitted|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onsuspend.asp"&gt;onsuspend&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when fetching the media data is stopped before it is  completely loaded for whatever reason|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ontimeupdate.asp"&gt;ontimeupdate&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the playing position has changed (like when the user  fast forwards to a different point in the media)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_ontoggle.asp"&gt;ontoggle&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_details.asp"&gt;&amp;lt;details&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the user opens or closes the &amp;lt;details&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onunload.asp"&gt;onunload&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_body.asp"&gt;&amp;lt;body&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when a page has unloaded (or the browser window has been  closed)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onvolumechange.asp"&gt;onvolumechange&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run each time the volume of a video/audio has been changed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onwaiting.asp"&gt;onwaiting&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Script to be run when the media has paused but is expected to resume (like  when the media pauses to buffer more data)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_onwheel.asp"&gt;onwheel&lt;/a&gt;|||&gt; |||&gt;All visible elements.|||&gt; |||&gt;Script to be run when the mouse wheel rolls up or down over an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_open.asp"&gt;open&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_details.asp"&gt;&amp;lt;details&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the details should be visible (open) to the user|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_optimum.asp"&gt;optimum&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_meter.asp"&gt;&amp;lt;meter&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies what value is the optimal value for the gauge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_pattern.asp"&gt;pattern&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a regular expression that an &amp;lt;input&amp;gt; element's value is checked  against|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_placeholder.asp"&gt;placeholder&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies a short hint that describes the expected value of the element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_poster.asp"&gt;poster&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies an image to be shown while the video is downloading, or until the  user hits the play button|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_preload.asp"&gt;preload&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies if and how the author thinks the audio/video should be loaded when  the page loads|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_readonly.asp"&gt;readonly&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the element is read-only|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_rel.asp"&gt;rel&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_a.asp"&gt;&amp;lt;a&amp;gt;&lt;/a&gt;, &lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;,  &lt;a href="tag_form.asp"&gt;&amp;lt;form&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the relationship between the current document and the linked  document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_required.asp"&gt;required&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;, &lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the element must be filled out before submitting the form|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_reversed.asp"&gt;reversed&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_ol.asp"&gt;&amp;lt;ol&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that the list order should be descending (9,8,7...)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_rows.asp"&gt;rows&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_textarea.asp"&gt;&amp;lt;textarea&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the visible number of lines in a text area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_rowspan.asp"&gt;rowspan&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_td.asp"&gt;&amp;lt;td&amp;gt;&lt;/a&gt;, &lt;a href="tag_th.asp"&gt;&amp;lt;th&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the number of rows a table cell should span|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_sandbox.asp"&gt;sandbox&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Enables an extra set of restrictions for the content in an &amp;lt;iframe&amp;gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_scope.asp"&gt;scope&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_th.asp"&gt;&amp;lt;th&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies whether a header cell is a header for a column, row, or group of  columns or rows|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_selected.asp"&gt;selected&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_option.asp"&gt;&amp;lt;option&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies that an option should be pre-selected when the page loads|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_shape.asp"&gt;shape&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_area.asp"&gt;&amp;lt;area&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the shape of the area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_size.asp"&gt;size&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_select.asp"&gt;&amp;lt;select&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the width, in characters (for &amp;lt;input&amp;gt;) or specifies the number of  visible options (for &amp;lt;select&amp;gt;)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_sizes.asp"&gt;sizes&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_link.asp"&gt;&amp;lt;link&amp;gt;&lt;/a&gt;, &lt;a href="tag_source.asp"&gt;&amp;lt;source&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the linked resource|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_span.asp"&gt;span&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_col.asp"&gt;&amp;lt;col&amp;gt;&lt;/a&gt;, &lt;a href="tag_colgroup.asp"&gt;&amp;lt;colgroup&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the number of columns to span|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_spellcheck.asp"&gt;spellcheck&lt;/a&gt;|||&gt; |||&gt;&lt;a href="ref_standardattributes.asp"&gt;Global Attributes&lt;/a&gt;|||&gt; |||&gt;Specifies whether the element is to have its spelling and grammar checked or  not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_src.asp"&gt;src&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_audio.asp"&gt;&amp;lt;audio&amp;gt;&lt;/a&gt;, &lt;a href="tag_embed.asp"&gt;&amp;lt;embed&amp;gt;&lt;/a&gt;, &lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;, &lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_input.asp"&gt;&amp;lt;input&amp;gt;&lt;/a&gt;, &lt;a href="tag_script.asp"&gt;&amp;lt;script&amp;gt;&lt;/a&gt;, &lt;a href="tag_source.asp"&gt;&amp;lt;source&amp;gt;&lt;/a&gt;, &lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;,  &lt;a href="tag_video.asp"&gt;&amp;lt;video&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the URL of the media file|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_srcdoc.asp"&gt;srcdoc&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_iframe.asp"&gt;&amp;lt;iframe&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the HTML content of the page to show in the &amp;lt;iframe&amp;gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_srclang.asp"&gt;srclang&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_track.asp"&gt;&amp;lt;track&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the language of the track text data (required if kind="subtitles")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_source_srcset.asp"&gt;srcset&lt;/a&gt;|||&gt; |||&gt;&lt;a href="tag_img.asp"&gt;&amp;lt;img&amp;gt;&lt;/a&gt;, &lt;a href="tag_source.asp"&gt;&amp;lt;source&amp;gt;&lt;/a&gt;|||&gt; |||&gt;Specifies the URL of the image to use in different situations|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="att_start.asp"&gt;s</t>
+    <t>http://www.w3schools.com//tags/ref_attributes.asp</t>
   </si>
   <si>
     <t>HTML Canvas Reference</t>
@@ -964,18 +940,12 @@
     <t>['The HTML &lt;canvas&gt; tag is used to draw graphics, on the fly, via scripting \n(usually JavaScript).', 'To learn more about &lt;canvas&gt;, please \nread our HTML Canvas tutorial.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_fillstyle.asp"&gt;fillStyle&lt;/a&gt;|||&gt; |||&gt;Sets or returns the color, gradient, or pattern used to fill the drawing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_strokestyle.asp"&gt;strokeStyle&lt;/a&gt;|||&gt; |||&gt;Sets or returns the color, gradient, or pattern used for strokes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_shadowcolor.asp"&gt;shadowColor&lt;/a&gt;|||&gt; |||&gt;Sets or returns the color to use for shadows|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_shadowblur.asp"&gt;shadowBlur&lt;/a&gt;|||&gt; |||&gt;Sets or returns the blur level for shadows|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_shadowoffsetx.asp"&gt;shadowOffsetX&lt;/a&gt;|||&gt; |||&gt;Sets or returns the horizontal distance of the shadow from the shape|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_shadowoffsety.asp"&gt;shadowOffsetY&lt;/a&gt;|||&gt; |||&gt;Sets or returns the vertical distance of the shadow from the shape|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_createlineargradient.asp"&gt;  createLinearGradient()&lt;/a&gt;|||&gt; |||&gt;Creates a linear gradient (to use on canvas content)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_createpattern.asp"&gt;createPattern()&lt;/a&gt;|||&gt; |||&gt;Repeats a specified element in the specified direction|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_createradialgradient.asp"&gt;createRadialGradient()&lt;/a&gt;|||&gt; |||&gt;Creates a radial/circular gradient (to use on canvas content)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_addcolorstop.asp"&gt;addColorStop()&lt;/a&gt;|||&gt; |||&gt;Specifies the colors and stop positions in a gradient object|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_linecap.asp"&gt;lineCap&lt;/a&gt;|||&gt; |||&gt;Sets or returns the style of the end caps for a line|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_linejoin.asp"&gt;lineJoin&lt;/a&gt;|||&gt; |||&gt;Sets or returns the type of corner created, when two lines meet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_linewidth.asp"&gt;lineWidth&lt;/a&gt;|||&gt; |||&gt;Sets or returns the current line width|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_miterlimit.asp"&gt;miterLimit&lt;/a&gt;|||&gt; |||&gt;Sets or returns the maximum miter length|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_rect.asp"&gt;rect()&lt;/a&gt;|||&gt; |||&gt;Creates a rectangle|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_fillrect.asp"&gt;fillRect()&lt;/a&gt;|||&gt; |||&gt;Draws a "filled" rectangle|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_strokerect.asp"&gt;strokeRect()&lt;/a&gt;|||&gt; |||&gt;Draws a rectangle (no fill)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_clearrect.asp"&gt;clearRect()&lt;/a&gt;|||&gt; |||&gt;Clears the specified pixels within a given rectangle|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_fill.asp"&gt;fill()&lt;/a&gt;|||&gt; |||&gt;Fills the current drawing (path)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_stroke.asp"&gt;stroke()&lt;/a&gt;|||&gt; |||&gt;Actually draws the path you have defined|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_beginpath.asp"&gt;beginPath()&lt;/a&gt;|||&gt; |||&gt;Begins a path, or resets the current path|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_moveto.asp"&gt;moveTo()&lt;/a&gt;|||&gt; |||&gt;Moves the path to the specified point in the canvas, without creating a line|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_closepath.asp"&gt;closePath()&lt;/a&gt;|||&gt; |||&gt;Creates a path from the current point back to the starting point|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_lineto.asp"&gt;lineTo()&lt;/a&gt;|||&gt; |||&gt;Adds a new point and creates a line to that point from the last specified point in the canvas|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_clip.asp"&gt;clip()&lt;/a&gt;|||&gt; |||&gt;Clips a region of any shape and size from the original canvas|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_quadraticcurveto.asp"&gt;quadraticCurveTo()&lt;/a&gt;|||&gt; |||&gt;Creates a quadratic BÃ©zier curve|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_beziercurveto.asp"&gt;bezierCurveTo()&lt;/a&gt;|||&gt; |||&gt;Creates a cubic BÃ©zier curve|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_arc.asp"&gt;arc()&lt;/a&gt;|||&gt; |||&gt;Creates an arc/curve (used to create circles, or parts of circles)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_arcto.asp"&gt;arcTo()&lt;/a&gt;|||&gt; |||&gt;Creates an arc/curve between two tangents|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_ispointinpath.asp"&gt;isPointInPath()&lt;/a&gt;|||&gt; |||&gt;Returns true if the specified point is in the current path, otherwise false|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_scale.asp"&gt;scale()&lt;/a&gt;|||&gt; |||&gt;Scales the current drawing bigger or smaller|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_rotate.asp"&gt;rotate()&lt;/a&gt;|||&gt; |||&gt;Rotates the current drawing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_translate.asp"&gt;translate()&lt;/a&gt;|||&gt; |||&gt;Remaps the (0,0) position on the canvas|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_transform.asp"&gt;transform()&lt;/a&gt;|||&gt; |||&gt;Replaces the current transformation matrix for the drawing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_settransform.asp"&gt;setTransform()&lt;/a&gt;|||&gt; |||&gt;Resets the current transform to the identity matrix. Then runs &lt;a href="canvas_transform.asp"&gt;  transform()&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_font.asp"&gt;font&lt;/a&gt;|||&gt; |||&gt;Sets or returns the current font properties for text content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_textalign.asp"&gt;textAlign&lt;/a&gt;|||&gt; |||&gt;Sets or returns the current alignment for text content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_textbaseline.asp"&gt;textBaseline&lt;/a&gt;|||&gt; |||&gt;Sets or returns the current text baseline used when drawing text|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_filltext.asp"&gt;fillText()&lt;/a&gt;|||&gt; |||&gt;Draws "filled" text on the canvas|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_stroketext.asp"&gt;strokeText()&lt;/a&gt;|||&gt; |||&gt;Draws text on the canvas (no fill)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_measuretext.asp"&gt;measureText()&lt;/a&gt;|||&gt; |||&gt;Returns an object that contains the width of the specified text|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_drawimage.asp"&gt;drawImage()&lt;/a&gt;|||&gt; |||&gt;Draws an image, canvas, or video onto the canvas|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_imagedata_width.asp"&gt;width&lt;/a&gt;|||&gt; |||&gt;Returns the width of an ImageData object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_imagedata_height.asp"&gt;height&lt;/a&gt;|||&gt; |||&gt;Returns the height of an ImageData object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_imagedata_data.asp"&gt;data&lt;/a&gt;|||&gt; |||&gt;Returns an object that contains image data of a specified ImageData object|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_createimagedata.asp"&gt;createImageData()&lt;/a&gt;|||&gt; |||&gt;Creates a new, blank ImageData object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_getimagedata.asp"&gt;getImageData()&lt;/a&gt;|||&gt; |||&gt;Returns an ImageData object that copies the pixel data for the specified rectangle on a canvas|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_putimagedata.asp"&gt;putImageData()&lt;/a&gt;|||&gt; |||&gt;Puts the image data (from a specified ImageData object) back onto the canvas|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_globalalpha.asp"&gt;globalAlpha&lt;/a&gt;|||&gt; |||&gt;Sets or returns the current alpha or transparency value of the drawing|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="canvas_globalcompositeoperation.asp"&gt;globalCompositeOperation&lt;/a&gt;|||&gt; |||&gt;Sets or returns how a new image is drawn onto an existing image|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;save()|||&gt; |||&gt;Saves the state of the current context|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;restore()|||&gt; |||&gt;Returns previously saved path state and attributes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;createEvent()|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getContext()|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;toDataURL()|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//tags/ref_canvas.asp</t>
   </si>
   <si>
     <t>SVG Reference</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Element||| &lt;th style="width:30%"&gt;Description||| |||Attributes||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;a&amp;gt;|||&gt; |||&gt;Creates a link around SVG elements|||&gt; |||&gt;xlink:show&lt;br/&gt;  xlink:actuate&lt;br/&gt;  xlink:href&lt;br/&gt;  target|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;altGlyph&amp;gt;|||&gt; |||&gt;Provides control over the glyphs used to render particular character data|||&gt; |||&gt;x&lt;br/&gt;  y&lt;br/&gt;  dx&lt;br/&gt;  dy&lt;br/&gt;  rotate&lt;br/&gt;  glyphRef&lt;br/&gt;  format&lt;br/&gt;  xlink:href|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;altGlyphDef&amp;gt;|||&gt; |||&gt;Defines a substitution set for glyphs|||&gt; |||&gt;id|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;altGlyphItem&amp;gt;|||&gt; |||&gt;Defines a candidate set of glyph substitutions|||&gt; |||&gt;id|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;animate&amp;gt;|||&gt; |||&gt;Defines how an attribute of an element changes over time|||&gt; |||&gt;attributeName="the name of the target attribute"&lt;br/&gt;by="a relative offset value"&lt;br/&gt;  from="the starting value"&lt;br/&gt;  to="the ending value"&lt;br/&gt;  dur="the duration"&lt;br/&gt;  repeatCount="the number of time the animation will take place"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;animateMotion&amp;gt;|||&gt; |||&gt;Causes a referenced element to move along a motion path|||&gt; |||&gt;calcMode="the interpolation mode for the animation. Can be 'discrete', 'linear', 'paced', 'spline'"&lt;br/&gt;  path="the motion path"&lt;br/&gt;  keyPoints="how far along the motion path the object shall move at the moment in time"&lt;br/&gt;  rotate="applies a rotation transformation"&lt;br/&gt;  xlink:href="an URI reference to the &amp;lt;path&amp;gt; element which defines the motion path"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;animateTransform&amp;gt;|||&gt; |||&gt;Animates a transformation attribute on a target element, thereby allowing animations to control translation, scaling, rotation and/or skewing|||&gt; |||&gt;by="a relative offset value"&lt;br/&gt;  from="the starting value"&lt;br/&gt;  to="the ending value"&lt;br/&gt;  type="the type of transformation which is to have its values change over time. Can be 'translate', 'scale', 'rotate', 'skewX', 'skewY'"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;circle&amp;gt;|||&gt; |||&gt;Defines a circle|||&gt; |||&gt;cx="the x-axis center of the circle"&lt;br/&gt;  cy="the y-axis center of the circle"&lt;br/&gt;  r="The circle's radius". Required.&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;clipPath&amp;gt;|||&gt; |||&gt;Clipping is about hiding what normally would be drawn. The stencil which defines what is and what isn't drawn is called a clipping path|||&gt; |||&gt;clip-path="the referenced clipping path is intersected with the referencing clipping path"&lt;br/&gt;  clipPathUnits="'userSpaceOnUse' or 'objectBoundingBox'. The second value makes units of children a fraction of the object bounding box which uses the mask (default: 'userSpaceOnUse')"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;color-profile&amp;gt;|||&gt; |||&gt;Specifies a color profile description (when the document is styled using CSS)|||&gt; |||&gt;local="the unique ID for a locally stored color profile"&lt;br/&gt;  name=""&lt;br/&gt;  rendering-intent="auto|perceptual|relative-colorimetric|saturation|absolute-colorimetric"&lt;br/&gt;  xlink:href="the URI of an ICC profile resource"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;cursor&amp;gt;|||&gt; |||&gt;Defines a platform-independent custom cursor|||&gt; |||&gt;x="the x-axis top-left corner of the cursor (default is 0)"&lt;br/&gt;  y="the y-axis top-left corner of the cursor (default is 0)"&lt;br/&gt;  xlink:href="the URI of the image to use as the cursor|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;defs&amp;gt;|||&gt; |||&gt;A container for referenced elements|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;desc&amp;gt;|||&gt; |||&gt;A text-only description for container elements or graphic elements in SVG (user agents may display the text      as a tooltip)|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;ellipse&amp;gt;|||&gt; |||&gt;Defines an ellipse|||&gt; |||&gt;cx="the x-axis center of the ellipse"&lt;br/&gt;  cy="the y-axis center of the ellipse"&lt;br/&gt;  rx="the length of the ellipse's radius along the x-axis". Required.&lt;br/&gt;  ry="the length of the ellipse's radius along the y-axis". Required.&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;feBlend&amp;gt;|||&gt; |||&gt;Composes two objects together according to a certain blending mode|||&gt; |||&gt;mode="the image blending modes: normal|multiply|screen|darken|lighten"&lt;br/&gt;  in="identifies input for the given filter primitive: SourceGraphic | SourceAlpha | BackgroundImage | BackgroundAlpha | FillPaint | StrokePaint | &amp;lt;filter-primitive-reference&amp;gt;"&lt;br/&gt;  in2="the second input image to the blending operation"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feColorMatrix|||&gt; |||&gt;SVG filter. Applies a matrix transformation|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feComponentTransfer|||&gt; |||&gt;SVG filter. Performs component-wise remapping of data|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feComposite|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feConvolveMatrix|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feDiffuseLighting|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feDisplacementMap|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feDistantLight|||&gt; |||&gt;SVG filter. Defines a light source|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feFlood|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feFuncA|||&gt; |||&gt;SVG filter. Sub-element to feComponentTransfer|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feFuncB|||&gt; |||&gt;SVG filter. Sub-element to feComponentTransfer|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feFuncG|||&gt; |||&gt;SVG filter. Sub-element to feComponentTransfer|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feFuncR|||&gt; |||&gt;SVG filter. Sub-element to feComponentTransfer|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feGaussianBlur|||&gt; |||&gt;SVG filter. Performs a Gaussian blur on the image|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feImage|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feMerge|||&gt; |||&gt;SVG filter. Creates image layers on top of each  other|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feMergeNode|||&gt; |||&gt;SVG filter. Sub-element to feMerge|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feMorphology|||&gt; |||&gt;SVG filter. Performs a "fattening" or "thinning" on a      source graphic|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feOffset|||&gt; |||&gt;SVG filter. Moves an image relative to its current position|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;fePointLight|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feSpecularLighting|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feSpotLight|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feTile|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;feTurbulence|||&gt; |||&gt;SVG filter.|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;filter|||&gt; |||&gt;Container for filter effects|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font|||&gt; |||&gt;Defines a font|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-face|||&gt; |||&gt;Describes the characteristics of a font|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-face-format|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-face-name|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-face-src|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-face-uri|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;foreignObject|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;g&amp;gt;|||&gt; |||&gt;Used to group together        elements|||&gt; |||&gt;id="the name of the group"&lt;br/&gt;  fill="the fill color for the group"&lt;br/&gt;  opacity="the opacity for the group"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  All|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;glyph|||&gt; |||&gt;Defines the graphics for a given glyph|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;glyphRef|||&gt; |||&gt;Defines a possible glyph to use|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;hkern|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;image&amp;gt;|||&gt; |||&gt;Defines an image|||&gt; |||&gt;x="the x-axis top-left corner of the image"&lt;br/&gt;  y="the y-axis top-left corner of the image"&lt;br/&gt;  width="the width of the image". Required.&lt;br/&gt;  height="the height of the image". Required.&lt;br/&gt;  xlink:href="the path to the image". Required.&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, Graphics, Images, Viewports|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;line&amp;gt;|||&gt; |||&gt;Defines a line|||&gt; |||&gt;x1="the x start point of the line"&lt;br/&gt;  y1="the y start point of the line"&lt;br/&gt;  x2="the x end point of the line"&lt;br/&gt;  y2="the y end point of the line"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics, Markers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;linearGradient&amp;gt;|||&gt; |||&gt;Defines a linear gradient. Linear gradients fill the object by using a vector, and can be defined as horizontal, vertical or angular gradients.|||&gt; |||&gt;id="the unique id used to reference this pattern. Required to reference it"&lt;br/&gt;  gradientUnits="'userSpaceOnUse' or 'objectBoundingBox'. Use the view box or object to determine relative position of vector points. (Default 'objectBoundingBox')"&lt;br/&gt;  gradientTransform="the transformation to apply to the gradient"&lt;br/&gt;  x1="the x start point of the gradient vector (number or % - 0% is default)"&lt;br/&gt;  y1="the y start point of the gradient vector. (0% default)" &lt;br/&gt;  x2="the x end point of the gradient vector. (100% default)"&lt;br/&gt;  y2="the y end point of the gradient vector. (0% default)" &lt;br/&gt;  spreadMethod="'pad' or 'reflect' or 'repeat'"&lt;br/&gt;  xlink:href="reference to another gradient whose attribute values are used as defaults and stops included. Recursive"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;marker&amp;gt;|||&gt; |||&gt;Markers can be placed on the vertices of lines, polylines, polygons and paths. These elements can use the marker attributes "marker-start", "marker-mid" and "marker-end"' which inherit by default or can be set to 'none' or the URI of a defined marker. You must first define the marker before you can reference it via its URI. Any kind of shape can be put inside marker. They are drawn on top of the element they are attached to|||&gt; |||&gt;markerUnits="'strokeWidth' or 'userSpaceOnUse'. If 'strokeWidth' is used then one unit equals one stroke width. Otherwise, the marker does not scale and uses the the same view units as the referencing element (default 'strokeWidth')"&lt;br/&gt;  refx="the position where the marker connects with the vertex (default 0)"&lt;br/&gt;  refy="the position where the marker connects with the vertex (default 0)"&lt;br/&gt;  orient="'auto' or an angle to always show the marker at. 'auto' will compute an angle that makes the x-axis a tangent of the vertex (default 0)"&lt;br/&gt;  markerWidth="the width of the marker (default 3)"&lt;br/&gt;  markerHeight="the height of the marker (default 3)"&lt;br/&gt;  viewBox="the points "seen" in this SVG drawing area. 4 values separated by white space or commas. (min x, min y, width, height)" &lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  All|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;mask&amp;gt;|||&gt; |||&gt;Masking is a combination of opacity values and clipping. Like clipping you can use shapes, text or paths to define sections of the mask. The default state of a mask is fully transparent which is the opposite of clipping plane. The graphics in a mask sets how opaque portions of the mask are|||&gt; |||&gt;maskUnits="'userSpaceOnUse' or 'objectBoundingBox'. Set whether the clipping plane is relative the full view port or object (default: 'objectBoundingBox')"&lt;br/&gt;  maskContentUnits="Use the second with percentages to make mask graphic positions relative the object. 'userSpaceOnUse' or 'objectBoundingBox' (default: 'userSpaceOnUse')"&lt;br/&gt;  x="the clipping plane of the mask (default: -10%)" &lt;br/&gt;  y="the clipping plane of the mask (default: -10%)" &lt;br/&gt;  width="the clipping plane of the mask (default: 120%)"&lt;br/&gt;  height="the clipping plane of the mask (default: 120%)"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;metadata|||&gt; |||&gt;Specifies metadata|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;missing-glyph|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mpath|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;path&amp;gt;|||&gt; |||&gt;Defines a path|||&gt; |||&gt;d="a set of commands which define the path"&lt;br/&gt;  pathLength="If present, the path will be scaled so that the computed path length of the points equals this value"&lt;br/&gt;  transform="a list of transformations"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics, Markers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;pattern&amp;gt;|||&gt; |||&gt;Defines the coordinates you want the view to show and the size of the view. Then you add shapes into your pattern. The pattern repeats when an edge of the view box (viewing area) is hit|||&gt; |||&gt;id="the unique id used to reference this pattern." Required. &lt;br/&gt;  patternUnits="'userSpaceOnUse' or 'objectBoundingBox'. The second value makes units of x, y, width, height a fraction (or %) of the object bounding box which uses the pattern."&lt;br/&gt;  patternContentUnits="'userSpaceOnUse' or 'objectBoundingBox'"&lt;br/&gt;  patternTransform="allows the whole pattern to be transformed"&lt;br/&gt;  x="pattern's offset from the top-left corner (default 0)" &lt;br/&gt;  y="pattern's offset from the top-left corner. (default 0)"&lt;br/&gt;  width="the width of the pattern tile (default 100%)" &lt;br/&gt;  height="the height of the pattern tile (default 100%)"&lt;br/&gt;  viewBox="the points "seen" in this SVG drawing area. 4 values separated by white space or commas. (min x, min y, width, height)" &lt;br/&gt;  xlink:href="reference to another pattern whose attribute values are used as defaults and any children are inherited. Recursive"&lt;br/&gt;  |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;polygon&amp;gt;|||&gt; |||&gt;Defines a graphic that contains at least three sides|||&gt; |||&gt;points="the points of the polygon. The total number of points must be even". Required.&lt;br/&gt;  fill-rule="part of the FillStroke presentation attributes"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics, Markers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;polyline&amp;gt;|||&gt; |||&gt;Defines any shape that consists of only straight lines|||&gt; |||&gt;points="the points on the polyline". Required.&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics, Markers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;radialGradient&amp;gt;|||&gt; |||&gt;Defines a radial gradient. Radial gradients are created by taking a circle and smoothly changing values between gradient stops from the focus point to the outside radius.|||&gt; |||&gt;gradientUnits="'userSpaceOnUse' or 'objectBoundingBox'. Use the view box or object to determine relative position of vector points. (Default 'objectBoundingBox')"&lt;br/&gt;  gradientTransform="the transformation to apply to the gradient" &lt;br/&gt;  cx="the center point of the gradient (number or % - 50% is default)"&lt;br/&gt;  cy="the center point of the gradient. (50% default)"&lt;br/&gt;  r="the radius of the gradient. (50% default)" &lt;br/&gt;  fx="the focus point of the gradient. (0% default)"&lt;br/&gt;  fy="The focus point of the gradient. (0% default)"&lt;br/&gt;  spreadMethod="'pad' or 'reflect' or 'repeat'"&lt;br/&gt;  xlink:href="Reference to another gradient whose attribute values are used as defaults and stops included. Recursive"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;rect&amp;gt;|||&gt; |||&gt;Defines a rectangle|||&gt; |||&gt;x="the x-axis top-left corner of the rectangle"&lt;br/&gt;  y="the y-axis top-left corner of the rectangle"&lt;br/&gt;  rx="the x-axis radius (to round the element)"&lt;br/&gt;  ry="the y-axis radius (to round the element)" &lt;br/&gt;  width="the width of the rectangle". Required.&lt;br/&gt;  height="the height of the rectangle" Required.&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;script|||&gt; |||&gt;Container for scripts (e.g., ECMAScript)|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;set|||&gt; |||&gt;Sets the value of an      attribute for a specified duration|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;stop&amp;gt;|||&gt; |||&gt;The stops for a gradient|||&gt; |||&gt;offset="the offset for this stop (0 to 1/0% to 100%)". Required.&lt;br/&gt;  stop-color="the color of this stop" &lt;br/&gt;  stop-opacity="the opacity of this stop (0 to 1)"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;style|||&gt; |||&gt;Allows style sheets to be embedded directly within SVG      content|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;svg&amp;gt;|||&gt; |||&gt;Creates an SVG document fragment|||&gt; |||&gt;x="top left corner when embedded (default 0)"&lt;br/&gt;  y="top left corner when embedded (default 0)"&lt;br/&gt;  width="the width of the svg fragment (default 100%)"&lt;br/&gt;  height="the height of the svg fragment (default 100%)"&lt;br/&gt;  viewBox="the points "seen" in this SVG drawing area. 4 values separated by white space or commas. (min x, min y, width, height)"&lt;br/&gt;  preserveAspectRatio="'none' or any of the 9 combinations of 'xVALYVAL' where VAL is 'min', 'mid' or 'max'. (default xMidYMid)"&lt;br/&gt;  zoomAndPan="'magnify' or 'disable'. Magnify option allows users to pan and zoom your file (default magnify)"&lt;br/&gt;  xml="outermost &amp;lt;svg&amp;gt; element needs to setup SVG and its namespace: xmlns="http://www.w3.org/2000/svg" xmlns:xlink="http://www.w3.org/1999/xlink" xml:space="preserve""&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  All|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;switch|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;symbol|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;text&amp;gt;|||&gt; |||&gt;Defines a text|||&gt; |||&gt;x="a list of x-axis positions. The nth x-axis position is given to the nth character in the text. If there are additional characters after the positions run out they are placed after the last character. 0 is default"&lt;br/&gt;  y="a list of y-axis positions. (see x). 0 is default"&lt;br/&gt;  dx="a list of lengths which moves the characters relative to the absolute position of the last glyph drawn. (see x)"&lt;br/&gt;  dy="a list of lengths which moves the characters relative to the absolute position of the last glyph drawn. (see x)" &lt;br/&gt;  rotate="a list of rotations. The nth rotation is performed on the nth character. Additional characters are NOT given the last rotation value"&lt;br/&gt;  textLength="a target length for the text that the SVG viewer will attempt to display the text between by adjusting the spacing and/or the glyphs. (default: The text's normal length)"&lt;br/&gt;  lengthAdjust="tells the viewer what to adjust to try to accomplish rendering the text if the length is specified. The two values are 'spacing' and 'spacingAndGlyphs'"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  Color, FillStroke, Graphics, FontSpecification, TextContentElements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;textPath|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;title|||&gt; |||&gt;A text-only description for elements in SVG - not displayed as part of the      graphics. User agents may display the text      as a tooltip|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;tref&amp;gt;|||&gt; |||&gt;References any &amp;lt;text&amp;gt; element in the SVG document and reuse it|||&gt; |||&gt;Identical to the &amp;lt;text&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;tspan&amp;gt;|||&gt; |||&gt;Identical to the &amp;lt;text&amp;gt; element but can be nested inside text tags and inside itself|||&gt; |||&gt;Identical to the &amp;lt;text&amp;gt; element&lt;br/&gt;  + in addition:&lt;br/&gt;  xlink:href="Reference to a &amp;lt;text&amp;gt; element" |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;use&amp;gt;|||&gt; |||&gt;Uses a URI to reference a &amp;lt;g&amp;gt;, &amp;lt;svg&amp;gt; or other graphical element with a unique id attribute and replicate it. The copy is only a reference to the original so only the original exists in the document. Any change to the original affects all copies.|||&gt; |||&gt;x="the x-axis top-left corner of the cloned element"&lt;br/&gt;  y="the y-axis top-left corner of the cloned element"&lt;br/&gt;  width="the width of the cloned element"&lt;br/&gt;  height="the height of the cloned element"&lt;br/&gt;  xlink:href="a URI reference to the cloned element"&lt;br/&gt; &lt;br/&gt;  + presentation attributes:&lt;br/&gt;  All|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;view|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;vkern|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//graphics/svg_reference.asp</t>
   </si>
   <si>
@@ -985,9 +955,6 @@
     <t>['Create a Google Map:', 'The Map() constructor creates a new map inside a specified HTML element (typically a &lt;div&gt; element).', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Parameter||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;i&gt;HTMLElement&lt;/i&gt;|||&gt; |||&gt;Specifies in what HTML element to put the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;i&gt;&lt;a href="tryit.asp?filename=trymap_ref_mapoptions" target="_blank"&gt;MapOptions&lt;/a&gt;&lt;/i&gt;|||&gt; |||&gt;A MapOptions object that holds the map initialization variables/options|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table3"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Method||| |||Return Value||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;fitBounds(&lt;i&gt;LatLngBounds&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the viewport to contain the given bounds|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getBounds()|||&gt; |||&gt;&lt;i&gt;LatLng,LatLng &lt;/i&gt;|||&gt; |||&gt;Returns the south-west latitude/longitude and the north-east latitude/longitude of the current viewport|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getCenter()|||&gt; |||&gt;&lt;i&gt;LatLng&lt;/i&gt;|||&gt; |||&gt;Returns the lat/lng of the center of the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getDiv()|||&gt; |||&gt;&lt;i&gt;Node&lt;/i&gt;|||&gt; |||&gt;Returns a DOM object that contains the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getHeading()|||&gt; |||&gt;&lt;i&gt;number&lt;/i&gt;|||&gt; |||&gt;Returns the compass heading of aerial imagery (for SATELLITE and HYBRID map types)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getMapTypeId()|||&gt; |||&gt;HYBRID&lt;br/&gt;  ROADMAP&lt;br/&gt;  SATELLITE&lt;br/&gt;  TERRAIN|||&gt; |||&gt;Returns the current map type|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getProjection()|||&gt; |||&gt;&lt;i&gt;Projection&lt;/i&gt;|||&gt; |||&gt;Returns the current Projection|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getStreetView()|||&gt; |||&gt;&lt;i&gt;StreetViewPanorama&lt;/i&gt;|||&gt; |||&gt;Returns the default StreetViewPanorama bound to the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getTilt()|||&gt; |||&gt;&lt;i&gt;number&lt;/i&gt;|||&gt; |||&gt;Returns the angle of incidence for aerial imagery in degrees (for SATELLITE and HYBRID map types)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getZoom()|||&gt; |||&gt;&lt;i&gt;number&lt;/i&gt;|||&gt; |||&gt;Returns the current zoom level of the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;panBy(&lt;i&gt;xnumber,ynumber&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Changes the center of the map by the given distance in pixels|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;panTo(&lt;i&gt;LatLng&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Changes the center of the map to the given LatLng|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;panToBounds(&lt;i&gt;LatLngBounds&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Pans the map by the minimum amount necessary to contain the given LatLngBounds|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setCenter(&lt;i&gt;LatLng&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the lat/lng of the center of the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setHeading(&lt;i&gt;number&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the compass heading for aerial imagery measured in degrees from cardinal direction North|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setMapTypeId(&lt;i&gt;MapTypeId&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the map type to display|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setOptions(&lt;i&gt;MapOptions&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setStreetView(&lt;i&gt;StreetViewPanorama&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Binds a StreetViewPanorama to the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setTilt(&lt;i&gt;number&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the angle of incidence for aerial imagery in degrees (for SATELLITE and HYBRID map types)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setZoom(&lt;i&gt;number&lt;/i&gt;)|||&gt; |||&gt;None|||&gt; |||&gt;Sets the zoom level of the map|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table4"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Property||| |||Type||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;controls|||&gt; |||&gt;&lt;i&gt;Array.&amp;lt;MVCArray.&amp;lt;Node&amp;gt;&amp;gt;&lt;/i&gt;|||&gt; |||&gt;Additional controls to attach to the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mapTypes|||&gt; |||&gt;&lt;i&gt;MapTypeRegistry&lt;/i&gt;|||&gt; |||&gt;A registry of MapType instances by string ID|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;overlayMapTypes|||&gt; |||&gt;&lt;i&gt;MVCArray.&amp;lt;MapType&amp;gt;&lt;/i&gt;|||&gt; |||&gt;Additional map types to overlay|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table5"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Event||| |||Arguments||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;bounds_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the viewport bounds have changed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;center_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map center property changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;click|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired when the user clicks on the map |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;dblclick|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired when the user double-clicks on the map |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;drag|||&gt; |||&gt;None|||&gt; |||&gt;Fired repeatedly while the user drags the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;dragend|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the user stops dragging the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;dragstart|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the user starts dragging the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;heading_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map heading property changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;idle|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map becomes idle after panning or zooming|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;maptypeid_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the mapTypeId property changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mousemove|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired whenever the user's mouse moves over the map container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mouseout|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired when the user's mouse exits the map container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mouseover|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired when the user's mouse enters the map container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;projection_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the projection has changed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;resize|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map (div) changes size|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;rightclick|||&gt; |||&gt;&lt;i&gt;MouseEvent&lt;/i&gt;|||&gt; |||&gt;Fired when the user right-clicks on the map|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;tilesloaded|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the visible tiles have finished loading|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;tilt_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map tilt property changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;zoom_changed|||&gt; |||&gt;None|||&gt; |||&gt;Fired when the map zoom property changes|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table3"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Constructor/Object||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Marker|||&gt; |||&gt;Creates a marker. (Note that the position must be set for the marker to display)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MarkerOptions|||&gt; |||&gt;Options for rendering the marker|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MarkerImage|||&gt; |||&gt;A structure representing a Marker icon or shadow image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MarkerShape|||&gt; |||&gt;Defines the marker shape to use in determination of a marker's clickable region (type and coord)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Animation|||&gt; |||&gt;Specifies animations that can be played on a marker (bounce or drop)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;InfoWindow|||&gt; |||&gt;Creates an info window|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;InfoWindowOptions|||&gt; |||&gt;Options for rendering the info window|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Polyline|||&gt; |||&gt;Creates a polyline (contains path and stroke styles)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;PolylineOptions|||&gt; |||&gt;Options for rendering the polyline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Polygon|||&gt; |||&gt;Creates a polygon (contains path and stroke+fill styles)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;PolygonOptions|||&gt; |||&gt;Options for rendering the polygon|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Rectangle|||&gt; |||&gt;Creates a rectangle (contains bounds and stroke+fill styles)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;RectangleOptions|||&gt; |||&gt;Options for rendering the rectangle|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Circle|||&gt; |||&gt;Creates a circle (contains center+radius and stroke+fill styles)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CircleOptions|||&gt; |||&gt;Options for rendering the circle|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;GroundOverlay|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;GroundOverlayOptions|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;OverlayView|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MapPanes|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MapCanvasProjection|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table5"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Constructor/Object||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MapsEventListener|||&gt; |||&gt;It has no methods and no constructor. Its instances are returned from addListener(), addDomListener() and are eventually passed back to removeListener()|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;event|||&gt; |||&gt;Adds/Removes/Trigger event listeners|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MouseEvent|||&gt; |||&gt;Returned from various mouse events on the map and overlays|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate" id="table4"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Constructor/Object||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MapTypeControlOptions|||&gt; |||&gt;Holds options for modifying a control (position and style)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;MapTypeControlStyle|||&gt; |||&gt;Specifies what kind of map control to display (Drop-down menu or buttons) |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;OverviewMapControlOptions|||&gt; |||&gt;Options for rendering of the overview map control (opened or collapsed)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;PanControlOptions|||&gt; |||&gt;Options for rendering of the pan control (position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;RotateControlOptions|||&gt; |||&gt;Options for rendering of the rotate control (position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ScaleControlOptions|||&gt; |||&gt;Options for rendering of the scale control (position and style)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ScaleControlStyle|||&gt; |||&gt;Specifies what kind of scale control to display|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;StreetViewControlOptions|||&gt; |||&gt;Options for rendering of the street view pegman control (position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ZoomControlOptions|||&gt; |||&gt;Options for rendering of the zoom control (position and style)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ZoomControlStyle|||&gt; |||&gt;Specifies what kind of zoom control to display (large or small)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ControlPosition|||&gt; |||&gt;Specifies the placement of controls on the map|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//graphics/google_maps_reference.asp</t>
   </si>
   <si>
@@ -997,7 +964,7 @@
     <t>CSS Reference</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_align-content.asp"&gt;align-content&lt;/a&gt;|||&gt; |||&gt;Specifies the alignment between the lines inside a flexible container when the items do not use all available space|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_align-items.asp"&gt;align-items&lt;/a&gt;|||&gt; |||&gt;Specifies the alignment for items inside a flexible container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_align-self.asp"&gt;align-self&lt;/a&gt;|||&gt; |||&gt;Specifies the alignment for selected items inside a flexible container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_all.asp"&gt;all&lt;/a&gt;|||&gt; |||&gt;Resets all properties (except unicode-bidi and direction)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation.asp"&gt;animation&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;animation-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-delay.asp"&gt;animation-delay&lt;/a&gt;|||&gt; |||&gt;Specifies a delay for the start of an animation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-direction.asp"&gt;animation-direction&lt;/a&gt;|||&gt; |||&gt;Specifies whether an animation should be played forwards, backwards or      in alternate cycles|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-duration.asp"&gt;animation-duration&lt;/a&gt;|||&gt; |||&gt;Specifies how long an animation should take to complete one cycle|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-fill-mode.asp"&gt;animation-fill-mode&lt;/a&gt;|||&gt; |||&gt;Specifies a style for the element when the animation is not playing (before      it starts, after it ends, or both)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-iteration-count.asp"&gt;animation-iteration-count&lt;/a&gt;|||&gt; |||&gt;Specifies the number of times an animation should be played|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-name.asp"&gt;animation-name&lt;/a&gt;|||&gt; |||&gt;Specifies a name for the @keyframes animation|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-play-state.asp"&gt;animation-play-state&lt;/a&gt;|||&gt; |||&gt;Specifies whether the animation is running or paused|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_animation-timing-function.asp"&gt;animation-timing-function&lt;/a&gt;|||&gt; |||&gt;Specifies the speed curve of an animation|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="30%"&gt;&lt;a href="css3_pr_backface-visibility.asp"&gt;backface-visibility&lt;/a&gt;|||&gt; |||&gt;Defines whether or not the back face of an element should be visible when facing the user|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_background.asp"&gt;background&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;background-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-attachment.asp"&gt;background-attachment&lt;/a&gt;|||&gt; |||&gt;Sets whether a background image scrolls with the rest of the page, or is fixed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-blend-mode.asp"&gt;background-blend-mode&lt;/a&gt;|||&gt; |||&gt;Specifies the blending mode of each background layer (color/image)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_background-clip.asp"&gt;background-clip&lt;/a&gt;|||&gt; |||&gt;Defines how far the background (color or image) should extend within an      element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-color.asp"&gt;background-color&lt;/a&gt;|||&gt; |||&gt;Specifies the background color of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-image.asp"&gt;background-image&lt;/a&gt;|||&gt; |||&gt;Specifies one or more background images for an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_background-origin.asp"&gt;background-origin&lt;/a&gt;|||&gt; |||&gt;Specifies the origin position of a background image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-position.asp"&gt;background-position&lt;/a&gt;|||&gt; |||&gt;Specifies the position of a background image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_background-repeat.asp"&gt;background-repeat&lt;/a&gt;|||&gt; |||&gt;Sets if/how a background image will be repeated|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_background-size.asp"&gt;background-size&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the background images|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border.asp"&gt;border&lt;/a&gt;|||&gt; |||&gt;A shorthand property for &lt;em&gt;border-width, border-style&lt;/em&gt; and &lt;em&gt;border-color&lt;/em&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-bottom.asp"&gt;border-bottom&lt;/a&gt;|||&gt; |||&gt;A shorthand property for &lt;em&gt;border-bottom-width, border-bottom-style&lt;/em&gt;      and &lt;em&gt;border-bottom-color&lt;/em&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-bottom_color.asp"&gt;border-bottom-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of the bottom border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-bottom-left-radius.asp"&gt;border-bottom-left-radius&lt;/a&gt;|||&gt; |||&gt;Defines the radius of the border of the bottom-left corner|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-bottom-right-radius.asp"&gt;border-bottom-right-radius&lt;/a&gt;|||&gt; |||&gt;Defines the radius of the border of the bottom-right corner|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-bottom_style.asp"&gt;border-bottom-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of the bottom border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-bottom_width.asp"&gt;border-bottom-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of the bottom border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-collapse.asp"&gt;border-collapse&lt;/a&gt;|||&gt; |||&gt;Sets whether table borders should collapse into a single border or be separated|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-color.asp"&gt;border-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of the four borders|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image.asp"&gt;border-image&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;border-image-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image-outset.asp"&gt;border-image-outset&lt;/a&gt;|||&gt; |||&gt;Specifies the amount by which the border image area extends beyond the border box|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image-repeat.asp"&gt;border-image-repeat&lt;/a&gt;|||&gt; |||&gt;Specifies whether the border image should be repeated, rounded or stretched|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image-slice.asp"&gt;border-image-slice&lt;/a&gt;|||&gt; |||&gt;Specifies how to slice the border image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image-source.asp"&gt;border-image-source&lt;/a&gt;|||&gt; |||&gt;Specifies the path to the image to be used as a border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-image-width.asp"&gt;border-image-width&lt;/a&gt;|||&gt; |||&gt;Specifies the width of the border image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-left.asp"&gt;border-left&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;border-left-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-left_color.asp"&gt;border-left-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of the left border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-left_style.asp"&gt;border-left-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of the left border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-left_width.asp"&gt;border-left-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of the left border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-radius.asp"&gt;border-radius&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the four &lt;em&gt;border-*-radius&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-right.asp"&gt;border-right&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;border-right-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-right_color.asp"&gt;border-right-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of the right border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-right_style.asp"&gt;border-right-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of the right border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-right_width.asp"&gt;border-right-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of the right border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-spacing.asp"&gt;border-spacing&lt;/a&gt;|||&gt; |||&gt;Sets the distance between the borders of adjacent cells|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-style.asp"&gt;border-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of the four borders|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-top.asp"&gt;border-top&lt;/a&gt;|||&gt; |||&gt;A shorthand property for &lt;em&gt;border-top-width, border-top-style&lt;/em&gt; and     &lt;em&gt;border-top-color&lt;/em&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-top_color.asp"&gt;border-top-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of the top border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-top-left-radius.asp"&gt;border-top-left-radius&lt;/a&gt;|||&gt; |||&gt;Defines the radius of the border of the top-left corner|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_border-top-right-radius.asp"&gt;border-top-right-radius&lt;/a&gt;|||&gt; |||&gt;Defines the radius of the border of the top-right corner|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-top_style.asp"&gt;border-top-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of the top border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-top_width.asp"&gt;border-top-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of the top border|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_border-width.asp"&gt;border-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of the four borders|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_pos_bottom.asp"&gt;bottom&lt;/a&gt;|||&gt; |||&gt;Sets the elements position, from the bottom of its parent element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_box-decoration-break.asp"&gt;box-decoration-break&lt;/a&gt;|||&gt; |||&gt;Sets the behavior of the background and border of an element at page-break, or, for  in-line elements, at line-break.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_box-shadow.asp"&gt;box-shadow&lt;/a&gt;|||&gt; |||&gt;Attaches one or more shadows to an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_box-sizing.asp"&gt;box-sizing&lt;/a&gt;|||&gt; |||&gt;Defines how the width and height of an element are calculated: should      they include padding and borders, or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_break-after.asp"&gt;break-after&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not a page-, column-, or region-break should occur      after the specified element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_break-before.asp"&gt;break-before&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not a page-, column-, or region-break should occur      before the specified element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_break-inside.asp"&gt;break-inside&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not a page-, column-, or region-break should occur      inside the specified element|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="pr_tab_caption-side.asp"&gt;caption-side&lt;/a&gt;|||&gt; |||&gt;Specifies the placement of a table caption|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_caret-color.asp"&gt;caret-color&lt;/a&gt;|||&gt; |||&gt;Specifies the color of the cursor (caret) in inputs, textareas, or any      element that is editable|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_charset_rule.asp"&gt;@charset&lt;/a&gt;|||&gt; |||&gt;Specifies the character encoding used in the style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_class_clear.asp"&gt;clear&lt;/a&gt;|||&gt; |||&gt;Specifies what should happen with the element that is next to a floating      element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_pos_clip.asp"&gt;clip&lt;/a&gt;|||&gt; |||&gt;Clips an absolutely positioned element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_color.asp"&gt;color&lt;/a&gt;|||&gt; |||&gt;Sets the color of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-count.asp"&gt;column-count&lt;/a&gt;|||&gt; |||&gt;Specifies the number of columns an element should be divided into|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-fill.asp"&gt;column-fill&lt;/a&gt;|||&gt; |||&gt;Specifies how to fill columns, balanced or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-gap.asp"&gt;column-gap&lt;/a&gt;|||&gt; |||&gt;Specifies the gap between the columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-rule.asp"&gt;column-rule&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;column-rule-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-rule-color.asp"&gt;column-rule-color&lt;/a&gt;|||&gt; |||&gt;Specifies the color of the rule between columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-rule-style.asp"&gt;column-rule-style&lt;/a&gt;|||&gt; |||&gt;Specifies the style of the rule between columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-rule-width.asp"&gt;column-rule-width&lt;/a&gt;|||&gt; |||&gt;Specifies the width of the rule between columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-span.asp"&gt;column-span&lt;/a&gt;|||&gt; |||&gt;Specifies how many columns an element should span across|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_column-width.asp"&gt;column-width&lt;/a&gt;|||&gt; |||&gt;Specifies the column width|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_columns.asp"&gt;columns&lt;/a&gt;|||&gt; |||&gt;A shorthand property for &lt;em&gt;column-width&lt;/em&gt; and &lt;em&gt;column-count&lt;/em&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_gen_content.asp"&gt;content&lt;/a&gt;|||&gt; |||&gt;Used with the :before and :after pseudo-elements, to insert generated content|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_gen_counter-increment.asp"&gt;counter-increment&lt;/a&gt;|||&gt; |||&gt;Increases or decreases the value of one or more CSS counters|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_gen_counter-reset.asp"&gt;counter-reset&lt;/a&gt;|||&gt; |||&gt;Creates or resets one or more CSS counters|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_class_cursor.asp"&gt;cursor&lt;/a&gt;|||&gt; |||&gt;Specifies the mouse cursor to be displayed when pointing over an element|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_direction.asp"&gt;direction&lt;/a&gt;|||&gt; |||&gt;Specifies the text direction/writing direction|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_class_display.asp"&gt;display&lt;/a&gt;|||&gt; |||&gt;Specifies how a certain HTML element should be displayed|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="pr_tab_empty-cells.asp"&gt;empty-cells&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not to display borders and background on empty cells in a table|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_filter.asp"&gt;filter&lt;/a&gt;|||&gt; |||&gt;Defines effects (e.g. blurring or color shifting) on an element before the element is displayed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex.asp"&gt;flex&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;flex-grow, flex-shrink&lt;/em&gt;, and the      &lt;em&gt;flex-basis&lt;/em&gt;      properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-basis.asp"&gt;flex-basis&lt;/a&gt;|||&gt; |||&gt;Specifies the initial length of a flexible item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-direction.asp"&gt;flex-direction&lt;/a&gt;|||&gt; |||&gt;Specifies the direction of the flexible items|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-flow.asp"&gt;flex-flow&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;flex-direction&lt;/em&gt; and the &lt;em&gt;flex-wrap&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-grow.asp"&gt;flex-grow&lt;/a&gt;|||&gt; |||&gt;Specifies how much the item will grow relative to the rest|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-shrink.asp"&gt;flex-shrink&lt;/a&gt;|||&gt; |||&gt;Specifies how the item will shrink relative to the rest|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_flex-wrap.asp"&gt;flex-wrap&lt;/a&gt;|||&gt; |||&gt;Specifies whether the flexible items should wrap or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_class_float.asp"&gt;float&lt;/a&gt;|||&gt; |||&gt;Specifies whether an element should float to the left, right, or not at      all|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_font.asp"&gt;font&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;font-style, font-variant, font-weight,      font-size/line-height&lt;/em&gt;, and the &lt;em&gt;font-family&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-face_rule.asp"&gt;@font-face&lt;/a&gt;|||&gt; |||&gt;A rule that allows websites to download and use fonts other than the "web-safe" fonts|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_font-family.asp"&gt;font-family&lt;/a&gt;|||&gt; |||&gt;Specifies the font family for text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-feature-settings.asp"&gt;font-feature-settings&lt;/a&gt;|||&gt; |||&gt;Allows control over advanced typographic features in OpenType fonts|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;@font-feature-values|||&gt; |||&gt;Allows authors to use a common name in font-variant-alternate for feature activated differently in OpenType|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-kerning.asp"&gt;font-kerning&lt;/a&gt;|||&gt; |||&gt;Controls the usage of the kerning information (how letters are spaced)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-language-override|||&gt; |||&gt;Controls the usage of language-specific glyphs in a typeface|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_font-size.asp"&gt;font-size&lt;/a&gt;|||&gt; |||&gt;Specifies the font size of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-size-adjust.asp"&gt;font-size-adjust&lt;/a&gt;|||&gt; |||&gt;Preserves the readability of text when font fallback occurs|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-stretch.asp"&gt;font-stretch&lt;/a&gt;|||&gt; |||&gt;Selects a normal, condensed, or expanded face from a font family|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_font-style.asp"&gt;font-style&lt;/a&gt;|||&gt; |||&gt;Specifies the font style for text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-synthesis|||&gt; |||&gt;Controls which missing typefaces (bold or italic) may be synthesized by the browser|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_font-variant.asp"&gt;font-variant&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not a text should be displayed in a small-caps font|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-variant-alternates|||&gt; |||&gt;Controls the usage of alternate glyphs associated to alternative names defined in @font-feature-values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_font-variant-caps.asp"&gt;font-variant-caps&lt;/a&gt;|||&gt; |||&gt;Controls the usage of alternate glyphs for capital letters|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-variant-east-asian|||&gt; |||&gt;Controls the usage of alternate glyphs for East Asian scripts (e.g Japanese and Chinese)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-variant-ligatures|||&gt; |||&gt;Controls which ligatures and contextual forms are used in textual content of the elements it applies to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-variant-numeric|||&gt; |||&gt;Controls the usage of alternate glyphs for numbers, fractions, and ordinal markers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;font-variant-position|||&gt; |||&gt;Controls the usage of alternate glyphs of smaller size positioned as superscript or subscript regarding the baseline of the font|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_font_weight.asp"&gt;font-weight&lt;/a&gt;|||&gt; |||&gt;Specifies the weight of a font|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_gap.asp"&gt;gap&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;row-gap&lt;/em&gt; and the &lt;em&gt;column-gap&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid.asp"&gt;grid&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;grid-template-rows,      grid-template-columns, grid-template-areas, grid-auto-rows,      grid-auto-columns&lt;/em&gt;, and the &lt;em&gt;grid-auto-flow&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-area.asp"&gt;grid-area&lt;/a&gt;|||&gt; |||&gt;Either specifies a name for the grid item, or this property is a shorthand property for the &lt;em&gt;grid-row-start&lt;/em&gt;, &lt;em&gt;grid-column-start&lt;/em&gt;, &lt;em&gt;grid-row-end&lt;/em&gt;, and &lt;em&gt;grid-column-end&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-auto-columns.asp"&gt;grid-auto-columns&lt;/a&gt;|||&gt; |||&gt;Specifies a default column size|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-auto-flow.asp"&gt;grid-auto-flow&lt;/a&gt;|||&gt; |||&gt;Specifies how auto-placed items are inserted in the grid|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-auto-rows.asp"&gt;grid-auto-rows&lt;/a&gt;|||&gt; |||&gt;Specifies a default row size|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-column.asp"&gt;grid-column&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;grid-column-start&lt;/em&gt; and the &lt;em&gt;grid-column-end&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-column-end.asp"&gt;grid-column-end&lt;/a&gt;|||&gt; |||&gt;Specifies where to end the grid item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-column-gap.asp"&gt;grid-column-gap&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the gap between columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-column-start.asp"&gt;grid-column-start&lt;/a&gt;|||&gt; |||&gt;Specifies where to start the grid item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-gap.asp"&gt;grid-gap&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;grid-row-gap&lt;/em&gt; and &lt;em&gt;grid-column-gap&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-row.asp"&gt;grid-row&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;grid-row-start&lt;/em&gt; and the &lt;em&gt;grid-row-end&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-row-end.asp"&gt;grid-row-end&lt;/a&gt;|||&gt; |||&gt;Specifies where to end the grid item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-row-gap.asp"&gt;grid-row-gap&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the gap between rows|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-row-start.asp"&gt;grid-row-start&lt;/a&gt;|||&gt; |||&gt;Specifies where to start the grid item|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-template.asp"&gt;grid-template&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;grid-template-rows&lt;/em&gt;, &lt;em&gt;grid-template-columns&lt;/em&gt;      and &lt;em&gt;grid-areas&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-template-areas.asp"&gt;grid-template-areas&lt;/a&gt;|||&gt; |||&gt;Specifies how to display columns and rows, using named grid items|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-template-columns.asp"&gt;grid-template-columns&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the columns, and how many columns in a grid layout|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_grid-template-rows.asp"&gt;grid-template-rows&lt;/a&gt;|||&gt; |||&gt;Specifies the size of the rows in a grid layout|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_hanging-punctuation.asp"&gt;hanging-punctuation&lt;/a&gt;|||&gt; |||&gt;Specifies whether a punctuation character may be placed outside the line box|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_height.asp"&gt;height&lt;/a&gt;|||&gt; |||&gt;Sets the height of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_hyphens.asp"&gt;hyphens&lt;/a&gt;|||&gt; |||&gt;Sets how to split words to improve the layout of paragraphs|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_image-rendering.asp"&gt;image-rendering&lt;/a&gt;|||&gt; |||&gt;Specifies the type of algorithm to use for image scaling|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_import_rule.asp"&gt;@import&lt;/a&gt;|||&gt; |||&gt;Allows you to import a style sheet into another style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_isolation.asp"&gt;isolation&lt;/a&gt;|||&gt; |||&gt;Defines whether an element must create a new stacking content|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_justify-content.asp"&gt;justify-content&lt;/a&gt;|||&gt; |||&gt;Specifies the alignment between the items inside a flexible container when the items do not use all available space|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_animation-keyframes.asp"&gt;@keyframes&lt;/a&gt;|||&gt; |||&gt;Specifies the animation code|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="pr_pos_left.asp"&gt;left&lt;/a&gt;|||&gt; |||&gt;Specifies the left position of a positioned element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_letter-spacing.asp"&gt;letter-spacing&lt;/a&gt;|||&gt; |||&gt;Increases or decreases the space between characters in a text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;line-break|||&gt; |||&gt;Specifies how/if to break lines|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_line-height.asp"&gt;line-height&lt;/a&gt;|||&gt; |||&gt;Sets the line height|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_list-style.asp"&gt;list-style&lt;/a&gt;|||&gt; |||&gt;Sets all the properties for a list in one declaration|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_list-style-image.asp"&gt;list-style-image&lt;/a&gt;|||&gt; |||&gt;Specifies an image as the list-item marker|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_list-style-position.asp"&gt;list-style-position&lt;/a&gt;|||&gt; |||&gt;Specifies the position of the list-item markers (bullet points)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_list-style-type.asp"&gt;list-style-type&lt;/a&gt;|||&gt; |||&gt;Specifies the type of list-item marker|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="pr_margin.asp"&gt;margin&lt;/a&gt;|||&gt; |||&gt;Sets all the margin properties in one declaration|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_margin-bottom.asp"&gt;margin-bottom&lt;/a&gt;|||&gt; |||&gt;Sets the bottom margin of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_margin-left.asp"&gt;margin-left&lt;/a&gt;|||&gt; |||&gt;Sets the left margin of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_margin-right.asp"&gt;margin-right&lt;/a&gt;|||&gt; |||&gt;Sets the right margin of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_margin-top.asp"&gt;margin-top&lt;/a&gt;|||&gt; |||&gt;Sets the top margin of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mask|||&gt; |||&gt;Hides parts of an element by masking or clipping an image at specific places|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mask-clip|||&gt; |||&gt;Specifies the mask area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mask-composite|||&gt; |||&gt;Represents a compositing operation used on the current mask layer with      the mask layers below it|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-image.asp"&gt;mask-image&lt;/a&gt;|||&gt; |||&gt;Specifies an image to be used as a mask layer for an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-mode.asp"&gt;mask-mode&lt;/a&gt;|||&gt; |||&gt;Specifies whether the mask layer image is treated as a luminance mask or      as an alpha mask|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-origin.asp"&gt;mask-origin&lt;/a&gt;|||&gt; |||&gt;Specifies the origin position (the mask  position area) of a mask layer image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-position.asp"&gt;mask-position&lt;/a&gt;|||&gt; |||&gt;Sets the starting position of a mask layer image (relative to the      mask position area)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-repeat.asp"&gt;mask-repeat&lt;/a&gt;|||&gt; |||&gt;Specifies how the mask layer image is repeated|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mask-size.asp"&gt;mask-size&lt;/a&gt;|||&gt; |||&gt;Specifies the size of a mask layer image|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;mask-type|||&gt; |||&gt;Specifies whether an SVG &amp;lt;mask&amp;gt; element is treated as a luminance      mask or as an alpha mask|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_max-height.asp"&gt;max-height&lt;/a&gt;|||&gt; |||&gt;Sets the maximum height of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_max-width.asp"&gt;max-width&lt;/a&gt;|||&gt; |||&gt;Sets the maximum width of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_mediaquery.asp"&gt;@media&lt;/a&gt;|||&gt; |||&gt;Sets the style rules for different media types/devices/sizes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_min-height.asp"&gt;min-height&lt;/a&gt;|||&gt; |||&gt;Sets the minimum height of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_dim_min-width.asp"&gt;min-width&lt;/a&gt;|||&gt; |||&gt;Sets the minimum width of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_mix-blend-mode.asp"&gt;mix-blend-mode&lt;/a&gt;|||&gt; |||&gt;Specifies how an element's content should blend with its direct parent background|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="css3_pr_object-fit.asp"&gt;object-fit&lt;/a&gt;|||&gt; |||&gt;Specifies how the contents of a replaced element should be fitted to the box established by its used height and width|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_object-position.asp"&gt;object-position&lt;/a&gt;|||&gt; |||&gt;Specifies the alignment of the replaced element inside its box|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_opacity.asp"&gt;opacity&lt;/a&gt;|||&gt; |||&gt;Sets the opacity level for an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_order.asp"&gt;order&lt;/a&gt;|||&gt; |||&gt;Sets the order of the flexible item, relative to the rest|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_orphans.asp"&gt;orphans&lt;/a&gt;|||&gt; |||&gt;Sets the minimum number of lines that must be left at the bottom of a      page or column|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_outline.asp"&gt;outline&lt;/a&gt;|||&gt; |||&gt;A shorthand property for the &lt;em&gt;outline-width, outline-style&lt;/em&gt;, and      the &lt;em&gt;outline-color&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_outline-color.asp"&gt;outline-color&lt;/a&gt;|||&gt; |||&gt;Sets the color of an outline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_outline-offset.asp"&gt;outline-offset&lt;/a&gt;|||&gt; |||&gt;Offsets an outline, and draws it beyond the border edge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_outline-style.asp"&gt;outline-style&lt;/a&gt;|||&gt; |||&gt;Sets the style of an outline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_outline-width.asp"&gt;outline-width&lt;/a&gt;|||&gt; |||&gt;Sets the width of an outline|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_pos_overflow.asp"&gt;overflow&lt;/a&gt;&lt;br/&gt; |||&gt; |||&gt;Specifies what happens if content overflows an element's box|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_overflow-wrap.asp"&gt;overflow-wrap&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not the browser can break lines with long words, if      they overflow the container|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_overflow-x.asp"&gt;overflow-x&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not to clip the left/right edges of the content, if it overflows the element's content area|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_overflow-y.asp"&gt;overflow-y&lt;/a&gt;|||&gt; |||&gt;Specifies whether or not to clip the top/bottom edges of the content, if it overflows the element's content area|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a href="pr_padding.asp"&gt;padding&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;padding-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_padding-bottom.asp"&gt;padding-bottom&lt;/a&gt;|||&gt; |||&gt;Sets the bottom padding of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_padding-left.asp"&gt;padding-left&lt;/a&gt;|||&gt; |||&gt;Sets the left padding of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_padding-right.asp"&gt;padding-right&lt;/a&gt;|||&gt; |||&gt;Sets the right padding of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_padding-top.asp"&gt;padding-top&lt;/a&gt;|||&gt; |||&gt;Sets the top padding of an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_print_pageba.asp"&gt;page-break-after&lt;/a&gt;|||&gt; |||&gt;Sets the page-break behavior after an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_print_pagebb.asp"&gt;page-break-before&lt;/a&gt;|||&gt; |||&gt;Sets the page-break behavior before an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_print_pagebi.asp"&gt;page-break-inside&lt;/a&gt;|||&gt; |||&gt;Sets the page-break behavior inside an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_perspective.asp"&gt;perspective&lt;/a&gt;|||&gt; |||&gt;Gives a 3D-positioned element some perspective|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_perspective-origin.asp"&gt;perspective-origin&lt;/a&gt;|||&gt; |||&gt;Defines at which position the user is looking at the 3D-positioned element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_pointer-events.asp"&gt;pointer-events&lt;/a&gt;|||&gt; |||&gt;Defines whether or not an element reacts to pointer events|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_class_position.asp"&gt;position&lt;/a&gt;|||&gt; |||&gt;Specifies the type of positioning method used for an element (static, relative, absolute or fixed)|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="pr_gen_quotes.asp"&gt;quotes&lt;/a&gt;|||&gt; |||&gt;Sets the type of quotation marks for embedded quotations|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_resize.asp"&gt;resize&lt;/a&gt;|||&gt; |||&gt;Defines if (and how) an element is resizable by the user|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_pos_right.asp"&gt;right&lt;/a&gt;|||&gt; |||&gt;Specifies the right position of a positioned element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_row-gap.asp"&gt;row-gap&lt;/a&gt;|||&gt; |||&gt;Specifies the gap between the grid rows|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="pr_scroll-behavior.asp"&gt;scroll-behavior&lt;/a&gt;|||&gt; |||&gt;Specifies whether to smoothly animate the scroll position in a scrollable box, instead of a straight jump|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_tab-size.asp"&gt;tab-size&lt;/a&gt;|||&gt; |||&gt;Specifies the width of a tab character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_tab_table-layout.asp"&gt;table-layout&lt;/a&gt;|||&gt; |||&gt;Defines the algorithm used to lay out table cells, rows, and columns|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_text-align.asp"&gt;text-align&lt;/a&gt;|||&gt; |||&gt;Specifies the horizontal alignment of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-align-last.asp"&gt;text-align-last&lt;/a&gt;|||&gt; |||&gt;Describes how the last line of a block or a line right before a forced line break is aligned when text-align is "justify"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;text-combine-upright|||&gt; |||&gt;Specifies the combination of multiple characters into the space of a single character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_text-decoration.asp"&gt;text-decoration&lt;/a&gt;|||&gt; |||&gt;Specifies the decoration added to text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-decoration-color.asp"&gt;text-decoration-color&lt;/a&gt;|||&gt; |||&gt;Specifies the color of the text-decoration|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-decoration-line.asp"&gt;text-decoration-line&lt;/a&gt;|||&gt; |||&gt;Specifies the type of line in a text-decoration|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-decoration-style.asp"&gt;text-decoration-style&lt;/a&gt;|||&gt; |||&gt;Specifies the style of the line in a text decoration|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_text-indent.asp"&gt;text-indent&lt;/a&gt;|||&gt; |||&gt;Specifies the indentation of the first line in a text-block|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-justify.asp"&gt;text-justify&lt;/a&gt;|||&gt; |||&gt;Specifies the justification method used when text-align is "justify"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;text-orientation|||&gt; |||&gt;Defines the orientation of the text in a line|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-overflow.asp"&gt;text-overflow&lt;/a&gt;|||&gt; |||&gt;Specifies what should happen when text overflows the containing element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_text-shadow.asp"&gt;text-shadow&lt;/a&gt;|||&gt; |||&gt;Adds shadow to text |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_text-transform.asp"&gt;text-transform&lt;/a&gt;|||&gt; |||&gt;Controls the capitalization of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;text-underline-position|||&gt; |||&gt;Specifies the position of the underline which is set using the text-decoration property|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="pr_pos_top.asp"&gt;top&lt;/a&gt;|||&gt; |||&gt;Specifies the top position of a positioned element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transform.asp"&gt;transform&lt;/a&gt;|||&gt; |||&gt;Applies a 2D or 3D transformation to an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transform-origin.asp"&gt;transform-origin&lt;/a&gt;|||&gt; |||&gt;Allows you to change the position on transformed elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transform-style.asp"&gt;transform-style&lt;/a&gt;|||&gt; |||&gt;Specifies how nested elements are rendered in 3D space|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transition.asp"&gt;transition&lt;/a&gt;|||&gt; |||&gt;A shorthand property for all the &lt;em&gt;transition-*&lt;/em&gt; properties|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transition-delay.asp"&gt;transition-delay&lt;/a&gt;|||&gt; |||&gt;Specifies when the transition effect will start|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transition-duration.asp"&gt;transition-duration&lt;/a&gt;|||&gt; |||&gt;Specifies how many seconds or milliseconds a transition effect takes to complete|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transition-property.asp"&gt;transition-property&lt;/a&gt;|||&gt; |||&gt;Specifies the name of the CSS property the transition effect is for|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_transition-timing-function.asp"&gt;transition-timing-function&lt;/a&gt;|||&gt; |||&gt;Specifies the speed curve of the transition effect|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||&gt;&lt;a href="pr_text_unicode-bidi.asp"&gt;unicode-bidi&lt;/a&gt;|||&gt; |||&gt;Used together with the &lt;a href="pr_text_direction.asp"&gt;direction&lt;/a&gt; property to set or return whether the text should be overridden to support multiple languages in the same document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="css3_pr_user-select.asp"&gt;user-select&lt;/a&gt;|||&gt; |||&gt;Specifies whether the text of an element can be selected|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; ||| width="20%"&gt;&lt;a h</t>
+    <t>http://www.w3schools.com//cssref/default.asp</t>
   </si>
   <si>
     <t>CSS Reference Browser Support</t>
@@ -1006,7 +973,7 @@
     <t>['The table below lists all CSS properties and how each property is supported in the different browsers:', 'The number to the right of the browser icon indicates in which browser version the property was first supported.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all bsReference"&gt; &amp;&amp;&amp; |||Property||| &lt;th style="text-align:center;"&gt;Edge||| &lt;th style="text-align:center;"&gt;Firefox||| &lt;th style="text-align:center;"&gt;Chrome||| &lt;th style="text-align:center;"&gt;Safari||| &lt;th style="text-align:center;"&gt;Opera||| &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;A&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_align-content.asp"&gt;align-content&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;21|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;12.1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_align-items.asp"&gt;align-items&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;20|||&gt; ||| class="bsChrome"&gt;21|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;12.1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_align-self.asp"&gt;align-self&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;20|||&gt; ||| class="bsChrome"&gt;21|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;12.1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_all.asp"&gt;all&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;27|||&gt; ||| class="bsChrome"&gt;37|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsOpera"&gt;24|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation.asp"&gt;animation&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-delay.asp"&gt;animation-delay&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-direction.asp"&gt;animation-direction&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-duration.asp"&gt;animation-duration&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-fill-mode.asp"&gt;animation-fill-mode&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-iteration-count.asp"&gt;animation-iteration-count&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-name.asp"&gt;animation-name&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-play-state.asp"&gt;animation-play-state&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_animation-timing-function.asp"&gt;animation-timing-function&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;43|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;30|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;B&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_backface-visibility.asp"&gt;backface-visibility&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;16|||&gt; ||| class="bsChrome"&gt;36|||&gt; ||| class="bsPreSafari"&gt;4|||&gt; ||| class="bsOpera"&gt;23|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_background.asp"&gt;background&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-attachment.asp"&gt;background-attachment&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-blend-mode.asp"&gt;background-blend-mode&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;30|||&gt; ||| class="bsChrome"&gt;35|||&gt; ||| class="bsSafari"&gt;7.1|||&gt; ||| class="bsOpera"&gt;22|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_background-clip.asp"&gt;background-clip&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-color.asp"&gt;background-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-image.asp"&gt;background-image&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_background-origin.asp"&gt;background-origin&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-position.asp"&gt;background-position&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_background-repeat.asp"&gt;background-repeat&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_background-size.asp"&gt;background-size&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;4.1|||&gt; ||| class="bsOpera"&gt;10|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border.asp"&gt;border&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-bottom.asp"&gt;border-bottom&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-bottom_color.asp"&gt;border-bottom-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-bottom-left-radius.asp"&gt;border-bottom-left-radius&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-bottom-right-radius.asp"&gt;border-bottom-right-radius&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-bottom_style.asp"&gt;border-bottom-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;9.2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-bottom_width.asp"&gt;border-bottom-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-collapse.asp"&gt;border-collapse&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1.2|||&gt; ||| class="bsOpera"&gt;4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-color.asp"&gt;border-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image.asp"&gt;border-image&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;15|||&gt; ||| class="bsChrome"&gt;16|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image-outset.asp"&gt;border-image-outset&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;15|||&gt; ||| class="bsChrome"&gt;15|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image-repeat.asp"&gt;border-image-repeat&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;15|||&gt; ||| class="bsChrome"&gt;15|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image-slice.asp"&gt;border-image-slice&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;15|||&gt; ||| class="bsChrome"&gt;15|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image-source.asp"&gt;border-image-source&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;15|||&gt; ||| class="bsChrome"&gt;15|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-image-width.asp"&gt;border-image-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;13|||&gt; ||| class="bsChrome"&gt;15|||&gt; ||| class="bsSafari"&gt;6|||&gt; ||| class="bsOpera"&gt;15|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-left.asp"&gt;border-left&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-left_color.asp"&gt;border-left-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-left_style.asp"&gt;border-left-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;9.2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-left_width.asp"&gt;border-left-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-radius.asp"&gt;border-radius&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-right.asp"&gt;border-right&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-right_color.asp"&gt;border-right-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-right_style.asp"&gt;border-right-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;9.2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-right_width.asp"&gt;border-right-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-spacing.asp"&gt;border-spacing&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-style.asp"&gt;border-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-top.asp"&gt;border-top&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-top_color.asp"&gt;border-top-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-top-left-radius.asp"&gt;border-top-left-radius&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_border-top-right-radius.asp"&gt;border-top-right-radius&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-top_style.asp"&gt;border-top-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;9.2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-top_width.asp"&gt;border-top-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_border-width.asp"&gt;border-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_pos_bottom.asp"&gt;bottom&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_box-decoration-break.asp"&gt;box-decoration-break&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;32|||&gt; ||| class="bsPreChrome"&gt;22|||&gt; ||| class="bsPreSafari"&gt;6.1|||&gt; ||| class="bsPreOpera"&gt;11.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_box-shadow.asp"&gt;box-shadow&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;10|||&gt; ||| class="bsSafari"&gt;5.1|||&gt; ||| class="bsOpera"&gt;10.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_box-sizing.asp"&gt;box-sizing&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;29|||&gt; ||| class="bsChrome"&gt;10|||&gt; ||| class="bsSafari"&gt;5.1|||&gt; ||| class="bsOpera"&gt;9.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_break-after.asp"&gt;break-after&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;65|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_break-before.asp"&gt;break-before&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;65|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_break-inside.asp"&gt;break-inside&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;65|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;C&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_tab_caption-side.asp"&gt;caption-side&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_caret-color.asp"&gt;caret-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;53|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;11.1|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_charset_rule.asp"&gt;@charset&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;12|||&gt; ||| class="bsFirefox"&gt;1.5|||&gt; ||| class="bsChrome"&gt;2|||&gt; ||| class="bsSafari"&gt;4|||&gt; ||| class="bsOpera"&gt;9|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_class_clear.asp"&gt;clear&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_pos_clip.asp"&gt;clip&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_clip-path.asp"&gt;clip-path&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;12|||&gt; ||| class="bsFirefox"&gt;54|||&gt; ||| class="bsChrome"&gt;55|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsOpera"&gt;42|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_text_color.asp"&gt;color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;3|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-count.asp"&gt;column-count&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-fill.asp"&gt;column-fill&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-gap.asp"&gt;column-gap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-rule.asp"&gt;column-rule&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-rule-color.asp"&gt;column-rule-color&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-rule-style.asp"&gt;column-rule-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-rule-width.asp"&gt;column-rule-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-span.asp"&gt;column-span&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;71|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_column-width.asp"&gt;column-width&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_columns.asp"&gt;columns&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;50|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;37|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_gen_content.asp"&gt;content&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_gen_counter-increment.asp"&gt;counter-increment&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;2|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3.1|||&gt; ||| class="bsOpera"&gt;9.6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_gen_counter-reset.asp"&gt;counter-reset&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;2|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3.1|||&gt; ||| class="bsOpera"&gt;9.6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_class_cursor.asp"&gt;cursor&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;4|||&gt; ||| class="bsChrome"&gt;5|||&gt; ||| class="bsSafari"&gt;5|||&gt; ||| class="bsOpera"&gt;9.6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;D&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_text_direction.asp"&gt;direction&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;2|||&gt; ||| class="bsSafari"&gt;1.3|||&gt; ||| class="bsOpera"&gt;9.2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_class_display.asp"&gt;display&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;3|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3.1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;E&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_tab_empty-cells.asp"&gt;empty-cells&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;8|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1.2|||&gt; ||| class="bsOpera"&gt;4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;F&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_filter.asp"&gt;filter&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;13|||&gt; ||| class="bsFirefox"&gt;35|||&gt; ||| class="bsChrome"&gt;53|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsOpera"&gt;40|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex.asp"&gt;flex&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-basis.asp"&gt;flex-basis&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-direction.asp"&gt;flex-direction&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-flow.asp"&gt;flex-flow&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-grow.asp"&gt;flex-grow&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-shrink.asp"&gt;flex-shrink&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_flex-wrap.asp"&gt;flex-wrap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;11|||&gt; ||| class="bsFirefox"&gt;28|||&gt; ||| class="bsChrome"&gt;29|||&gt; ||| class="bsSafari"&gt;9|||&gt; ||| class="bsOpera"&gt;17|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_class_float.asp"&gt;float&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_font.asp"&gt;font&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-face_rule.asp"&gt;@font-face&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;3.6|||&gt; ||| class="bsChrome"&gt;4|||&gt; ||| class="bsSafari"&gt;3|||&gt; ||| class="bsOpera"&gt;10|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_font-family.asp"&gt;font-family&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-feature-settings.asp"&gt;font-feature-settings&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsChrome"&gt;48|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsOpera"&gt;35|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;@font-feature-values|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-kerning.asp"&gt;font-kerning&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsChrome"&gt;33|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsOpera"&gt;20.1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-language-override|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_font-size.asp"&gt;font-size&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-size-adjust.asp"&gt;font-size-adjust&lt;/a&gt;|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;3|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-stretch.asp"&gt;font-stretch&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;9|||&gt; ||| class="bsFirefox"&gt;9|||&gt; ||| class="bsChrome"&gt;48|||&gt; ||| class="bsSafari"&gt;11|||&gt; ||| class="bsOpera"&gt;35|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_font-style.asp"&gt;font-style&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-synthesis|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_font-variant.asp"&gt;font-variant&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-variant-alternates|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsSafari"&gt;9.1|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_font-variant-caps.asp"&gt;font-variant-caps&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsChrome"&gt;52|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsOpera"&gt;39|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-variant-east-asian|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-variant-ligatures|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsChrome"&gt;34|||&gt; ||| class="bsPreSafari"&gt;7|||&gt; ||| class="bsPreOpera"&gt;19|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-variant-numeric|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsChrome"&gt;52|||&gt; ||| class="bsSafari"&gt;|||&gt; ||| class="bsOpera"&gt;39|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;font-variant-position|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsFirefox"&gt;34|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_font_weight.asp"&gt;font-weight&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;2|||&gt; ||| class="bsSafari"&gt;1.3|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;G&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_gap.asp"&gt;gap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;16|||&gt; ||| class="bsFirefox"&gt;61|||&gt; ||| class="bsChrome"&gt;66|||&gt; ||| class="bsSafari"&gt;10.1|||&gt; ||| class="bsOpera"&gt;53|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid.asp"&gt;grid&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-area.asp"&gt;grid-area&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-auto-columns.asp"&gt;grid-auto-columns&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-auto-flow.asp"&gt;grid-auto-flow&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-auto-rows.asp"&gt;grid-auto-rows&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-column.asp"&gt;grid-column&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-column-end.asp"&gt;grid-column-end&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-column-gap.asp"&gt;grid-column-gap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-column-start.asp"&gt;grid-column-start&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-gap.asp"&gt;grid-gap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-row.asp"&gt;grid-row&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-row-end.asp"&gt;grid-row-end&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-row-gap.asp"&gt;grid-row-gap&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-row-start.asp"&gt;grid-row-start&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-template.asp"&gt;grid-template&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-template-areas.asp"&gt;grid-template-areas&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-template-columns.asp"&gt;grid-template-columns&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_grid-template-rows.asp"&gt;grid-template-rows&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;10|||&gt; ||| class="bsFirefox"&gt;52|||&gt; ||| class="bsChrome"&gt;57|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;H&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_hanging-punctuation.asp"&gt;hanging-punctuation&lt;/a&gt;|||&gt; ||| class="bsNoEdge"&gt;|||&gt; ||| class="bsNoFirefox"&gt;|||&gt; ||| class="bsNoChrome"&gt;|||&gt; ||| class="bsNoSafari"&gt;|||&gt; ||| class="bsNoOpera"&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_dim_height.asp"&gt;height&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;4|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_hyphens.asp"&gt;hyphens&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;43|||&gt; ||| class="bsChrome"&gt;55|||&gt; ||| class="bsPreSafari"&gt;5.1|||&gt; ||| class="bsOpera"&gt;44|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;strong&gt;I&lt;/strong&gt;|||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_image-rendering.asp"&gt;image-rendering&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;65|||&gt; ||| class="bsChrome"&gt;41|||&gt; ||| class="bsSafari"&gt;10|||&gt; ||| class="bsOpera"&gt;28|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="pr_import_rule.asp"&gt;@import&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;5.5|||&gt; ||| class="bsFirefox"&gt;1|||&gt; ||| class="bsChrome"&gt;1|||&gt; ||| class="bsSafari"&gt;1|||&gt; ||| class="bsOpera"&gt;3.5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="bsProperty"&gt;&lt;a href="css3_pr_isolation.asp"&gt;isolation&lt;/a&gt;|||&gt; ||| class="bsEdge"&gt;79|||&gt; ||| class="bsFirefox"&gt;36</t>
+    <t>http://www.w3schools.com//cssref/css3_browsersupport.asp</t>
   </si>
   <si>
     <t>CSS Selectors Reference</t>
@@ -1015,9 +982,6 @@
     <t>['In CSS, selectors are patterns used to select the element(s) you want to style.', 'Use our CSS Selector Tester to demonstrate the different selectors.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Selector||| &lt;th style="width:20%"&gt;Example||| |||Example description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_class.asp"&gt;.&lt;i&gt;class&lt;/i&gt;&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;.intro|||&gt; |||&gt;Selects all elements with class="intro"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;em&gt;.class1.class2&lt;/em&gt;|||&gt; ||| class="notranslate"&gt;.name1.name2|||&gt; |||&gt;Selects all elements with both &lt;em&gt;name1&lt;/em&gt; and &lt;em&gt;name2&lt;/em&gt; set      within its class attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;em&gt;.class1 .class2&lt;/em&gt;|||&gt; ||| class="notranslate"&gt;.name1 .name2|||&gt; |||&gt;Selects all elements with &lt;em&gt;name2&lt;/em&gt; that is a descendant of an      element with &lt;em&gt;name1&lt;/em&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_id.asp"&gt;#&lt;i&gt;id&lt;/i&gt;&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;#firstname|||&gt; |||&gt;Selects the element with id="firstname"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_all.asp"&gt;*&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;*|||&gt; |||&gt;Selects all elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;i&gt;&lt;a href="sel_element.asp"&gt;element&lt;/a&gt;&lt;/i&gt;|||&gt; ||| class="notranslate"&gt;p|||&gt; |||&gt;Selects all &amp;lt;p&amp;gt; elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;i&gt;&lt;a href="sel_element_class.asp"&gt;element.class&lt;/a&gt;&lt;/i&gt;|||&gt; ||| class="notranslate"&gt;p.intro|||&gt; |||&gt;Selects all &amp;lt;p&amp;gt; elements with class="intro"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;i&gt;&lt;a href="sel_element_comma.asp"&gt;element,element&lt;/a&gt;&lt;/i&gt;|||&gt; ||| class="notranslate"&gt;div, p|||&gt; |||&gt;Selects all &amp;lt;div&amp;gt; elements and all &amp;lt;p&amp;gt; elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_element_element.asp"&gt;&lt;i&gt;element&lt;/i&gt; &lt;i&gt;element&lt;/i&gt;&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;div p|||&gt; |||&gt;Selects all &amp;lt;p&amp;gt; elements inside &amp;lt;div&amp;gt; elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_element_gt.asp"&gt;&lt;i&gt;element&lt;/i&gt;&amp;gt;&lt;i&gt;element&lt;/i&gt;&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;div &amp;gt; p|||&gt; |||&gt;Selects all &amp;lt;p&amp;gt; elements where the parent is a &amp;lt;div&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_element_pluss.asp"&gt;&lt;i&gt;element&lt;/i&gt;+&lt;i&gt;element&lt;/i&gt;&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;div + p|||&gt; |||&gt;Selects the first &amp;lt;p&amp;gt; element that is placed immediately after &amp;lt;div&amp;gt; elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_gen_sibling.asp"&gt;&lt;i&gt;element1&lt;/i&gt;~&lt;i&gt;element2&lt;/i&gt;&lt;/a&gt;|||&gt; |||&gt;p ~ ul|||&gt; |||&gt;Selects every &amp;lt;ul&amp;gt; element that is preceded by a &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attribute.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;]&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;[target]|||&gt; |||&gt;Selects all elements with a target attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attribute_value.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;[target=_blank]|||&gt; |||&gt;Selects all elements with target="_blank"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attribute_value_contains.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;~=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;[title~=flower]|||&gt; |||&gt;Selects all elements with a title attribute containing the word "flower"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attribute_value_lang.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;|=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;[lang|=en]|||&gt; |||&gt;Selects all elements with a lang attribute value equal to "en" or      starting with "en-"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attr_begin.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;^=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; |||&gt;a[href^="https"]|||&gt; |||&gt;Selects every &amp;lt;a&amp;gt; element whose href attribute value begins with "https"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attr_end.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;$=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; |||&gt;a[href$=".pdf"]|||&gt; |||&gt;Selects every &amp;lt;a&amp;gt; element whose href attribute value ends with ".pdf"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_attr_contain.asp"&gt;[&lt;i&gt;attribute&lt;/i&gt;*=&lt;i&gt;value&lt;/i&gt;]&lt;/a&gt;|||&gt; |||&gt;a[href*="w3schools"]|||&gt; |||&gt;Selects every &amp;lt;a&amp;gt; element whose href attribute value contains the substring "w3schools"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_active.asp"&gt;:active&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;a:active|||&gt; |||&gt;Selects the active link|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_after.asp"&gt;::after&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p::after|||&gt; |||&gt;Insert something after the content of each &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_before.asp"&gt;::before&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p::before|||&gt; |||&gt;Insert something before the content of each &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_checked.asp"&gt;:checked&lt;/a&gt;|||&gt; |||&gt;input:checked|||&gt; |||&gt;Selects every checked &amp;lt;input&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_default.asp"&gt;:default&lt;/a&gt;|||&gt; |||&gt;input:default|||&gt; |||&gt;Selects the default &amp;lt;input&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_disabled.asp"&gt;:disabled&lt;/a&gt;|||&gt; |||&gt;input:disabled|||&gt; |||&gt;Selects every disabled &amp;lt;input&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_empty.asp"&gt;:empty&lt;/a&gt;|||&gt; |||&gt;p:empty|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that has no children (including text nodes)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_enabled.asp"&gt;:enabled&lt;/a&gt;|||&gt; |||&gt;input:enabled|||&gt; |||&gt;Selects every enabled &amp;lt;input&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_firstchild.asp"&gt;:first-child&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p:first-child|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the first child of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_firstletter.asp"&gt;::first-letter&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p::first-letter|||&gt; |||&gt;Selects the first letter of every &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_firstline.asp"&gt;::first-line&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p::first-line|||&gt; |||&gt;Selects the first line of every &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_first-of-type.asp"&gt;:first-of-type&lt;/a&gt;|||&gt; |||&gt;p:first-of-type|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the first &amp;lt;p&amp;gt; element of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_focus.asp"&gt;:focus&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:focus|||&gt; |||&gt;Selects the input element which has focus|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_fullscreen.asp"&gt;:fullscreen&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;:fullscreen|||&gt; |||&gt;Selects the element that is in full-screen mode|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_hover.asp"&gt;:hover&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;a:hover|||&gt; |||&gt;Selects links on mouse over|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_in-range.asp"&gt;:in-range&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:in-range|||&gt; |||&gt;Selects input elements with a value within a specified range|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_indeterminate.asp"&gt;:indeterminate&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:indeterminate|||&gt; |||&gt;Selects input elements that are in an indeterminate state|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_invalid.asp"&gt;:invalid&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:invalid|||&gt; |||&gt;Selects all input elements with an invalid value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_lang.asp"&gt;:lang(&lt;i&gt;language&lt;/i&gt;)&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;p:lang(it)|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element with a lang attribute equal to "it" (Italian)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_last-child.asp"&gt;:last-child&lt;/a&gt;|||&gt; |||&gt;p:last-child|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the last child of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_last-of-type.asp"&gt;:last-of-type&lt;/a&gt;|||&gt; |||&gt;p:last-of-type|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the last &amp;lt;p&amp;gt; element of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_link.asp"&gt;:link&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;a:link|||&gt; |||&gt;Selects all unvisited links|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_marker.asp"&gt;::marker&lt;/a&gt;|||&gt; |||&gt;::marker|||&gt; |||&gt;Selects the markers of list items|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_not.asp"&gt;:not(&lt;i&gt;selector&lt;/i&gt;)&lt;/a&gt;|||&gt; |||&gt;:not(p)|||&gt; |||&gt;Selects every element that is not a &amp;lt;p&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_nth-child.asp"&gt;:nth-child(&lt;i&gt;n&lt;/i&gt;)&lt;/a&gt;|||&gt; |||&gt;p:nth-child(2)|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the second child of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_nth-last-child.asp"&gt;:nth-last-child(&lt;i&gt;n&lt;/i&gt;)&lt;/a&gt;|||&gt; |||&gt;p:nth-last-child(2)|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the second child of its parent, counting from the last child|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_nth-last-of-type.asp"&gt;:nth-last-of-type(&lt;i&gt;n&lt;/i&gt;)&lt;/a&gt;|||&gt; |||&gt;p:nth-last-of-type(2)|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the second &amp;lt;p&amp;gt; element of its parent, counting from the last child|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_nth-of-type.asp"&gt;:nth-of-type(&lt;i&gt;n&lt;/i&gt;)&lt;/a&gt;|||&gt; |||&gt;p:nth-of-type(2)|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the second &amp;lt;p&amp;gt; element of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_only-of-type.asp"&gt;:only-of-type&lt;/a&gt;|||&gt; |||&gt;p:only-of-type|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the only &amp;lt;p&amp;gt; element of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_only-child.asp"&gt;:only-child&lt;/a&gt;|||&gt; |||&gt;p:only-child|||&gt; |||&gt;Selects every &amp;lt;p&amp;gt; element that is the only child of its parent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_optional.asp"&gt;:optional&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:optional|||&gt; |||&gt;Selects input elements with no "required" attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_out-of-range.asp"&gt;:out-of-range&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:out-of-range|||&gt; |||&gt;Selects input elements with a value outside a specified range|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_placeholder.asp"&gt;::placeholder&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input::placeholder|||&gt; |||&gt;Selects input elements with the "placeholder" attribute specified|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_read-only.asp"&gt;:read-only&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:read-only|||&gt; |||&gt;Selects input elements with the "readonly" attribute specified|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_read-write.asp"&gt;:read-write&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:read-write|||&gt; |||&gt;Selects input elements with the "readonly" attribute NOT specified|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_required.asp"&gt;:required&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:required|||&gt; |||&gt;Selects input elements with the "required" attribute specified|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_root.asp"&gt;:root&lt;/a&gt;|||&gt; |||&gt;:root|||&gt; |||&gt;Selects the document's root element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_selection.asp"&gt;::selection&lt;/a&gt;|||&gt; |||&gt;::selection|||&gt; |||&gt;Selects the portion of an element that is selected by a user|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_target.asp"&gt;:target&lt;/a&gt;|||&gt; |||&gt;#news:target |||&gt; |||&gt;Selects the current active #news element (clicked on a URL containing that anchor name)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_valid.asp"&gt;:valid&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;input:valid|||&gt; |||&gt;Selects all input elements with a valid value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sel_visited.asp"&gt;:visited&lt;/a&gt;|||&gt; ||| class="notranslate"&gt;a:visited|||&gt; |||&gt;Selects all visited links|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//cssref/css_selectors.asp</t>
   </si>
   <si>
@@ -1027,7 +991,7 @@
     <t>['Complete list of all Bootstrap classes with description and examples:', 'The table above shows all available Bootstrap 3 classes.', 'Tip: To see the full list of all Bootstrap 4 classes, go to our All Bootstrap 4 CSS Classes Reference.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate" id="myTable"&gt; &lt;thead&gt; &lt;tr class="w3-white"&gt; &lt;th style="width:22%;cursor:pointer;user-select:none;"&gt;Class &lt;i class="fa fa-sort" style="font-size:13px;"&gt;&lt;/i&gt;||| &lt;th onclick="javascript:void(0)" style="width:54%;"&gt;Description||| &lt;th onclick="return false;" style="width:8%;"&gt;Example||| &lt;th style="width:16%;cursor:pointer;user-select:none;"&gt;Category &lt;i class="fa fa-sort" style="font-size:13px;"&gt;&lt;/i&gt;||| &amp;&amp;&amp; &lt;/thead&gt; &lt;tbody&gt; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a grey background color to the &lt;strong&gt;table&lt;/strong&gt; row (&lt;code&gt;&amp;lt;tr&amp;gt;&lt;/code&gt; or table cell (&lt;code&gt;&amp;lt;td&amp;gt;&lt;/code&gt;) (same color used on hover)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_table_contextual&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_tables.asp" target="_blank"&gt;Tables&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a gray background color to the active link in a default &lt;strong&gt;       navbar.&lt;/strong&gt; Adds a black background and a white color to the current link inside an inverted navbar.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_navbar&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_navbar.asp" target="_blank"&gt;Navbar&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;list item&lt;/strong&gt; in a list group|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_list_group_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_list_groups.asp" target="_blank"&gt;List Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to simulate a "pressed" &lt;strong&gt;button&lt;/strong&gt;|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Animates a striped &lt;strong&gt;progress bar&lt;/strong&gt;|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_progressbar5&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_progressbars.asp" target="_blank"&gt;Progress Bars&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;dropdown item&lt;/strong&gt; in a dropdown|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;pagination&lt;/strong&gt; link (to highlight the current page)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_pagination_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.affix&lt;/code&gt;|||&gt; |||&gt;The Affix plugin allows an element to become affixed (locked/sticky) to an area on the page. It toggles &lt;code&gt;position:fixed&lt;/code&gt; on and off|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_affix_nav&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a class="w3-center" href="bootstrap_affix.asp" target="_blank"&gt;Affix&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert&lt;/code&gt;|||&gt; |||&gt;Creates an alert message box|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-danger&lt;/code&gt;|||&gt; |||&gt;Red alert box. Indicates a dangerous or potentially negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-dismissible&lt;/code&gt;|||&gt; |||&gt;Together with the &lt;code&gt;.close&lt;/code&gt; class, this class is used to     close the alert|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts_dismissible&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-info&lt;/code&gt;|||&gt; |||&gt;Light-blue alert box. Indicates some information|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-link&lt;/code&gt;|||&gt; |||&gt;Used on links inside alerts to add matching colored links|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts_link&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-success&lt;/code&gt;|||&gt; |||&gt;Green alert box. Indicates a successful or positive action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-warning&lt;/code&gt;|||&gt; |||&gt;Yellow alert box. Indicates caution should be taken with this action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge&lt;/code&gt;|||&gt; |||&gt;Creates a circular badge (grey circle - often used as a numerical indicator)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_badges_labels.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-danger&lt;/code&gt;|||&gt; |||&gt;Adds a red background color to an element. Represents danger or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-info&lt;/code&gt;|||&gt; |||&gt;Adds a light-blue background color to an element. Represents some information|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-primary&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to an element. Represents something important|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-success&lt;/code&gt;|||&gt; |||&gt;Adds a green background color to an element. Indicates success or a positive action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-warning&lt;/code&gt;|||&gt; |||&gt;Adds a yellow background color to an element. Represents a warning or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.breadcrumb&lt;/code&gt;|||&gt; |||&gt;A pagination. Indicates the current page's location within a navigational hierarchy|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_breadcrumbs&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn&lt;/code&gt;|||&gt; |||&gt;Creates a basic button (gray background and rounded corners)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_btn&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-block&lt;/code&gt;|||&gt; |||&gt;Creates a block level button that spans the entire width of the parent element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_block&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-danger&lt;/code&gt;|||&gt; |||&gt;Red button. Indicates danger or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-default&lt;/code&gt;|||&gt; |||&gt;Default button. White background and grey border|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group&lt;/code&gt;|||&gt; |||&gt;Groups buttons together on a single line|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-justified&lt;/code&gt;|||&gt; |||&gt;Makes a group of buttons span the entire width of the screen|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_justified&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-lg&lt;/code&gt;|||&gt; |||&gt;Large button group (makes all buttons in a button group larger - increased font-size and padding)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_size&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-sm&lt;/code&gt;|||&gt; |||&gt;Small button group (makes all buttons in a button group smaller)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_size&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-xs&lt;/code&gt;|||&gt; |||&gt;Extra small button group (makes all buttons in a button group extra small)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_size&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-vertical&lt;/code&gt;|||&gt; |||&gt;Makes a button group appear vertically stacked|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_v&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-info&lt;/code&gt;|||&gt; |||&gt;Light-blue button. Represents information|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-link&lt;/code&gt;|||&gt; |||&gt;Makes a button look like a link (get button behavior)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-lg&lt;/code&gt;|||&gt; |||&gt;Large button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_sizes&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-primary&lt;/code&gt;|||&gt; |||&gt;Blue button.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-sm&lt;/code&gt;|||&gt; |||&gt;Small button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_sizes&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-success&lt;/code&gt;|||&gt; |||&gt;Green button. Indicates success or a positive action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-warning&lt;/code&gt;|||&gt; |||&gt;Yellow button. Represents warning or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-xs&lt;/code&gt;|||&gt; |||&gt;Extra small button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_sizes&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.caption&lt;/code&gt;|||&gt; |||&gt;Adds a caption text inside a &lt;code&gt;.thumbnail&lt;/code&gt;|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_img_thumbnail2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.caret&lt;/code&gt;|||&gt; |||&gt;Creates a caret arrow icon &lt;span class="caret"&gt;&lt;/span&gt;, which indicates that the button is a dropdown|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_caret&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.carousel&lt;/code&gt;|||&gt; |||&gt;Creates a carousel (slideshow)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.carousel-caption&lt;/code&gt;|||&gt; |||&gt;Creates a caption text for each slide in the carousel|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.carousel-control&lt;/code&gt;|||&gt; |||&gt;Container for next and previous links|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.carousel-indicators&lt;/code&gt;|||&gt; |||&gt;Adds little dots/indicators at the bottom of each slide (which indicates how many slides there is in the carousel, and which slide the user are currently viewing)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.carousel-inner&lt;/code&gt;|||&gt; |||&gt;Container for slide items|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.center-block&lt;/code&gt;|||&gt; |||&gt;Centers any element (Sets an element to &lt;code&gt;display:block&lt;/code&gt; with &lt;code&gt;margin-right:auto&lt;/code&gt; and &lt;code&gt;margin-left:auto&lt;/code&gt;)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_center-block&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.checkbox&lt;/code&gt;|||&gt; |||&gt;Container for checkboxes|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_checkbox&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms_inputs.asp" target="_blank"&gt;Inputs&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.checkbox-inline&lt;/code&gt;|||&gt; |||&gt;Makes multiple checkboxes appear on the same line|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_checkbox_inline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms_inputs.asp" target="_blank"&gt;Inputs&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.clearfix&lt;/code&gt;|||&gt; |||&gt;Clears floats|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_grid_ex7&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.close&lt;/code&gt;|||&gt; |||&gt;Indicates a close icon|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_close&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.col-*-*&lt;/code&gt;|||&gt; |||&gt;Responsive grid (span 1-12 column). Extra small devices Phones (&amp;lt; 768px), Small devices Tablets (≥768px), Medium devices Desktops (≥992px), Large devices Desktops (≥1200px). Column values can be 1-12.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_grid_large&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_grid_system.asp" target="_blank"&gt;Grid&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.col-*-offset-*&lt;/code&gt;|||&gt; |||&gt;Move columns to the right. These classes increase the left margin of a column by * columns|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_grid_ex8&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_grid_system.asp" target="_blank"&gt;Grid&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.col-*-pull-*&lt;/code&gt;|||&gt; |||&gt;Changes the order of the grid columns|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_grid_ex9&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_grid_system.asp" target="_blank"&gt;Grid&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.col-*-push-*&lt;/code&gt;|||&gt; |||&gt;Changes the order of the grid columns|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_grid_ex9&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_grid_system.asp" target="_blank"&gt;Grid&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.collapse&lt;/code&gt;|||&gt; |||&gt;Indicates collapsible content - which can be hidden or shown on demand|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_collapsible&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_collapse.asp" target="_blank"&gt;Collapse&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.collapse in&lt;/code&gt;|||&gt; |||&gt;Show the collapsible content by default|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_collapsible_in&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_collapse.asp" target="_blank"&gt;Collapse&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.container&lt;/code&gt;|||&gt; |||&gt;Fixed width container with widths determined by screen sites. Equal margin on the left and right.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_gs_container&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_get_started.asp" target="_blank"&gt;Containers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.container-fluid&lt;/code&gt;|||&gt; |||&gt;A container that spans the full width of the screen|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_gs_container-fluid&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_get_started.asp" target="_blank"&gt;Containers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.control-label&lt;/code&gt;|||&gt; |||&gt;Allows a label to be used for form validation|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_static&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.danger&lt;/code&gt;|||&gt; |||&gt;Adds a red background to the table row (&lt;code&gt;&amp;lt;tr&amp;gt;&lt;/code&gt; or table cell (&lt;code&gt;&amp;lt;td&amp;gt;&lt;/code&gt;). Indicates a dangerous or potentially negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_table_contextual&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_tables.asp" target="_blank"&gt;Tables&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.disabled&lt;/code&gt;|||&gt; |||&gt;Disables a &lt;strong&gt;button&lt;/strong&gt; (adds opacity and a "no-parking-sign" icon on hover)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.disabled&lt;/code&gt;|||&gt; |||&gt;Disables a &lt;strong&gt;dropdown&lt;/strong&gt; item (adds a grey text color and a "no-parking-sign" icon on hover)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.disabled&lt;/code&gt;|||&gt; |||&gt;Disables a &lt;strong&gt;pagination&lt;/strong&gt; link (cannot be clicked - adds a grey text color and a "no-parking-sign" icon on hover)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_pagination_disabled&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.disabled&lt;/code&gt;|||&gt; |||&gt;Disables a &lt;strong&gt;list&lt;/strong&gt; item in a list group (cannot be clicked - adds a grey background color and a "no-parking-sign" icon on hover)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_list_group_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_list_groups.asp" target="_blank"&gt;List Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.divider&lt;/code&gt;|||&gt; |||&gt;Used to separate links in the dropdown menu with a thin horizontal border|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-divider&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dl-horizontal&lt;/code&gt;|||&gt; |||&gt;Lines up the terms &lt;code&gt;&amp;lt;dt&amp;gt;&lt;/code&gt; and descriptions &lt;code&gt;&amp;lt;dd&amp;gt;&lt;/code&gt; in &lt;code&gt;&amp;lt;dl&amp;gt;&lt;/code&gt; elements side-by-side. Starts off like default     &lt;code&gt;&amp;lt;dl&amp;gt;&lt;/code&gt;s, but when the browser window expands, it will line up side-by-side|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_txt_dl-horizontal&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_typography.asp" target="_blank"&gt;Typography&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropdown&lt;/code&gt;|||&gt; |||&gt;Creates a toggleable menu that allows the user to choose one value from a predefined list|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-menu&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropdown-header&lt;/code&gt;|||&gt; |||&gt;Used to add headers inside the dropdown menu|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-header&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropdown-menu&lt;/code&gt;|||&gt; |||&gt;Adds the default styles for the dropdown menu container|||&gt;|||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-menu&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropdown-menu-right&lt;/code&gt;|||&gt; |||&gt;Right-aligns a dropdown menu|||&gt;|||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-menu-right&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropdown-toggle&lt;/code&gt;|||&gt; |||&gt;Used on the button that should hide and show (toggle) the dropdown menu|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-menu&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.dropup&lt;/code&gt;|||&gt; |||&gt;Indicates a dropup menu (upwards instead of downwards)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-menu-dropup&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.embed-responsive&lt;/code&gt;|||&gt; |||&gt;Container for embedded content. Makes videos or slideshows scale properly on any device|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_responsive_embed_4by3&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.embed-responsive-16by9&lt;/code&gt;|||&gt; |||&gt;Container for embedded content. Creates an 16:9 aspect ratio embedded content|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_responsive_embed&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.embed-responsive-4by3&lt;/code&gt;|||&gt; |||&gt;Container for embedded content. Creates an 4:3 aspect ratio embedded content|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_responsive_embed_4by3&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.embed-responsive-item&lt;/code&gt;|||&gt; |||&gt;Used inside &lt;code&gt;.embed-responsive&lt;/code&gt;. Scales the video nicely to the parent element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_responsive_embed&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.fade&lt;/code&gt;|||&gt; |||&gt;Adds a fading effect when closing an alert box|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_alerts_fade&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-control&lt;/code&gt;|||&gt; |||&gt;Used on input, textarea, and select elements to span the entire width of the page and make them responsive|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_basic&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-control-feedback&lt;/code&gt;|||&gt; |||&gt;Form validation class|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_all&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms_inputs2.asp" target="_blank"&gt;Inputs 2&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-control-static&lt;/code&gt;|||&gt; |||&gt;Adds plain text next to a form label within a horizontal form|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_static&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms_inputs2.asp" target="_blank"&gt;Inputs 2&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-group&lt;/code&gt;|||&gt; |||&gt;Container for form input and label|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_basic&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-inline&lt;/code&gt;|||&gt; |||&gt;Makes a &amp;lt;form&amp;gt; left-aligned with inline-block controls (This only     applies to forms within viewports that are at least 768px wide)|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_form-inline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.form-horizontal&lt;/code&gt;|||&gt; |||&gt;Aligns labels and groups of form controls in a horizontal layout|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_form-horizontal&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.glyphicon&lt;/code&gt;|||&gt; |||&gt;Creates an icon. Bootstrap provides 260 free glyphicons from the &lt;a href="bootstrap_glyphicons.asp" target="_blank"&gt;Glyphicons&lt;/a&gt; Halflings set|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_glyphs&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_glyphicons.asp" target="_blank"&gt;Glyphicons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.has-danger&lt;/code&gt;|||&gt; |||&gt;Adds a red color to the label and a red border to the input, as well as an error icon inside the input (used together with &lt;code&gt;.has-feedback&lt;/code&gt;)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_all&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.has-feedback&lt;/code&gt;|||&gt; |||&gt;Adds feedback icons for inputs (checkmark, warning and error signs)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_all&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.has-success&lt;/code&gt;|||&gt; |||&gt;Adds a green color to the label and a green border to the input, as well as a checkmark icon inside the input (used together with &lt;code&gt;.has-feedback&lt;/code&gt;)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_all&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.has-warning&lt;/code&gt;|||&gt; |||&gt;Adds a yellow/orange color to the label and a yellow/orange border to the input, as well as a checkmark icon inside the input (used together with &lt;code&gt;.has-feedback&lt;/code&gt;)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_form_horizontal_all&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms.asp" target="_blank"&gt;Forms&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.help-block&lt;/code&gt;|||&gt; |||&gt;A block of help text that breaks onto a new line and may extend beyond one line.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_input_help-block&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_forms_sizing.asp" target="_blank"&gt;Input Sizing&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.hidden&lt;/code&gt;|||&gt; |||&gt;Forces an element to be hidden (&lt;code&gt;display:none&lt;/code&gt;)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_hidden&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.hidden-*&lt;/code&gt;|||&gt; |||&gt;Hides content depending on screen size|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_text-hidden&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.hide&lt;/code&gt;|||&gt; |||&gt;&lt;span class="marked"&gt;Deprecated.&lt;/span&gt; Use &lt;code&gt;.hidden&lt;/code&gt; instead|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_hlp_hidden&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_ref_css_helpers.asp" target="_blank"&gt;Helpers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.h1 - .h6&lt;/code&gt;|||&gt; |||&gt;Makes an element look like a heading of the chosen class (h1-h6)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_txt_hn&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_typography.asp" target="_blank"&gt;Typography&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.icon-bar&lt;/code&gt;|||&gt; |||&gt;Used in the navbar to create a hamburger menu (three horizontal bars)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_navbar_collapse&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_navbar.asp" target="_blank"&gt;Navbar&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.icon-next&lt;/code&gt;|||&gt; |||&gt;Unicode icon (arrow pointing right), used in carousels. This is often replaced with a glyphicon|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel_icon&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.icon-prev&lt;/code&gt;|||&gt; |||&gt;Unicode icon (arrow pointing left), used in carousels. This is often replaced with a glyphicon|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel_icon&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.img-circle&lt;/code&gt;|||&gt; |||&gt;Shapes an image to a circle (not supported in IE8 and earlier)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_img_circle&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.img-responsive&lt;/code&gt;|||&gt; |||&gt;Makes an image responsive|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_img_responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.img-rounded&lt;/code&gt;|||&gt; |||&gt;Adds rounded corners to an image|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_img_rounded&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.img-thumbnail&lt;/code&gt;|||&gt; |||&gt;Shapes an image to a thumbnail (borders)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_img_thumbnail&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_images.asp" target="_blank"&gt;Images&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.in&lt;/code&gt;|||&gt; |||&gt;Fades in tabs|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_tabs_dynamic&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_tabs_pills.asp" target="_blank"&gt;Tabs&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.info&lt;/code&gt;|||&gt; |||&gt;Adds a light-blue background to the table row (&lt;code&gt;&amp;lt;tr&amp;gt;&lt;/code&gt; or table cell (&lt;code&gt;&amp;lt;td&amp;gt;&lt;/code&gt;). Indicates a neutral informative change or action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_table_contextual&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;</t>
+    <t>http://www.w3schools.com//bootstrap/bootstrap_ref_all_classes.asp</t>
   </si>
   <si>
     <t>Bootstrap 4 All CSS Classes</t>
@@ -1036,7 +1000,7 @@
     <t>['Complete list of all Bootstrap 4 CSS classes with description and examples:', 'The table above shows all available Bootstrap 4 classes.', 'Tip: To see the full list of all Bootstrap 3 classes, go to our All Bootstrap 3 CSS Classes Reference.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate" id="myTable"&gt; &lt;thead&gt; &lt;tr class="w3-white"&gt; &lt;th style="width:25%;cursor:pointer;user-select:none;"&gt;Class &lt;i class="fa fa-sort" style="font-size:13px;"&gt;&lt;/i&gt;||| &lt;th onclick="javascript:void(0)" style="width:51%;"&gt;Description||| &lt;th onclick="return false;" style="width:7%;"&gt;Example||| &lt;th style="width:17%;cursor:pointer;user-select:none;"&gt;Category &lt;i class="fa fa-sort" style="font-size:13px;"&gt;&lt;/i&gt;||| &amp;&amp;&amp; &lt;/thead&gt; &lt;tbody&gt; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a white text color to the active link in a &lt;strong&gt;navbar&lt;/strong&gt;.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_navbar_color&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_navbar.asp" target="_blank"&gt;Navbar&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;list item&lt;/strong&gt; in a list group|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_list_group_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_list_groups.asp" target="_blank"&gt;List Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a dark-blue background color to simulate a "pressed" &lt;strong&gt;button&lt;/strong&gt;|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;dropdown item&lt;/strong&gt; in a dropdown|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_dropdown-active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_dropdowns.asp" target="_blank"&gt;Dropdowns&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to the active &lt;strong&gt;pagination&lt;/strong&gt; link (to highlight the current page)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_pagination_active&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.active&lt;/code&gt;|||&gt; |||&gt;Displays/shows the current &lt;strong&gt;carousel&lt;/strong&gt; item|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_carousel2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_carousel.asp" target="_blank"&gt;Carousel&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;.&lt;code&gt;alert&lt;/code&gt;|||&gt; |||&gt;Creates an alert message box|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-danger&lt;/code&gt;|||&gt; |||&gt;Red alert. Indicates a dangerous or potentially negative action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-dark&lt;/code&gt;|||&gt; |||&gt;Dark alert. Dark grey alert box|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-dismissible&lt;/code&gt;|||&gt; |||&gt;Indicates a closable alert box. Together with the &lt;code&gt;.close&lt;/code&gt; class, this class is used to   close the alert (adds extra padding)|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert_close2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-heading&lt;/code&gt;|||&gt; |||&gt;Adds &lt;code&gt;color:inherit&lt;/code&gt; to the specified element|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert_heading&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-info&lt;/code&gt;|||&gt; |||&gt;Teal alert. Indicates a neutral informative change or action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-light&lt;/code&gt;|||&gt; |||&gt;Light alert. Light grey alert box|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-link&lt;/code&gt;|||&gt; |||&gt;Used on links inside alerts to provide matching colored links|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-primary&lt;/code&gt;|||&gt; |||&gt;Blue alert. Indicates an important action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-secondary&lt;/code&gt;|||&gt; |||&gt;Grey alert. Indicates a "less" important action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-success&lt;/code&gt;|||&gt; |||&gt;Green alert. Indicates a successful or positive action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.alert-warning&lt;/code&gt;|||&gt; |||&gt;Yellow alert. Indicates caution should be taken with this action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_ref_js_alert&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_alerts.asp" target="_blank"&gt;Alerts&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-baseline&lt;/code&gt;|||&gt; |||&gt;The element is aligned with the baseline of the parent. This is default|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-bottom&lt;/code&gt;|||&gt; |||&gt;The element is aligned with the lowest element on the line|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-middle&lt;/code&gt;|||&gt; |||&gt;	The element is placed in the middle of the parent element|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-top&lt;/code&gt;|||&gt; |||&gt;The element is aligned with the top of the tallest element on the line|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-text-top&lt;/code&gt;|||&gt; |||&gt;The element is aligned with the top of the parent element's font|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-text-bottom&lt;/code&gt;|||&gt; |||&gt;The element is aligned with the bottom of the parent element's font|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_align&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-around&lt;/code&gt;|||&gt; |||&gt;Align gathered items "around"|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-*-around&lt;/code&gt;|||&gt; |||&gt;Align gathered items "around" on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content-around-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-center&lt;/code&gt;|||&gt; |||&gt;Align gathered items in the center|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-*-center&lt;/code&gt;|||&gt; |||&gt;Align gathered items in the center on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content-center-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-end&lt;/code&gt;|||&gt; |||&gt;Align gathered items at the end|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-*-end&lt;/code&gt;|||&gt; |||&gt;Align gathered items at the end on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content-end-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-start&lt;/code&gt;|||&gt; |||&gt;Align gathered items from the start|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-*-start&lt;/code&gt;|||&gt; |||&gt;Align gathered items from the start on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content-start-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch gathered items|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-content-*-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch gathered items on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-content-stretch-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-start&lt;/code&gt;|||&gt; |||&gt;Align single rows of items from the start|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-*-start&lt;/code&gt;|||&gt; |||&gt;Align single rows of items from the start on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items-start-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-end&lt;/code&gt;|||&gt; |||&gt;Align single rows of items at the end|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-*-end&lt;/code&gt;|||&gt; |||&gt;Align single rows of items at the end on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items-end-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-center&lt;/code&gt;|||&gt; |||&gt;Align single rows of items in the center|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-*-center&lt;/code&gt;|||&gt; |||&gt;Align single rows of items in the center on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items-center-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-baseline&lt;/code&gt;|||&gt; |||&gt;Align single rows of items at the baseline|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-*-baseline&lt;/code&gt;|||&gt; |||&gt;Align single rows of items at the baseline on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items-baseline-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch single rows of items|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-items-*-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch single rows of items on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-items-stretch-responsive&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-start&lt;/code&gt;|||&gt; |||&gt;Align a flex item from the start|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-*-start&lt;/code&gt;|||&gt; |||&gt;Align a flex item from the start on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self-start-responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-end&lt;/code&gt;|||&gt; |||&gt;Align a flex item at the end|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-*-end&lt;/code&gt;|||&gt; |||&gt;Align a flex item at the end on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-end-start-responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-center&lt;/code&gt;|||&gt; |||&gt;Align a flex item in the center|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-*-center&lt;/code&gt;|||&gt; |||&gt;Align a flex item in the center on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self-center-responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-baseline&lt;/code&gt;|||&gt; |||&gt;Align a flex item at the baseline|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-*-baseline&lt;/code&gt;|||&gt; |||&gt;Align a flex item at the baseline on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self-baseline-responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch a flex item|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.align-self-*-stretch&lt;/code&gt;|||&gt; |||&gt;Stretch a flex item on different screens|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_flex-align-self-stretch-responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_flex.asp" target="_blank"&gt;Flex&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge&lt;/code&gt;|||&gt; |||&gt;Creates a circular badge (grey circle - often used as a numerical indicator)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-danger&lt;/code&gt;|||&gt; |||&gt;Red badge. Indicates a dangerous or potentially negative action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-dark&lt;/code&gt;|||&gt; |||&gt;Dark badge. Dark grey alert box|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-info&lt;/code&gt;|||&gt; |||&gt;Teal badge. Indicates a neutral informative change or action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-light&lt;/code&gt;|||&gt; |||&gt;Light badge. Light grey alert box|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-pill&lt;/code&gt;|||&gt; |||&gt;Makes a badge more round|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges_pills&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-primary&lt;/code&gt;|||&gt; |||&gt;Blue badge. Indicates an important action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-secondary&lt;/code&gt;|||&gt; |||&gt;Grey badge. Indicates a "less" important action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-success&lt;/code&gt;|||&gt; |||&gt;Green badge. Indicates a successful or positive action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.badge-warning&lt;/code&gt;|||&gt; |||&gt;Yellow badge. Indicates caution should be taken with this action|||&gt; |||&gt;&lt;a class="w3-btn" href="tryit.asp?filename=trybs_badges2&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; |||&gt;&lt;a href="bootstrap_badges.asp" target="_blank"&gt;Badges&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-danger&lt;/code&gt;|||&gt; |||&gt;Adds a red background color to an element. Represents danger or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-dark&lt;/code&gt;|||&gt; |||&gt;Adds a dark grey background color to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-info&lt;/code&gt;|||&gt; |||&gt;Adds a teal background color to an element. Represents some information|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-light&lt;/code&gt;|||&gt; |||&gt;Adds a light grey background color to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-primary&lt;/code&gt;|||&gt; |||&gt;Adds a blue background color to an element. Represents something important|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-secondary&lt;/code&gt;|||&gt; |||&gt;Adds a grey background color to an element. Indicates a "less" important action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-success&lt;/code&gt;|||&gt; |||&gt;Adds a green background color to an element. Indicates success or a positive action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.bg-warning&lt;/code&gt;|||&gt; |||&gt;Adds a yellow/orange background color to an element. Represents a warning or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_bgcolors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_colors.asp" target="_blank"&gt;Colors&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.blockquote&lt;/code&gt;|||&gt; |||&gt;Styles quoted blocks of content from another source (adds a larger font-size (1.25rem))|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_blockquote&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_typography.asp" target="_blank"&gt;Typography&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.blockquote-footer&lt;/code&gt;|||&gt; |||&gt;Styles the source title inside the blockquote (light grey text with indentation)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_txt_blockquote&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_typography.asp" target="_blank"&gt;Typography&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border&lt;/code&gt;|||&gt; |||&gt;Adds a border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-bottom-0&lt;/code&gt;|||&gt; |||&gt;Removes the bottom border from an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-danger&lt;/code&gt;|||&gt; |||&gt;Adds a red border to an element (indicates danger)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-dark&lt;/code&gt;|||&gt; |||&gt;Adds a dark border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-info&lt;/code&gt;|||&gt; |||&gt;Adds a teal border to an element (indicates information)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-left-0&lt;/code&gt;|||&gt; |||&gt;Removes the left border from an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-light&lt;/code&gt;|||&gt; |||&gt;Adds a light grey border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-primary&lt;/code&gt;|||&gt; |||&gt;Adds a blue border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-right-0&lt;/code&gt;|||&gt; |||&gt;Removes the right border from an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-top-0&lt;/code&gt;|||&gt; |||&gt;Removes the top border from an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-secondary&lt;/code&gt;|||&gt; |||&gt;Adds a grey border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-success&lt;/code&gt;|||&gt; |||&gt;Adds a green border to an element (indicates success)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-warning&lt;/code&gt;|||&gt; |||&gt;Adds a orange border to an element (indicates warning)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-white&lt;/code&gt;|||&gt; |||&gt;Adds a white border to an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders_colors&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.border-0&lt;/code&gt;|||&gt; |||&gt;Removes all borders from an element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_util_borders&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_utilities.asp" target="_blank"&gt;Utilities&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.breadcrumb&lt;/code&gt;|||&gt; |||&gt;A pagination. Indicates the current page's location within a navigational hierarchy|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_breadcrumbs&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.breadcrumb-item&lt;/code&gt;|||&gt; |||&gt;Styles list items or links inside the breadcrumb|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_breadcrumbs&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_pagination.asp" target="_blank"&gt;Pagination&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn&lt;/code&gt;|||&gt; |||&gt;Creates a basic button (gray background and rounded corners)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-block&lt;/code&gt;|||&gt; |||&gt;Creates a block level button that spans the entire width of the parent element|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_block&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-dark&lt;/code&gt;|||&gt; |||&gt;Dark grey button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-danger&lt;/code&gt;|||&gt; |||&gt;Red button. Indicates danger or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group&lt;/code&gt;|||&gt; |||&gt;Groups buttons together on a single line|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-lg&lt;/code&gt;|||&gt; |||&gt;Large button group (makes all buttons in a button group larger - increased font-size and padding)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_size&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-sm&lt;/code&gt;|||&gt; |||&gt;Small button group (makes all buttons in a button group smaller)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_size&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-group-vertical&lt;/code&gt;|||&gt; |||&gt;Makes a button group appear vertically stacked|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_group_v&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_button_groups.asp" target="_blank"&gt;Button Groups&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-info&lt;/code&gt;|||&gt; |||&gt;Teal button. Represents a neutral informative change or action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-light&lt;/code&gt;|||&gt; |||&gt;Light grey button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-link&lt;/code&gt;|||&gt; |||&gt;Makes a button look like a link (get button behavior)|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_styles&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-lg&lt;/code&gt;|||&gt; |||&gt;Large button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_sizes&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-dark&lt;/code&gt;|||&gt; |||&gt;Dark grey bordered/outlined button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-danger&lt;/code&gt;|||&gt; |||&gt;Red bordered/outlined button. Indicates danger or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-info&lt;/code&gt;|||&gt; |||&gt;Teal bordered/outlined button. Represents a neutral informative change or action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-light&lt;/code&gt;|||&gt; |||&gt;Light grey bordered/outlined button|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-primary&lt;/code&gt;|||&gt; |||&gt;Blue bordered/outlined button.|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-secondary&lt;/code&gt;|||&gt; |||&gt;Grey bordered/outlined button. Indicates a "less" important action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-success&lt;/code&gt;|||&gt; |||&gt;Green bordered/outlined button. Indicates success or a positive action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-outline-warning&lt;/code&gt;|||&gt; |||&gt;Orange bordered/outlined button. Represents warning or a negative action|||&gt; |||&gt; &lt;a class="w3-btn" href="tryit.asp?filename=trybs_button_outline&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt; |||&gt; |||&gt;&lt;a href="bootstrap_buttons.asp" target="_blank"&gt;Buttons&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;code&gt;.btn-primary&lt;/code&gt;|||&gt; |||&gt;Blue button. Indicates a something important|||&gt; |||&gt;</t>
+    <t>http://www.w3schools.com//bootstrap4/bootstrap_ref_all_classes.asp</t>
   </si>
   <si>
     <t>W3.CSS Reference</t>
@@ -1045,7 +1009,10 @@
     <t>['The colors above can also be used as hover classes:', 'The text classes above can also be used as hover classes:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-container|||&gt; |||&gt;HTML container with 16px left and right padding|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_container" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Used as header|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_header" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Used as footer|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_footer" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-panel|||&gt; |||&gt;HTML container with 16px left and right padding and 16px top and bottom margin|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_panel" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Used to display a note|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_panel_note" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Used to display a quote|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_panel_quote" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-badge|||&gt; |||&gt;Circular badge|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_badges" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-tag|||&gt; |||&gt;Rectangular tag|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tags" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-ul|||&gt; |||&gt;Unordered list|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_ul" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-container|||&gt; |||&gt;Container for w3-display-&lt;em&gt;classes&lt;/em&gt; (enables positioning of elements    inside the container)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-block|||&gt; |||&gt;Class that can be used to define a full width for any element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-code|||&gt; |||&gt;Code container|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_code_container" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-codespan|||&gt; |||&gt;Inline code container (for code snippets)|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_codespan" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-content|||&gt; |||&gt;Container for fixed size centered content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_content&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-auto|||&gt; |||&gt;Container for responsive size centered content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_auto&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-stretch|||&gt; |||&gt;Class that removes right and left margins (especially useful for stretching padded rows (w3-row-padding))|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_stretch" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-table|||&gt; |||&gt;Container for an HTML table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-striped|||&gt; |||&gt;Striped table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_striped" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-border|||&gt; |||&gt;Bordered table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_border" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bordered|||&gt; |||&gt;Bordered lines|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_bordered" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-centered|||&gt; |||&gt;Centered table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_centered" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-hoverable|||&gt; |||&gt;Hoverable table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_hoverable" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-table-all|||&gt; |||&gt;All properties set|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_all" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-striped, w3-border, and w3-bordered|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_all" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With colored head|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_colored_head" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-responsive|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-tiny|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_tiny" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-small|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_small" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-large|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_large" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-xlarge|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_xlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-xxlarge|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_xxlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-xxxlarge|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_xxxlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With color|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_color" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;With w3-jumbo|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_jumbo" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-responsive|||&gt; |||&gt;Creates a responsive table|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tables_responsive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-card|||&gt; |||&gt;Same as w3-card-2|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_cards" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-card-2|||&gt; |||&gt;Container for any HTML content (2px bordered shadow)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_cards" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-card-4|||&gt; |||&gt;Container for any HTML content (4px bordered shadow)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_cards" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-row|||&gt; |||&gt;Container for one row of fluid responsive content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_row" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-row-padding|||&gt; |||&gt;Row where all columns have a default padding|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_row-padding" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-auto|||&gt; |||&gt;Container for responsive size centered content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_auto&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-stretch|||&gt; |||&gt;Class that removes right and left margins|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_stretch" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-half|||&gt; |||&gt;Half (1/2) screen column container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_half" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-third|||&gt; |||&gt;Third (1/3) screen column container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_third" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-twothird|||&gt; |||&gt;Two third (2/3) screen column container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_twothird" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-quarter|||&gt; |||&gt;Quarter (1/4) screen column container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_quarter" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-threequarter|||&gt; |||&gt;Three quarters (3/4) screen column container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_threequarter" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-col|||&gt; |||&gt;Column container for any HTML content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_grid" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-rest|||&gt; |||&gt;Occupies the rest of the column width|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_rest" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; |||&gt;l1 - l12|||&gt; |||&gt;Responsive sizes for large screens|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_grid" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;m1 - m12|||&gt; |||&gt;Responsive sizes for medium screens|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_grid" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;s1 - s12|||&gt; |||&gt;Responsive sizes for small screens|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_responsive_grid" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt;|||&gt; &amp;&amp;&amp; |||&gt;w3-hide-small|||&gt; |||&gt;Hide content on small screens (less than 601px)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_showhide&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; |||&gt;w3-hide-medium|||&gt; |||&gt;Hide content on medium screens|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_showhide&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; |||&gt;w3-hide-large|||&gt; |||&gt;Hide content on large screens (larger than 992px)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_showhide&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt;|||&gt; &lt;tr class="w3-white"&gt; |||&gt;w3-image|||&gt; |||&gt;Responsive image|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_image" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt;|||&gt; &amp;&amp;&amp; &lt;tr class="w3-white"&gt; |||&gt;w3-mobile|||&gt; |||&gt;Adds mobile-first responsiveness to any element.&lt;br/&gt;Displays    elements as block elements on mobile devices.|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_mobile" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cell-row|||&gt; |||&gt;Container for layout columns (cells).|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_layout_container" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cell|||&gt; |||&gt;Layout column (cell).|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_layout_container" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cell-top|||&gt; |||&gt;Aligns content at the top of a column (cell).|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_layout_align" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cell-middle|||&gt; |||&gt;Aligns content at the vertical middle of a column (cell).|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_layout_align" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cell-bottom|||&gt; |||&gt;Aligns content at the bottom of a column (cell).|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_layout_align" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bar|||&gt; |||&gt;Horizontal bar|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_bar" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bar-block|||&gt; |||&gt;Vertical bar|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_bar_block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bar-item|||&gt; |||&gt;Provides common style for bar items|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_bar_item" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-sidebar|||&gt; |||&gt;Side bar|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A side bar can contain all types of content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_content" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A side bar overlaying main content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_over" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A side bar overlaying all main content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_overall" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A side bar shifting main content to the right|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_shift" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A side bar with an overlay background|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_overlay" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;A Side bar on the right side|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-collapse|||&gt; |||&gt;Used together with w3-sidebar to create a fully automatic responsive side navigation. For this class to work, the page content must be within a "w3-main" class|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_hide&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-main|||&gt; |||&gt;Container for page content when using the w3-collapse class for responsive side navigations|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_hide&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Fully automatic right-sided responsive side navigation|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sidebar_hide_right&amp;amp;stacked=h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp;&lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; |||&gt;w3-dropdown-click|||&gt; |||&gt;Clickable dropdown element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_dropdown_click" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-dropdown-hover|||&gt; |||&gt;Hoverable dropdown element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_dropdown_hover" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Hoverable dropdown element (used in w3-bar)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_dropdown_menu2" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Hoverable dropdown element (used in w3-bar-block)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_dropdown_bar_block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Hoverable dropdown element (used in w3-sidebar)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_dropdown_menu3" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-button|||&gt; |||&gt;Rectangular button with grey background color on hover|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-btn|||&gt; |||&gt;Rectangular button with shadows on hover|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_btn" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-circle|||&gt; |||&gt;Can be used to create a circular button|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button_circular" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-ripple|||&gt; |||&gt;Rectangular button with ripple effect|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_btn_ripple" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Circular floating button with ripple effect|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button_circle_ripple" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bar|||&gt; |||&gt;Can be used to group elements (like buttons) in an horizontal bar|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button-bar" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-block|||&gt; |||&gt;Class that can be used to define a full width w3-button|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button_fullwidth" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Full width w3-btn|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_btn_fullwidth" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Full width circular button|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_button_circle_fullwidth" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-input|||&gt; |||&gt;Input elements|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Input form as a card|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_card" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Input elements (top labels)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_top" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Input elements (bottom labels)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_bottom" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-check|||&gt; |||&gt;Checkbox input type|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_check" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-radio|||&gt; |||&gt;Radio input type|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_radio" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-select|||&gt; |||&gt;Input select element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_select" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-input|||&gt; |||&gt;Animates the width of an input to 100%|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_animate" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-modal|||&gt; |||&gt;Modal container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_modal" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-modal-content|||&gt; |||&gt;Modal pop-up element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_modal" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-tooltip|||&gt; |||&gt;Tooltip element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tooltip" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-text|||&gt; |||&gt;Tooltip text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_tooltip_text" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-top|||&gt; |||&gt;Animates an element from the top -300px to 0px|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-top" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-left|||&gt; |||&gt;Animates an element from left -300px to 0px|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-bottom|||&gt; |||&gt;Animates an element from the bottom -300px to 0px|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-bottom" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-right|||&gt; |||&gt;Animates an element from right -300px to 0px|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-opacity|||&gt; |||&gt;Animates an element's opacity from 0 to 1|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-opacity" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-zoom|||&gt; |||&gt;Animates an element from 0 to 100% in size|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-zoom" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-fading|||&gt; |||&gt;Animates an element's opacity from 0 to 1 and 1 to 0 (fades in AND out)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_animate-fading" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-spin|||&gt; |||&gt;Spin an icon 360 degrees|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_spin" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Spin any element 360 degrees|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_spin_img" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-animate-input|||&gt; |||&gt;Animates the width of an input field to 100%|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_input_animate" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-tiny|||&gt; |||&gt;Specifies a font size of 10 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_tiny" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-small|||&gt; |||&gt;Specifies a font size of 12 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_small" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-large|||&gt; |||&gt;Specifies a font size of 18 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_large" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-xlarge|||&gt; |||&gt;Specifies a font size of 24 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_xlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-xxlarge|||&gt; |||&gt;Specifies a font size of 32 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_xxlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-xxxlarge|||&gt; |||&gt;Specifies a font size of 48 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_xxxlarge" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-jumbo|||&gt; |||&gt;Specifies a font size of 64 pixels|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_jumbo" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-wide|||&gt; |||&gt;Specifies a wider text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_wide" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-serif|||&gt; |||&gt;Changes the font to serif|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_serif" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-sans-serif|||&gt; |||&gt;Changes the font to sans-serif|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_sans-serif" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-cursive|||&gt; |||&gt;Changes the font to cursive|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_cursive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-monospace|||&gt; |||&gt;Changes the font to monospace|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_monospace" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-center|||&gt; |||&gt;Centered content|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_center" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-left|||&gt; |||&gt;Floats an element to the left (float: left)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-right|||&gt; |||&gt;Floats an element to the right (float: right)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-left-align|||&gt; |||&gt;Left aligned text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_left_align" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-right-align|||&gt; |||&gt;Right aligned text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_right_align" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-justify|||&gt; |||&gt;Right and left aligned text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_justify" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-block|||&gt; |||&gt;Class that can be used to define a full width for any element|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-circle|||&gt; |||&gt;Circled content |||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_circle" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-hide|||&gt; |||&gt;Hidden content (display:none)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_hide" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-show|||&gt; |||&gt;Show content (display:block)|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_show" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-show-block|||&gt; |||&gt;Alias of w3-show (display:block)|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_show-block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-show-inline-block|||&gt; |||&gt;Show content as inline-block (display:inline-block)|||&gt; |||&gt; &lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_show-inline-block" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-top|||&gt; |||&gt;Fixed content at the top of a page|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_topnav_fixed" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-bottom|||&gt; |||&gt;Fixed content at the bottom of a page|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_topnav_bottom" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-container|||&gt; |||&gt;Container for w3-display-&lt;em&gt;classes&lt;/em&gt; (position: relative)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-topleft|||&gt; |||&gt;Displays content at the top left corner of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-topright|||&gt; |||&gt;Displays content at the top right corner of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-bottomleft|||&gt; |||&gt;Displays content at the bottom left corner of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-bottomright|||&gt; |||&gt;Displays content at the bottom right corner of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-left|||&gt; |||&gt;Displays content to the left (middle left) of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-right|||&gt; |||&gt;Displays content to the right (middle right) of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-middle|||&gt; |||&gt;Displays content in the middle (center) of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-topmiddle|||&gt; |||&gt;Displays content at the top middle of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-bottommiddle|||&gt; |||&gt;Displays content at the bottom middle of the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-position|||&gt; |||&gt;Displays content at a specified position in the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-position" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-display-hover|||&gt; |||&gt;Displays content on hover inside the w3-display-container|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_display-hover" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-opacity|||&gt; |||&gt;Adds opacity/transparency to an element (opacity: 0.6)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_opacity_element" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;Add opacity/transparency to text|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_opacity" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-opacity-off|||&gt; |||&gt;Turns off opacity/transparency (opacity: 1)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_opacity-off" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-opacity-min|||&gt; |||&gt;Adds opacity/transparency to an element (opacity: 0.75)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_opacity_element" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-opacity-max|||&gt; |||&gt;Adds opacity/transparency to an element (opacity: 0.25)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_opacity_element" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-grayscale-min|||&gt; |||&gt;Adds a grayscale effect to an element (grayscale: 50%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_grayscale" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-grayscale|||&gt; |||&gt;Adds a grayscale effect to an element (grayscale: 75%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_grayscale" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-grayscale-max|||&gt; |||&gt;Adds a grayscale effect to an element (grayscale: 100%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_grayscale" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-sepia-min|||&gt; |||&gt;Adds a sepia effect to an element (sepia: 50%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_sepia" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-sepia|||&gt; |||&gt;Adds a sepia effect to an element (sepia: 75%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_sepia" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-sepia-max|||&gt; |||&gt;Adds a sepia effect to an element (sepia: 100%)|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_utilities_sepia" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-overlay|||&gt; |||&gt;Creates an overlay effect|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_overlay" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all w3-sans-serif"&gt; &amp;&amp;&amp; &lt;th style="width:166px"&gt;Class||| |||Defines||| &lt;th style="width:40px"&gt;||| &amp;&amp;&amp; &amp;&amp;&amp; ||| class="w3-red"&gt;w3-red|||&gt; |||&gt;Background color red|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryw3css_ref_colors_red" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; ||| class="w3-pink"&gt;w3-pink|||&gt; ||</t>
+    <t>http://www.w3schools.com//w3css/w3css_references.asp</t>
+  </si>
+  <si>
+    <t>[&lt;ul style="margin-top:0px;margin-bottom:0px"&gt; |||&lt;a href="#container"&gt;Container&lt;/a&gt;||| |||&lt;a href="#table"&gt;Table&lt;/a&gt;||| |||&lt;a href="#card"&gt;Card&lt;/a&gt;||| |||&lt;a href="#responsive"&gt;Responsive&lt;/a&gt;||| |||&lt;a href="#layout"&gt;Layout&lt;/a&gt;||| |||&lt;a href="#navigation"&gt;Navigation&lt;/a&gt;||| |||&lt;a href="#button"&gt;Button&lt;/a&gt;||| &amp;&amp;&amp;, &lt;ul style="margin-top:0px;margin-bottom:0px"&gt; |||&lt;a href="#input"&gt;Input&lt;/a&gt;||| |||&lt;a href="#modal"&gt;Modal&lt;/a&gt;||| |||&lt;a href="#animation"&gt;Animation&lt;/a&gt;||| |||&lt;a href="#font"&gt;Font and Text&lt;/a&gt;||| |||&lt;a href="#display"&gt;Display&lt;/a&gt;||| |||&lt;a href="#effect"&gt;Effect&lt;/a&gt;||| |||&lt;a href="#backgroundcolor"&gt;Background Color&lt;/a&gt;||| &amp;&amp;&amp;, &lt;ul style="margin-top:0px;margin-bottom:0px"&gt; |||&lt;a href="#textcolor"&gt;Text Color&lt;/a&gt;||| |||&lt;a href="#hover"&gt;Hover&lt;/a&gt;||| |||&lt;a href="#round"&gt;Round&lt;/a&gt;||| |||&lt;a href="#padding"&gt;Padding&lt;/a&gt;||| |||&lt;a href="#margin"&gt;Margin&lt;/a&gt;||| |||&lt;a href="#border"&gt;Border&lt;/a&gt;||| &amp;&amp;&amp;]</t>
   </si>
   <si>
     <t>Icons from Font Awesome, Bootstrap and Google</t>
@@ -1054,7 +1021,7 @@
     <t>['Show icons from:', '  Font Awesome 5', '  Font Awesome 4', '  Bootstrap', '  Google', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate" id="icontable_1"&gt; &amp;&amp;&amp; ||| style="width:15%;"&gt;&lt;span class="fa fa-500px"&gt;&lt;/span&gt;|||&gt; ||| style="width:55%;"&gt;fa fa-500px|||&gt; ||| style="width:20%;"&gt;&amp;amp;#xf26e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-500px" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-address-book"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-address-book|||&gt; |||&gt;&amp;amp;#xf2b9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-address-book" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-address-book-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-address-book-o|||&gt; |||&gt;&amp;amp;#xf2ba;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-address-book-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-address-card"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-address-card|||&gt; |||&gt;&amp;amp;#xf2bb;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-address-card" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-address-card-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-address-card-o|||&gt; |||&gt;&amp;amp;#xf2bc;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-address-card-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-adjust"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-adjust|||&gt; |||&gt;&amp;amp;#xf042;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-adjust" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-adn"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-adn|||&gt; |||&gt;&amp;amp;#xf170;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-adn" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-align-center"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-align-center|||&gt; |||&gt;&amp;amp;#xf037;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-align-center" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-align-justify"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-align-justify|||&gt; |||&gt;&amp;amp;#xf039;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-align-justify" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-align-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-align-left|||&gt; |||&gt;&amp;amp;#xf036;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-align-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-align-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-align-right|||&gt; |||&gt;&amp;amp;#xf038;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-align-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-amazon"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-amazon|||&gt; |||&gt;&amp;amp;#xf270;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-amazon" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-ambulance"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-ambulance|||&gt; |||&gt;&amp;amp;#xf0f9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-ambulance" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-american-sign-language-interpreting"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-american-sign-language-interpreting|||&gt; |||&gt;&amp;amp;#xf2a3;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-american-sign-language-interpreting" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-anchor"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-anchor|||&gt; |||&gt;&amp;amp;#xf13d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-anchor" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-android"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-android|||&gt; |||&gt;&amp;amp;#xf17b;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-android" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angellist"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angellist|||&gt; |||&gt;&amp;amp;#xf209;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angellist" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-double-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-double-down|||&gt; |||&gt;&amp;amp;#xf103;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-double-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-double-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-double-left|||&gt; |||&gt;&amp;amp;#xf100;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-double-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-double-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-double-right|||&gt; |||&gt;&amp;amp;#xf101;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-double-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-double-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-double-up|||&gt; |||&gt;&amp;amp;#xf102;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-double-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-down|||&gt; |||&gt;&amp;amp;#xf107;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-left|||&gt; |||&gt;&amp;amp;#xf104;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-right|||&gt; |||&gt;&amp;amp;#xf105;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-angle-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-angle-up|||&gt; |||&gt;&amp;amp;#xf106;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-angle-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-apple"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-apple|||&gt; |||&gt;&amp;amp;#xf179;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-apple" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-archive"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-archive|||&gt; |||&gt;&amp;amp;#xf187;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-archive" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-area-chart"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-area-chart|||&gt; |||&gt;&amp;amp;#xf1fe;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-area-chart" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-down|||&gt; |||&gt;&amp;amp;#xf0ab;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-left|||&gt; |||&gt;&amp;amp;#xf0a8;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-o-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-o-down|||&gt; |||&gt;&amp;amp;#xf01a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-o-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-o-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-o-left|||&gt; |||&gt;&amp;amp;#xf190;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-o-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-o-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-o-right|||&gt; |||&gt;&amp;amp;#xf18e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-o-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-o-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-o-up|||&gt; |||&gt;&amp;amp;#xf01b;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-o-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-right|||&gt; |||&gt;&amp;amp;#xf0a9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-circle-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-circle-up|||&gt; |||&gt;&amp;amp;#xf0aa;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-circle-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-down|||&gt; |||&gt;&amp;amp;#xf063;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-left|||&gt; |||&gt;&amp;amp;#xf060;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-right|||&gt; |||&gt;&amp;amp;#xf061;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrow-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrow-up|||&gt; |||&gt;&amp;amp;#xf062;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrow-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrows"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrows|||&gt; |||&gt;&amp;amp;#xf047;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrows" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrows-alt"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrows-alt|||&gt; |||&gt;&amp;amp;#xf0b2;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrows-alt" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrows-h"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrows-h|||&gt; |||&gt;&amp;amp;#xf07e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrows-h" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-arrows-v"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-arrows-v|||&gt; |||&gt;&amp;amp;#xf07d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-arrows-v" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-asl-interpreting"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-asl-interpreting|||&gt; |||&gt;&amp;amp;#xf2a3;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-asl-interpreting" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-assistive-listening-systems"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-assistive-listening-systems|||&gt; |||&gt;&amp;amp;#xf2a2;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-assistive-listening-systems" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-asterisk"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-asterisk|||&gt; |||&gt;&amp;amp;#xf069;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-asterisk" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-at"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-at|||&gt; |||&gt;&amp;amp;#xf1fa;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-at" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-audio-description"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-audio-description|||&gt; |||&gt;&amp;amp;#xf29e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-audio-description" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-automobile"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-automobile|||&gt; |||&gt;&amp;amp;#xf1b9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-automobile" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-backward"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-backward|||&gt; |||&gt;&amp;amp;#xf04a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-backward" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-balance-scale"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-balance-scale|||&gt; |||&gt;&amp;amp;#xf24e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-balance-scale" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-ban"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-ban|||&gt; |||&gt;&amp;amp;#xf05e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-ban" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bandcamp"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bandcamp|||&gt; |||&gt;&amp;amp;#xf2d5;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bandcamp" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bank"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bank|||&gt; |||&gt;&amp;amp;#xf19c;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bank" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bar-chart"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bar-chart|||&gt; |||&gt;&amp;amp;#xf080;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bar-chart" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bar-chart-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bar-chart-o|||&gt; |||&gt;&amp;amp;#xf080;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bar-chart-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-barcode"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-barcode|||&gt; |||&gt;&amp;amp;#xf02a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-barcode" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bars"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bars|||&gt; |||&gt;&amp;amp;#xf0c9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bars" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bath"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bath|||&gt; |||&gt;&amp;amp;#xf2cd;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bath" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bathtub"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bathtub|||&gt; |||&gt;&amp;amp;#xf2cd;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bathtub" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-0"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-0|||&gt; |||&gt;&amp;amp;#xf244;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-0" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-1"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-1|||&gt; |||&gt;&amp;amp;#xf243;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-1" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-2"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-2|||&gt; |||&gt;&amp;amp;#xf242;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-2" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-3"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-3|||&gt; |||&gt;&amp;amp;#xf241;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-3" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-4"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-4|||&gt; |||&gt;&amp;amp;#xf240;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-4" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-empty"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-empty|||&gt; |||&gt;&amp;amp;#xf244;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-empty" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-full"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-full|||&gt; |||&gt;&amp;amp;#xf240;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-full" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-half"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-half|||&gt; |||&gt;&amp;amp;#xf242;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-half" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-quarter"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-quarter|||&gt; |||&gt;&amp;amp;#xf243;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-quarter" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-battery-three-quarters"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-battery-three-quarters|||&gt; |||&gt;&amp;amp;#xf241;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-battery-three-quarters" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bed"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bed|||&gt; |||&gt;&amp;amp;#xf236;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bed" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-beer"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-beer|||&gt; |||&gt;&amp;amp;#xf0fc;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-beer" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-behance"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-behance|||&gt; |||&gt;&amp;amp;#xf1b4;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-behance" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-behance-square"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-behance-square|||&gt; |||&gt;&amp;amp;#xf1b5;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-behance-square" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bell"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bell|||&gt; |||&gt;&amp;amp;#xf0f3;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bell" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bell-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bell-o|||&gt; |||&gt;&amp;amp;#xf0a2;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bell-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bell-slash"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bell-slash|||&gt; |||&gt;&amp;amp;#xf1f6;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bell-slash" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bell-slash-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bell-slash-o|||&gt; |||&gt;&amp;amp;#xf1f7;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bell-slash-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bicycle"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bicycle|||&gt; |||&gt;&amp;amp;#xf206;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bicycle" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-binoculars"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-binoculars|||&gt; |||&gt;&amp;amp;#xf1e5;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-binoculars" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-birthday-cake"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-birthday-cake|||&gt; |||&gt;&amp;amp;#xf1fd;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-birthday-cake" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bitbucket"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bitbucket|||&gt; |||&gt;&amp;amp;#xf171;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bitbucket" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bitbucket-square"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bitbucket-square|||&gt; |||&gt;&amp;amp;#xf172;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bitbucket-square" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bitcoin"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bitcoin|||&gt; |||&gt;&amp;amp;#xf15a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bitcoin" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-black-tie"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-black-tie|||&gt; |||&gt;&amp;amp;#xf27e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-black-tie" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-blind"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-blind|||&gt; |||&gt;&amp;amp;#xf29d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-blind" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bluetooth"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bluetooth|||&gt; |||&gt;&amp;amp;#xf293;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bluetooth" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bluetooth-b"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bluetooth-b|||&gt; |||&gt;&amp;amp;#xf294;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bluetooth-b" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bold"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bold|||&gt; |||&gt;&amp;amp;#xf032;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bold" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bolt"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bolt|||&gt; |||&gt;&amp;amp;#xf0e7;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bolt" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bomb"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bomb|||&gt; |||&gt;&amp;amp;#xf1e2;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bomb" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-book"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-book|||&gt; |||&gt;&amp;amp;#xf02d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-book" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bookmark"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bookmark|||&gt; |||&gt;&amp;amp;#xf02e;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bookmark" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bookmark-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bookmark-o|||&gt; |||&gt;&amp;amp;#xf097;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bookmark-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-braille"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-braille|||&gt; |||&gt;&amp;amp;#xf2a1;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-braille" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-briefcase"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-briefcase|||&gt; |||&gt;&amp;amp;#xf0b1;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-briefcase" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-btc"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-btc|||&gt; |||&gt;&amp;amp;#xf15a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-btc" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bug"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bug|||&gt; |||&gt;&amp;amp;#xf188;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bug" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-building"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-building|||&gt; |||&gt;&amp;amp;#xf1ad;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-building" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-building-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-building-o|||&gt; |||&gt;&amp;amp;#xf0f7;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-building-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bullhorn"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bullhorn|||&gt; |||&gt;&amp;amp;#xf0a1;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bullhorn" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bullseye"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bullseye|||&gt; |||&gt;&amp;amp;#xf140;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bullseye" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-bus"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-bus|||&gt; |||&gt;&amp;amp;#xf207;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-bus" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-buysellads"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-buysellads|||&gt; |||&gt;&amp;amp;#xf20d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-buysellads" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cab"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cab|||&gt; |||&gt;&amp;amp;#xf1ba;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cab" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calculator"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calculator|||&gt; |||&gt;&amp;amp;#xf1ec;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calculator" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar|||&gt; |||&gt;&amp;amp;#xf073;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar-check-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar-check-o|||&gt; |||&gt;&amp;amp;#xf274;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar-check-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar-minus-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar-minus-o|||&gt; |||&gt;&amp;amp;#xf272;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar-minus-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar-o|||&gt; |||&gt;&amp;amp;#xf133;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar-plus-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar-plus-o|||&gt; |||&gt;&amp;amp;#xf271;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar-plus-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-calendar-times-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-calendar-times-o|||&gt; |||&gt;&amp;amp;#xf273;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-calendar-times-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-camera"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-camera|||&gt; |||&gt;&amp;amp;#xf030;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-camera" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-camera-retro"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-camera-retro|||&gt; |||&gt;&amp;amp;#xf083;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-camera-retro" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-car"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-car|||&gt; |||&gt;&amp;amp;#xf1b9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-car" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-down|||&gt; |||&gt;&amp;amp;#xf0d7;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-left|||&gt; |||&gt;&amp;amp;#xf0d9;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-right|||&gt; |||&gt;&amp;amp;#xf0da;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-square-o-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-square-o-down|||&gt; |||&gt;&amp;amp;#xf150;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-square-o-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-square-o-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-square-o-left|||&gt; |||&gt;&amp;amp;#xf191;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-square-o-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-square-o-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-square-o-right|||&gt; |||&gt;&amp;amp;#xf152;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-square-o-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-square-o-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-square-o-up|||&gt; |||&gt;&amp;amp;#xf151;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-square-o-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-caret-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-caret-up|||&gt; |||&gt;&amp;amp;#xf0d8;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-caret-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cart-arrow-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cart-arrow-down|||&gt; |||&gt;&amp;amp;#xf218;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cart-arrow-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cart-plus"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cart-plus|||&gt; |||&gt;&amp;amp;#xf217;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cart-plus" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc|||&gt; |||&gt;&amp;amp;#xf20a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-amex"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-amex|||&gt; |||&gt;&amp;amp;#xf1f3;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-amex" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-diners-club"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-diners-club|||&gt; |||&gt;&amp;amp;#xf24c;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-diners-club" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-discover"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-discover|||&gt; |||&gt;&amp;amp;#xf1f2;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-discover" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-jcb"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-jcb|||&gt; |||&gt;&amp;amp;#xf24b;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-jcb" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-mastercard"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-mastercard|||&gt; |||&gt;&amp;amp;#xf1f1;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-mastercard" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-paypal"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-paypal|||&gt; |||&gt;&amp;amp;#xf1f4;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-paypal" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-stripe"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-stripe|||&gt; |||&gt;&amp;amp;#xf1f5;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-stripe" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-cc-visa"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-cc-visa|||&gt; |||&gt;&amp;amp;#xf1f0;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-cc-visa" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-certificate"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-certificate|||&gt; |||&gt;&amp;amp;#xf0a3;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-certificate" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chain"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chain|||&gt; |||&gt;&amp;amp;#xf0c1;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chain" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chain-broken"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chain-broken|||&gt; |||&gt;&amp;amp;#xf127;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chain-broken" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-check"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-check|||&gt; |||&gt;&amp;amp;#xf00c;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-check" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-check-circle"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-check-circle|||&gt; |||&gt;&amp;amp;#xf058;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-check-circle" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-check-circle-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-check-circle-o|||&gt; |||&gt;&amp;amp;#xf05d;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-check-circle-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-check-square"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-check-square|||&gt; |||&gt;&amp;amp;#xf14a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-check-square" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-check-square-o"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-check-square-o|||&gt; |||&gt;&amp;amp;#xf046;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-check-square-o" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-circle-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-circle-down|||&gt; |||&gt;&amp;amp;#xf13a;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-circle-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-circle-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-circle-left|||&gt; |||&gt;&amp;amp;#xf137;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-circle-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-circle-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-circle-right|||&gt; |||&gt;&amp;amp;#xf138;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-circle-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-circle-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-circle-up|||&gt; |||&gt;&amp;amp;#xf139;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-circle-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-down"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-down|||&gt; |||&gt;&amp;amp;#xf078;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-down" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-left"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-left|||&gt; |||&gt;&amp;amp;#xf053;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-left" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-right"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-right|||&gt; |||&gt;&amp;amp;#xf054;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-right" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chevron-up"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chevron-up|||&gt; |||&gt;&amp;amp;#xf077;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chevron-up" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-child"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-child|||&gt; |||&gt;&amp;amp;#xf1ae;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-child" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;span class="fa fa-chrome"&gt;&lt;/span&gt;|||&gt; |||&gt;fa fa-chrome|||&gt; |||&gt;&amp;amp;#xf268;|||&gt; |||&gt;&lt;a class="w3-btn btnsmall" href="tryit.asp?filename=tryicons_fa-chrome" target="_b</t>
+    <t>http://www.w3schools.com//icons/icons_reference.asp</t>
   </si>
   <si>
     <t>Sass String Functions</t>
@@ -1063,9 +1030,6 @@
     <t>['The string functions are used to manipulate and get information about \nstrings.', 'Sass strings are 1-based. The first character in a string is at index 1, not \n0.', 'The following table lists all string functions in Sass:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||Function||| |||Description &amp;amp; Example||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;quote(&lt;em&gt;string&lt;/em&gt;)|||&gt; |||&gt;Adds quotes to &lt;em&gt;string&lt;/em&gt;, and returns the result.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;quote(Hello world!)&lt;br/&gt;Result: "Hello world!"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;str-index(&lt;em&gt;string&lt;/em&gt;,&lt;em&gt; substring&lt;/em&gt;)|||&gt; |||&gt;Returns the index of the first occurrence of the &lt;em&gt;substring&lt;/em&gt; within      &lt;em&gt;string&lt;/em&gt;.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;str-index("Hello world!", "H")&lt;br/&gt;Result: 1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;str-insert(&lt;em&gt;string&lt;/em&gt;, &lt;em&gt;insert&lt;/em&gt;, &lt;em&gt;index&lt;/em&gt;)|||&gt; |||&gt;Returns &lt;em&gt;string&lt;/em&gt; with &lt;em&gt;insert&lt;/em&gt; inserted at the specified      &lt;em&gt;index&lt;/em&gt; position.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;str-insert("Hello world!", " wonderful", 6)&lt;br/&gt;Result: "Hello      wonderful world!"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;str-length(&lt;em&gt;string&lt;/em&gt;)|||&gt; |||&gt;Returns the length of &lt;em&gt;string&lt;/em&gt; (in characters).&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;str-length("Hello world!")&lt;br/&gt;Result: 12|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;str-slice(&lt;em&gt;string&lt;/em&gt;, &lt;em&gt;start&lt;/em&gt;, &lt;em&gt;end&lt;/em&gt;)|||&gt; |||&gt;Extracts characters from &lt;em&gt;string&lt;/em&gt;; start at &lt;em&gt;start&lt;/em&gt;      and end at &lt;em&gt;end&lt;/em&gt;, and returns the slice.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;str-slice("Hello world!", 2,      5)&lt;br/&gt;Result: "ello"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;to-lower-case(&lt;em&gt;string&lt;/em&gt;)|||&gt; |||&gt;Returns a copy of &lt;em&gt;string&lt;/em&gt; converted to lower case.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;to-lower-case("Hello      World!")&lt;br/&gt;Result: "hello world!"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;to-upper-case(&lt;em&gt;string&lt;/em&gt;)|||&gt; |||&gt;Returns a copy of &lt;em&gt;string&lt;/em&gt; converted to upper case.&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;to-upper-case("Hello      World!")&lt;br/&gt;Result: "HELLO WORLD!"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;unique-id()|||&gt; |||&gt;Returns a unique randomly generated unquoted string (guaranteed to be      unique within the current sass session).&lt;br/&gt;&lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;unique-id()&lt;br/&gt;Result:      tyghefnsv|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;unquote(&lt;em&gt;string&lt;/em&gt;)|||&gt; |||&gt;Removes quotes around &lt;em&gt;string&lt;/em&gt; (if any), and returns the result.&lt;br/&gt; &lt;br/&gt; &lt;strong&gt;Example:&lt;/strong&gt;&lt;br/&gt;unquote("Hello world!")&lt;br/&gt;Result: Hello world!|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//sass/sass_functions_string.php</t>
   </si>
   <si>
@@ -1093,9 +1057,6 @@
     <t>['AngularJS modifies the default behavior of some HTML elements.', 'Filters are explained in Angular Filters.', 'Validation is explained in Angular Validation.', 'The Global API is explained in Angular API.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Directive||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-app.asp"&gt;ng-app&lt;/a&gt;|||&gt; |||&gt;Defines the root element of an application.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-bind.asp"&gt;ng-bind&lt;/a&gt;|||&gt; |||&gt;Binds the content of an HTML element to application data.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-bind-html.asp"&gt;ng-bind-html&lt;/a&gt;|||&gt; |||&gt;Binds the innerHTML of an HTML element to application data, and also removes dangerous code from the HTML string.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-bind-template.asp"&gt;ng-bind-template&lt;/a&gt;|||&gt; |||&gt;Specifies that the text content should be replaced with a template.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-blur.asp"&gt;ng-blur&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on blur events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-change.asp"&gt;ng-change&lt;/a&gt;|||&gt; |||&gt;Specifies an expression to evaluate when content is being changed by the user.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-checked.asp"&gt;ng-checked&lt;/a&gt;|||&gt; |||&gt;Specifies if an element is checked or not.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-class.asp"&gt;ng-class&lt;/a&gt;|||&gt; |||&gt;Specifies CSS classes on HTML elements.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-class-even.asp"&gt;ng-class-even&lt;/a&gt;|||&gt; |||&gt;Same as ng-class, but will only take effect on even rows.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-class-odd.asp"&gt;ng-class-odd&lt;/a&gt;|||&gt; |||&gt;Same as ng-class, but will only take effect on odd rows.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-click.asp"&gt;ng-click&lt;/a&gt;|||&gt; |||&gt;Specifies an expression to evaluate when an element is being clicked.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-cloak.asp"&gt;ng-cloak&lt;/a&gt;|||&gt; |||&gt;Prevents flickering when your application is being loaded.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-controller.asp"&gt;ng-controller&lt;/a&gt;|||&gt; |||&gt;Defines the controller object for an application.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-copy.asp"&gt;ng-copy&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on copy events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-csp.asp"&gt;ng-csp&lt;/a&gt;|||&gt; |||&gt;Changes the content security policy.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-cut.asp"&gt;ng-cut&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on cut events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-dblclick.asp"&gt;ng-dblclick&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on double-click events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-disabled.asp"&gt;ng-disabled&lt;/a&gt;|||&gt; |||&gt;Specifies if an element is disabled or not.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-focus.asp"&gt;ng-focus&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on focus events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ng-form|||&gt; |||&gt;Specifies an HTML form to inherit controls from.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-hide.asp"&gt;ng-hide&lt;/a&gt;|||&gt; |||&gt;Hides or shows HTML elements.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-href.asp"&gt;ng-href&lt;/a&gt;|||&gt; |||&gt;Specifies a url for the &amp;lt;a&amp;gt; element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-if.asp"&gt;ng-if&lt;/a&gt;|||&gt; |||&gt;Removes the HTML element if a condition is false.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-include.asp"&gt;ng-include&lt;/a&gt;|||&gt; |||&gt;Includes HTML in an application.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-init.asp"&gt;ng-init&lt;/a&gt;|||&gt; |||&gt;Defines initial values for an application.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ng-jq|||&gt; |||&gt;Specifies that the application must use a library, like jQuery.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-keydown.asp"&gt;ng-keydown&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on keydown events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-keypress.asp"&gt;ng-keypress&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on keypress events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-keyup.asp"&gt;ng-keyup&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on keyup events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-list.asp"&gt;ng-list&lt;/a&gt;|||&gt; |||&gt;Converts text into a list (array).|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-maxlength.asp"&gt;ng-maxlength&lt;/a&gt;|||&gt; |||&gt;Specifies the maximum number of characters allowed in the input field.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-minlength.asp"&gt;ng-minlength&lt;/a&gt;|||&gt; |||&gt;Specifies the minimum number of characters allowed in the input field.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-model.asp"&gt;ng-model&lt;/a&gt;|||&gt; |||&gt;Binds the value of HTML controls to application data.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-model-options.asp"&gt;ng-model-options&lt;/a&gt;|||&gt; |||&gt;Specifies how updates in the model are done.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mousedown.asp"&gt;ng-mousedown&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mousedown events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mouseenter.asp"&gt;ng-mouseenter&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mouseenter events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mouseleave.asp"&gt;ng-mouseleave&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mouseleave events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mousemove.asp"&gt;ng-mousemove&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mousemove events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mouseover.asp"&gt;ng-mouseover&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mouseover events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-mouseup.asp"&gt;ng-mouseup&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on mouseup events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-non-bindable.asp"&gt;ng-non-bindable&lt;/a&gt;|||&gt; |||&gt;Specifies that no data binding can happen in this element, or its children.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-open.asp"&gt;ng-open&lt;/a&gt;|||&gt; |||&gt;Specifies the open attribute of an element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-options.asp"&gt;ng-options&lt;/a&gt;|||&gt; |||&gt;Specifies &amp;lt;options&amp;gt; in a &amp;lt;select&amp;gt; list.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-paste.asp"&gt;ng-paste&lt;/a&gt;|||&gt; |||&gt;Specifies a behavior on paste events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ng-pluralize|||&gt; |||&gt;Specifies a message to display according to en-us localization rules.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-readonly.asp"&gt;ng-readonly&lt;/a&gt;|||&gt; |||&gt;Specifies the readonly attribute of an element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-repeat.asp"&gt;ng-repeat&lt;/a&gt;|||&gt; |||&gt;Defines a template for each data in a collection.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-required.asp"&gt;ng-required&lt;/a&gt;|||&gt; |||&gt;Specifies the required attribute of an element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-selected.asp"&gt;ng-selected&lt;/a&gt;|||&gt; |||&gt;Specifies the selected attribute of an element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-show.asp"&gt;ng-show&lt;/a&gt;|||&gt; |||&gt;Shows or hides HTML elements.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-src.asp"&gt;ng-src&lt;/a&gt;|||&gt; |||&gt;Specifies the src attribute for the &amp;lt;img&amp;gt; element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-srcset.asp"&gt;ng-srcset&lt;/a&gt;|||&gt; |||&gt;Specifies the srcset attribute for the &amp;lt;img&amp;gt; element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-style.asp"&gt;ng-style&lt;/a&gt;|||&gt; |||&gt;Specifies the style attribute for an element.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-submit.asp"&gt;ng-submit&lt;/a&gt;|||&gt; |||&gt;Specifies expressions to run on onsubmit events.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-switch.asp"&gt;ng-switch&lt;/a&gt;|||&gt; |||&gt;Specifies a condition that will be used to show/hide child elements.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ng-transclude|||&gt; |||&gt;Specifies a point to insert transcluded elements.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_ng-value.asp"&gt;ng-value&lt;/a&gt;|||&gt; |||&gt;Specifies the value of an input element.|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Element||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_a.asp"&gt;a&lt;/a&gt;|||&gt; |||&gt;AngularJS modifies the &amp;lt;a&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_form.asp"&gt;form&lt;/a&gt;|||&gt; |||&gt;AngularJS modifies the &amp;lt;form&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_input.asp"&gt;input&lt;/a&gt;|||&gt; |||&gt;AngularJS modifies the &amp;lt;input&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;script|||&gt; |||&gt;AngularJS modifies the &amp;lt;script&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;select|||&gt; |||&gt;AngularJS modifies the &amp;lt;select&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_textarea.asp"&gt;textarea&lt;/a&gt;|||&gt; |||&gt;AngularJS modifies the &amp;lt;textarea&amp;gt; element's default behaviors.|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Filter||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_currency.asp"&gt;currency&lt;/a&gt;|||&gt; |||&gt;Format a number to a currency format.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_date.asp"&gt;date&lt;/a&gt;|||&gt; |||&gt;Format a date to a specified format.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_filter.asp"&gt;filter&lt;/a&gt;|||&gt; |||&gt;Select a subset of items from an array.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_json.asp"&gt;json&lt;/a&gt;|||&gt; |||&gt;Format an object to a JSON string.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_limitto.asp"&gt;limitTo&lt;/a&gt;|||&gt; |||&gt;Limits an array, or a string, into a specified number of elements/characters.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_lowercase.asp"&gt;lowercase&lt;/a&gt;|||&gt; |||&gt;Format a string to lower case.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_number.asp"&gt;number&lt;/a&gt;|||&gt; |||&gt;Format a number to a string.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_orderby.asp"&gt;orderBy&lt;/a&gt;|||&gt; |||&gt;Orders an array by an expression.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ng_filter_uppercase.asp"&gt;uppercase&lt;/a&gt;|||&gt; |||&gt;Format a string to upper case.|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;API||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.lowercase()|||&gt; |||&gt;Converts a string to lowercase|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.uppercase()|||&gt; |||&gt;Converts a string to uppercase|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.copy()|||&gt; |||&gt;Creates a deep copy of an object or an array|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.forEach()|||&gt; |||&gt;Executes a function for each element in an object or array|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;API||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isArray()|||&gt; |||&gt;Returns true if the reference is an array|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isDate()|||&gt; |||&gt;Returns true if the reference is a date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isDefined()|||&gt; |||&gt;Returns true if the reference is defined|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isElement()|||&gt; |||&gt;Returns true if the reference is a DOM element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isFunction()|||&gt; |||&gt;Returns true if the reference is a function|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isNumber()|||&gt; |||&gt;Returns true if the reference is a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isObject()|||&gt; |||&gt;Returns true if the reference is an object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isString()|||&gt; |||&gt;Returns true if the reference is a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.isUndefined()|||&gt; |||&gt;Returns true if the reference is undefined|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.equals()|||&gt; |||&gt;Returns true if two references are equal|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;API||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.fromJson()|||&gt; |||&gt;Takes a JSON string and returns an JavaScript object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.toJson()|||&gt; |||&gt;Takes a JavaScript object and returns a JSON string|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;API||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.bootstrap()|||&gt; |||&gt;Starts AngularJS manually|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.element()|||&gt; |||&gt;Wraps an HTML element as an jQuery element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;angular.module()|||&gt; |||&gt;Creates, registers, or retrieves an AngularJS module|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//angular/angular_ref_directives.asp</t>
   </si>
   <si>
@@ -1108,9 +1069,6 @@
     <t>['AppML messages are explained in the chapter about\nAppML messages.', 'You have to be logged in as a member of the "admin" group, to access this \napplication:', 'You can add your own private data to the model.', 'This example suggests restrictions to data:', 'Model data can be used by server applications, and by your AppML controller.', 'This example uses model data to validate input:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th width="25%"&gt;Attribute||| |||Description||| &lt;th width="25%"&gt;Explained||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;appml-controller|||&gt; |||&gt;Defines an AppML controller|||&gt; |||&gt;&lt;a href="appml_controllers.asp"&gt;AppML Controllers&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;appml-data|||&gt; |||&gt;Defines the data source for an application|||&gt; |||&gt;&lt;a href="appml_data.asp"&gt;AppML Data&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;appml-include-html|||&gt; |||&gt;Defines HTML to be included|||&gt; |||&gt;&lt;a href="appml_includes.asp"&gt;AppML Includes&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;appml-repeat|||&gt; |||&gt;Defines an HTML element to be repeated|||&gt; |||&gt;&lt;a href="appml_howto.asp"&gt;AppML Howto&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th width="25%"&gt;Message||| |||Sent||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ready|||&gt; |||&gt;After AppML is initiated, and ready to load data.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;loaded|||&gt; |||&gt;After AppML is fully loaded, ready to display data.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;display|||&gt; |||&gt;Before AppML displays a data item.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;done|||&gt; |||&gt;After AppML is done (finished displaying).|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;submit|||&gt; |||&gt;Before AppML submits data.|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;error|||&gt; |||&gt;After AppML has encountered an error.|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Element||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"data"|||&gt; |||&gt;Defines a flat file source for the model|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"database"|||&gt; |||&gt;Defines a database source for the model|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"filteritems"|||&gt; |||&gt;Defines filter restrictions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"rowsperpage"|||&gt; |||&gt;Defines number of rows to be fetched per page|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"security"|||&gt; |||&gt;Defines the security for the model|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"sortitems"|||&gt; |||&gt;Defines sorting restrictions|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//appml/appml_reference.asp</t>
   </si>
   <si>
@@ -1120,9 +1078,6 @@
     <t>W3.JS References</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all"&gt; &amp;&amp;&amp; |||Function||| |||Description||| &lt;th class="w3-right"&gt;Example||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.hide|||&gt; |||&gt;Hides HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_hide_show" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.show|||&gt; |||&gt;Shows HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_hide_show" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.toggleShow|||&gt; |||&gt;Toggles between hiding and showing HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_toggle_show" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.toggleClass|||&gt; |||&gt;Toggles the class of HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_toggle_class" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.addClass|||&gt; |||&gt;Adds one or multiple classes to HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_add_class" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.addStyle|||&gt; |||&gt;Adds style to HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_add_style" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.removeClass|||&gt; |||&gt;Removes one or multiple classes from HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_remove_class" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.filterHTML|||&gt; |||&gt;Filters the display of HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_filter_html" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.sortHTML|||&gt; |||&gt;Sorts the display of HTML elements|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_sort_html" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.slideshow|||&gt; |||&gt;Make HTML elements display as a slideshow|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_slideshow" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.displayObject|||&gt; |||&gt;Displays JavaScript objects in HTML|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_display_object" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.includeHTML|||&gt; |||&gt;Displays HTML in HTML|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_include_html" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.getHttpObject|||&gt; |||&gt;Reads JSON data from a server|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_http" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3.getHttpData|||&gt; |||&gt;Reads data from a server|||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all"&gt; &amp;&amp;&amp; |||Attribute||| |||Description||| &lt;th class="w3-right"&gt;Example||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;{{ }}|||&gt; |||&gt;Defines where to display data|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_display_object" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-repeat|||&gt; |||&gt;Defines where to repeat data|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_repeat" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w3-include-HTML|||&gt; |||&gt;Defines where to include HTML|||&gt; |||&gt;&lt;a class="ws-btn btnsmall" href="tryit.asp?filename=tryw3js_ref_include_html" target="_blank"&gt;Try it&lt;/a&gt;|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//w3js/w3js_references.asp</t>
   </si>
   <si>
@@ -1141,9 +1096,6 @@
     <t>['Java has a set of keywords that are reserved words that cannot be used as \nvariables, methods, classes, or any other identifiers:', 'Note: true, false, and null are not keywords, but they are literals and reserved words that cannot be used as identifiers.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Keyword||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_abstract.asp"&gt;abstract&lt;/a&gt;|||&gt; |||&gt;A non-access modifier. Used for classes and methods: An abstract class cannot be used to create objects (to access it, it must be inherited from another class). An abstract method can only be used in an abstract class, and it does not have a body. The body is provided by the subclass (inherited from)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;assert|||&gt; |||&gt;For debugging|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_boolean.asp"&gt;boolean&lt;/a&gt;|||&gt; |||&gt;A data type that can only store true and false values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_break.asp"&gt;break&lt;/a&gt;|||&gt; |||&gt;Breaks out of a loop or a switch block|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_byte.asp"&gt;byte&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from -128 and 127|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_case.asp"&gt;case&lt;/a&gt;|||&gt; |||&gt;Marks a block of code in switch statements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_catch.asp"&gt;catch&lt;/a&gt;|||&gt; |||&gt;Catches exceptions generated by try statements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_char.asp"&gt;char&lt;/a&gt;|||&gt; |||&gt;A data type that is used to store a single character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_class.asp"&gt;class&lt;/a&gt;|||&gt; |||&gt;Defines a class|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_break.asp"&gt;continue&lt;/a&gt;|||&gt; |||&gt;Continues to the next iteration of a loop|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;const|||&gt; |||&gt;Defines a constant. &lt;span class="deprecated"&gt;Not in use&lt;/span&gt; - use &lt;a href="ref_keyword_final.asp"&gt;final&lt;/a&gt; instead|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_default.asp"&gt;default&lt;/a&gt;|||&gt; |||&gt;Specifies the default block of code in a switch statement|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_do.asp"&gt;do&lt;/a&gt;|||&gt; |||&gt;Used together with while to create a do-while loop|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_double.asp"&gt;double&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from 1.7e−308 to 1.7e+308|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_else.asp"&gt;else&lt;/a&gt;|||&gt; |||&gt;Used in conditional statements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_enum.asp"&gt;enum&lt;/a&gt;|||&gt; |||&gt;Declares an enumerated (unchangeable) type|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;exports|||&gt; |||&gt;Exports a package with a module. New in Java 9|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_extends.asp"&gt;extends&lt;/a&gt;|||&gt; |||&gt;Extends a class (indicates that a class is inherited from another class)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_final.asp"&gt;final&lt;/a&gt;|||&gt; |||&gt;A non-access modifier used for classes, attributes and methods, which makes them non-changeable (impossible to inherit or override)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_finally.asp"&gt;finally&lt;/a&gt;|||&gt; |||&gt;Used with exceptions, a block of code that will be executed no matter if there is an exception or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_float.asp"&gt;float&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from 3.4e−038 to 3.4e+038|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_for.asp"&gt;for&lt;/a&gt;|||&gt; |||&gt;Create a for loop|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;goto|||&gt; |||&gt;&lt;span class="deprecated"&gt;Not in use, and has no function&lt;/span&gt;|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_if.asp"&gt;if&lt;/a&gt;|||&gt; |||&gt;Makes a conditional statement|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_implements.asp"&gt;implements&lt;/a&gt;|||&gt; |||&gt;Implements an interface|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_import.asp"&gt;import&lt;/a&gt;|||&gt; |||&gt;Used to import a package, class or interface|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_instanceof.asp"&gt;instanceof&lt;/a&gt;|||&gt; |||&gt;Checks whether an object is an instance of a specific class or an interface|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_int.asp"&gt;int&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from -2147483648 to 2147483647|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_interface.asp"&gt;interface&lt;/a&gt;|||&gt; |||&gt;Used to declare a special type of class that only contains abstract methods|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_long.asp"&gt;long&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from -9223372036854775808 to 9223372036854775808|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;module|||&gt; |||&gt;Declares a module. New in Java 9|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;native|||&gt; |||&gt;Specifies that a method is not implemented in the same Java source file (but in another language)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_new.asp"&gt;new&lt;/a&gt;|||&gt; |||&gt;Creates new objects|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_package.asp"&gt;package&lt;/a&gt;|||&gt; |||&gt;Declares a package|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_private.asp"&gt;private&lt;/a&gt;|||&gt; |||&gt;An access modifier used for attributes, methods and constructors, making them only accessible within the declared class|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_protected.asp"&gt;protected&lt;/a&gt;|||&gt; |||&gt;An access modifier used for attributes, methods and constructors, making them accessible in the same package and subclasses|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_public.asp"&gt;public&lt;/a&gt;|||&gt; |||&gt;An access modifier used for classes, attributes, methods and constructors, making them accessible by any other class|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;requires|||&gt; |||&gt;Specifies required libraries inside a module. New in Java 9|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_return.asp"&gt;return&lt;/a&gt;|||&gt; |||&gt;Finished the execution of a method, and can be used to return a value from a method|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_short.asp"&gt;short&lt;/a&gt;|||&gt; |||&gt;A data type that can store whole numbers from -32768 to 32767|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_static.asp"&gt;static&lt;/a&gt;|||&gt; |||&gt;A non-access modifier used for methods and attributes. Static methods/attributes can be accessed without creating an object of a class|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;strictfp|||&gt; |||&gt;Restrict the precision and rounding of floating point calculations|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_super.asp"&gt;super&lt;/a&gt;|||&gt; |||&gt;Refers to superclass (parent) objects|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_switch.asp"&gt;switch&lt;/a&gt;|||&gt; |||&gt;Selects one of many code blocks to be executed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;synchronized|||&gt; |||&gt;A non-access modifier, which specifies that methods can only be accessed by one thread at a time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_this.asp"&gt;this&lt;/a&gt;|||&gt; |||&gt;Refers to the current object in a method or constructor|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_throw.asp"&gt;throw&lt;/a&gt;|||&gt; |||&gt;Creates a custom error|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_throws.asp"&gt;throws&lt;/a&gt;|||&gt; |||&gt;Indicates what exceptions may be thrown by a method|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;transient|||&gt; |||&gt;A non-accesss modifier, which specifies that an attribute is not part of an object's persistent state|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_try.asp"&gt;try&lt;/a&gt;|||&gt; |||&gt;Creates a try...catch statement|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;var|||&gt; |||&gt;Declares a variable. New in Java 10|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_void.asp"&gt;void&lt;/a&gt;|||&gt; |||&gt;Specifies that a method should not have a return value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;volatile|||&gt; |||&gt;Indicates that an attribute is not cached thread-locally, and is always read from the "main memory"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_keyword_while.asp"&gt;while&lt;/a&gt;|||&gt; |||&gt;Creates a while loop|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//java/java_ref_keywords.asp</t>
   </si>
   <si>
@@ -1153,9 +1105,6 @@
     <t>['This SQL keywords reference contains the reserved words in SQL.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Keyword||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_add.asp"&gt;ADD&lt;/a&gt;|||&gt; |||&gt;Adds a column in an existing table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_add_constraint.asp"&gt;ADD CONSTRAINT&lt;/a&gt;|||&gt; |||&gt;Adds a constraint after a table is already created|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_all.asp"&gt;ALL&lt;/a&gt;|||&gt; |||&gt;Returns true if all of the subquery values meet the  condition|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_alter.asp"&gt;ALTER&lt;/a&gt;|||&gt; |||&gt;Adds, deletes, or modifies columns in a table, or changes the data  type of a column in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_alter_column.asp"&gt;ALTER COLUMN&lt;/a&gt;|||&gt; |||&gt;Changes the data type of a column in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_alter_table.asp"&gt;ALTER TABLE&lt;/a&gt;|||&gt; |||&gt;Adds, deletes, or modifies columns in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_and.asp"&gt;AND&lt;/a&gt;|||&gt; |||&gt;Only includes rows where both conditions is true|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_any.asp"&gt;ANY&lt;/a&gt;|||&gt; |||&gt;Returns true if any of the subquery values meet the  condition|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_as.asp"&gt;AS&lt;/a&gt;|||&gt; |||&gt;Renames a column or table with an alias|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_asc.asp"&gt;ASC&lt;/a&gt;|||&gt; |||&gt;Sorts the result set in ascending order|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_backup_database.asp"&gt;BACKUP DATABASE&lt;/a&gt;|||&gt; |||&gt;Creates a back up of an existing database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_between.asp"&gt;BETWEEN&lt;/a&gt;|||&gt; |||&gt;Selects values within a given range|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_case.asp"&gt;CASE&lt;/a&gt;|||&gt; |||&gt;Creates different outputs based on conditions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_check.asp"&gt;CHECK&lt;/a&gt;|||&gt; |||&gt;A constraint that limits the value that can be placed in a  column|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_column.asp"&gt;COLUMN&lt;/a&gt;|||&gt; |||&gt;Changes the data type of a column or deletes a column in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_constraint.asp"&gt;CONSTRAINT&lt;/a&gt;|||&gt; |||&gt;Adds or deletes a constraint|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create.asp"&gt;CREATE&lt;/a&gt;|||&gt; |||&gt;Creates a database, index, view, table, or procedure|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_database.asp"&gt;CREATE DATABASE&lt;/a&gt;|||&gt; |||&gt;Creates a new SQL database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_index.asp"&gt;CREATE INDEX&lt;/a&gt;|||&gt; |||&gt;Creates an index on a table (allows duplicate values)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_or_replace_view.asp"&gt;CREATE OR REPLACE VIEW&lt;/a&gt;|||&gt; |||&gt;Updates a view|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_table.asp"&gt;CREATE TABLE&lt;/a&gt;|||&gt; |||&gt;Creates a new table in the database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_procedure.asp"&gt;CREATE PROCEDURE&lt;/a&gt;|||&gt; |||&gt;Creates a stored procedure|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_unique_index.asp"&gt;CREATE UNIQUE INDEX&lt;/a&gt;|||&gt; |||&gt;Creates a unique index on a table (no duplicate values)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_create_view.asp"&gt;CREATE VIEW&lt;/a&gt;|||&gt; |||&gt;Creates a view based on the result set of a SELECT statement|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_database.asp"&gt;DATABASE&lt;/a&gt;|||&gt; |||&gt;Creates or deletes an SQL database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_default.asp"&gt;DEFAULT&lt;/a&gt;|||&gt; |||&gt;A constraint that provides a default value for a column|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_delete.asp"&gt;DELETE&lt;/a&gt;|||&gt; |||&gt;Deletes rows from a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_desc.asp"&gt;DESC&lt;/a&gt;|||&gt; |||&gt;Sorts the result set in descending order|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_distinct.asp"&gt;DISTINCT&lt;/a&gt;|||&gt; |||&gt;Selects only distinct (different) values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop.asp"&gt;DROP&lt;/a&gt;|||&gt; |||&gt;Deletes a column, constraint, database, index, table, or view|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_column.asp"&gt;DROP COLUMN&lt;/a&gt;|||&gt; |||&gt;Deletes a column in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_constraint.asp"&gt;DROP CONSTRAINT&lt;/a&gt;|||&gt; |||&gt;Deletes a UNIQUE, PRIMARY KEY, FOREIGN KEY, or CHECK constraint|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_database.asp"&gt;DROP DATABASE&lt;/a&gt;|||&gt; |||&gt;Deletes an existing SQL database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_default.asp"&gt;DROP DEFAULT&lt;/a&gt;|||&gt; |||&gt;Deletes a DEFAULT constraint|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_index.asp"&gt;DROP INDEX&lt;/a&gt;|||&gt; |||&gt;Deletes an index in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_table.asp"&gt;DROP TABLE&lt;/a&gt;|||&gt; |||&gt;Deletes an existing table in the database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_drop_view.asp"&gt;DROP VIEW&lt;/a&gt;|||&gt; |||&gt;Deletes a view|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_exec.asp"&gt;EXEC&lt;/a&gt;|||&gt; |||&gt;Executes a stored procedure|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_exists.asp"&gt;EXISTS&lt;/a&gt;|||&gt; |||&gt;Tests for the existence of any record in a subquery|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_foreign_key.asp"&gt;FOREIGN KEY&lt;/a&gt;|||&gt; |||&gt;A constraint that is a key used to link two tables together|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_from.asp"&gt;FROM&lt;/a&gt;|||&gt; |||&gt;Specifies which table to select or delete data from|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_full_outer_join.asp"&gt;FULL OUTER JOIN&lt;/a&gt;|||&gt; |||&gt;Returns all rows when there is a match in either left table or right table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_group_by.asp"&gt;GROUP BY&lt;/a&gt;|||&gt; |||&gt;Groups the result set (used with aggregate functions: COUNT, MAX, MIN, SUM,  AVG)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_having.asp"&gt;HAVING&lt;/a&gt;|||&gt; |||&gt;Used instead of WHERE with aggregate functions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_in.asp"&gt;IN&lt;/a&gt;|||&gt; |||&gt;Allows you to specify multiple values in a WHERE clause|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_index.asp"&gt;INDEX&lt;/a&gt;|||&gt; |||&gt;Creates or deletes an index in a table |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_inner_join.asp"&gt;INNER JOIN&lt;/a&gt;|||&gt; |||&gt;Returns rows that have matching values in both tables|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_insert_into.asp"&gt;INSERT INTO&lt;/a&gt;|||&gt; |||&gt;Inserts new rows in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_insert_into_select.asp"&gt;INSERT INTO SELECT&lt;/a&gt;|||&gt; |||&gt;Copies data from one table into another table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_is_null.asp"&gt;IS NULL&lt;/a&gt;|||&gt; |||&gt;Tests for empty values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_is_not_null.asp"&gt;IS NOT NULL&lt;/a&gt;|||&gt; |||&gt;Tests for non-empty values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_join.asp"&gt;JOIN&lt;/a&gt;|||&gt; |||&gt;Joins tables|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_left_join.asp"&gt;LEFT JOIN&lt;/a&gt;|||&gt; |||&gt;Returns all rows from the left table, and the matching rows from the right  table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_like.asp"&gt;LIKE&lt;/a&gt;|||&gt; |||&gt;Searches for a specified pattern in a column|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_limit.asp"&gt;LIMIT&lt;/a&gt;|||&gt; |||&gt;Specifies the number of records to return in the result set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_not.asp"&gt;NOT&lt;/a&gt;|||&gt; |||&gt;Only includes rows where a condition is not true|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_not_null.asp"&gt;NOT NULL&lt;/a&gt;|||&gt; |||&gt;A constraint that enforces a column to not accept NULL values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_or.asp"&gt;OR&lt;/a&gt;|||&gt; |||&gt;Includes rows where either condition is true|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_order_by.asp"&gt;ORDER BY&lt;/a&gt;|||&gt; |||&gt;Sorts the result set in ascending or descending order|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_outer_join.asp"&gt;OUTER JOIN&lt;/a&gt;|||&gt; |||&gt;Returns all rows when there is a match in either left table or right table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_primary_key.asp"&gt;PRIMARY KEY&lt;/a&gt;|||&gt; |||&gt;A constraint that uniquely identifies each record in a database table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_procedure.asp"&gt;PROCEDURE&lt;/a&gt;|||&gt; |||&gt;A stored procedure|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_right_join.asp"&gt;RIGHT JOIN&lt;/a&gt;|||&gt; |||&gt;Returns all rows from the right table, and the matching rows from the  left table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_rownum.asp"&gt;ROWNUM&lt;/a&gt;|||&gt; |||&gt;Specifies the number of records to return in the result set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_select.asp"&gt;SELECT&lt;/a&gt;|||&gt; |||&gt;Selects data from a database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_select_distinct.asp"&gt;SELECT DISTINCT&lt;/a&gt;|||&gt; |||&gt;Selects only distinct (different) values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_select_into.asp"&gt;SELECT INTO&lt;/a&gt;|||&gt; |||&gt;Copies data from one table into a new table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_select_top.asp"&gt;SELECT TOP&lt;/a&gt;|||&gt; |||&gt;Specifies the number of records to return in the result set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_set.asp"&gt;SET&lt;/a&gt;|||&gt; |||&gt;Specifies which columns and values that should be updated in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_table.asp"&gt;TABLE&lt;/a&gt;|||&gt; |||&gt;Creates a table, or adds, deletes, or modifies columns in a table, or  deletes a table or data inside a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_top.asp"&gt;TOP&lt;/a&gt;|||&gt; |||&gt;Specifies the number of records to return in the result set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_truncate_table.asp"&gt;TRUNCATE TABLE&lt;/a&gt;|||&gt; |||&gt;Deletes the data inside a table, but not the table itself|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_union.asp"&gt;UNION&lt;/a&gt;|||&gt; |||&gt;Combines the result set of two or more SELECT statements (only  distinct values)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_union_all.asp"&gt;UNION ALL&lt;/a&gt;|||&gt; |||&gt;Combines the result set of two or more SELECT statements (allows  duplicate values)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_unique.asp"&gt;UNIQUE&lt;/a&gt;|||&gt; |||&gt;A constraint that ensures that all values in a column are unique|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_update.asp"&gt;UPDATE&lt;/a&gt;|||&gt; |||&gt;Updates existing rows in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_values.asp"&gt;VALUES&lt;/a&gt;|||&gt; |||&gt;Specifies the values of an INSERT INTO statement|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_view.asp"&gt;VIEW&lt;/a&gt;|||&gt; |||&gt;Creates, updates, or deletes a view|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="sql_ref_where.asp"&gt;WHERE&lt;/a&gt;|||&gt; |||&gt;Filters a result set to include only records that fulfill a specified  condition|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//sql/sql_ref_keywords.asp</t>
   </si>
   <si>
@@ -1165,9 +1114,6 @@
     <t>['MySQL has many built-in functions.', 'This reference contains string, numeric, date, and some advanced functions \nin MySQL.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Function||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ascii.asp"&gt;ASCII&lt;/a&gt;|||&gt; |||&gt;Returns the ASCII value for the specific character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_char_length.asp"&gt;CHAR_LENGTH&lt;/a&gt;|||&gt; |||&gt;Returns the length of a string (in characters)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_character_length.asp"&gt;CHARACTER_LENGTH&lt;/a&gt;|||&gt; |||&gt;Returns the length of a string (in characters)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_concat.asp"&gt;CONCAT&lt;/a&gt;|||&gt; |||&gt;Adds two or more expressions together|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_concat_ws.asp"&gt;CONCAT_WS&lt;/a&gt;|||&gt; |||&gt;Adds two or more expressions together with a separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_field.asp"&gt;FIELD&lt;/a&gt;|||&gt; |||&gt;Returns the index position of a value in a list of values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_find_in_set.asp"&gt;FIND_IN_SET&lt;/a&gt;|||&gt; |||&gt;Returns the position of a string within a list of strings|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_format.asp"&gt;FORMAT&lt;/a&gt;|||&gt; |||&gt;Formats a number to a format like "#,###,###.##", rounded to a  specified number  of decimal places|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_insert.asp"&gt;INSERT&lt;/a&gt;|||&gt; |||&gt;Inserts a string within a string at the specified position and for a certain  number of characters|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_instr.asp"&gt;INSTR&lt;/a&gt;|||&gt; |||&gt;Returns the position of the first occurrence of a string in another string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_lcase.asp"&gt;LCASE&lt;/a&gt;|||&gt; |||&gt;Converts a string to lower-case|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_left.asp"&gt;LEFT&lt;/a&gt;|||&gt; |||&gt;Extracts a number of characters from a string (starting from left)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_length.asp"&gt;LENGTH&lt;/a&gt;|||&gt; |||&gt;Returns the length of a string (in bytes)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_locate.asp"&gt;LOCATE&lt;/a&gt;|||&gt; |||&gt;Returns the position of the first occurrence of a substring in a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_lower.asp"&gt;LOWER&lt;/a&gt;|||&gt; |||&gt;Converts a string to lower-case|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_lpad.asp"&gt;LPAD&lt;/a&gt;|||&gt; |||&gt;Left-pads a string with another string, to a certain length|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ltrim.asp"&gt;LTRIM&lt;/a&gt;|||&gt; |||&gt;Removes leading spaces from a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_mid.asp"&gt;MID&lt;/a&gt;|||&gt; |||&gt;Extracts a substring from a string (starting at any position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_position.asp"&gt;POSITION&lt;/a&gt;|||&gt; |||&gt;Returns the position of the first occurrence of a substring in a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_repeat.asp"&gt;REPEAT&lt;/a&gt;|||&gt; |||&gt;Repeats a string as many times as specified|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_replace.asp"&gt;REPLACE&lt;/a&gt;|||&gt; |||&gt;Replaces all occurrences of a substring within a string, with a new  substring|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_reverse.asp"&gt;REVERSE&lt;/a&gt;|||&gt; |||&gt;Reverses a string and returns the result|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_right.asp"&gt;RIGHT&lt;/a&gt;|||&gt; |||&gt;Extracts a number of characters from a string (starting from right)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_rpad.asp"&gt;RPAD&lt;/a&gt;|||&gt; |||&gt;Right-pads a string with another string, to a certain length|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_rtrim.asp"&gt;RTRIM&lt;/a&gt;|||&gt; |||&gt;Removes trailing spaces from a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_space.asp"&gt;SPACE&lt;/a&gt;|||&gt; |||&gt;Returns a string of the specified number of space characters|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_strcmp.asp"&gt;STRCMP&lt;/a&gt;|||&gt; |||&gt;Compares two strings|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_substr.asp"&gt;SUBSTR&lt;/a&gt;|||&gt; |||&gt;Extracts a substring from a string (starting at any position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_substring.asp"&gt;SUBSTRING&lt;/a&gt;|||&gt; |||&gt;Extracts a substring from a string (starting at any position)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_substring_index.asp"&gt;SUBSTRING_INDEX&lt;/a&gt;|||&gt; |||&gt;Returns a substring of a string before a specified number of  delimiter occurs|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_trim.asp"&gt;TRIM&lt;/a&gt;|||&gt; |||&gt;Removes leading and trailing spaces from a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ucase.asp"&gt;UCASE&lt;/a&gt;|||&gt; |||&gt;Converts a string to upper-case|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_upper.asp"&gt;UPPER&lt;/a&gt;|||&gt; |||&gt;Converts a string to upper-case|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Function||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_abs.asp"&gt;ABS&lt;/a&gt;|||&gt; |||&gt;Returns the absolute value of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_acos.asp"&gt;ACOS&lt;/a&gt;|||&gt; |||&gt;Returns the arc cosine of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_asin.asp"&gt;ASIN&lt;/a&gt;|||&gt; |||&gt;Returns the arc sine of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_atan.asp"&gt;ATAN&lt;/a&gt;|||&gt; |||&gt;Returns the arc tangent of one or two numbers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_atan2.asp"&gt;ATAN2&lt;/a&gt;|||&gt; |||&gt;Returns the arc tangent of two numbers|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_avg.asp"&gt;AVG&lt;/a&gt;|||&gt; |||&gt;Returns the average value of an expression|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ceil.asp"&gt;CEIL&lt;/a&gt;|||&gt; |||&gt;Returns the smallest integer value that is &amp;gt;= to a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ceiling.asp"&gt;CEILING&lt;/a&gt;|||&gt; |||&gt;Returns the smallest integer value that is &amp;gt;= to a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_cos.asp"&gt;COS&lt;/a&gt;|||&gt; |||&gt;Returns the cosine of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_cot.asp"&gt;COT&lt;/a&gt;|||&gt; |||&gt;Returns the cotangent of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_count.asp"&gt;COUNT&lt;/a&gt;|||&gt; |||&gt;Returns the number of records returned by a select query|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_degrees.asp"&gt;DEGREES&lt;/a&gt;|||&gt; |||&gt;Converts a value in radians to degrees|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_div.asp"&gt;DIV&lt;/a&gt;|||&gt; |||&gt;Used for integer division|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_exp.asp"&gt;EXP&lt;/a&gt;|||&gt; |||&gt;Returns e raised to the power of a specified number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_floor.asp"&gt;FLOOR&lt;/a&gt;|||&gt; |||&gt;Returns the largest integer value that is &amp;lt;= to a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_greatest.asp"&gt;GREATEST&lt;/a&gt;|||&gt; |||&gt;Returns the greatest value of the list of arguments|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_least.asp"&gt;LEAST&lt;/a&gt;|||&gt; |||&gt;Returns the smallest value of the list of arguments|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ln.asp"&gt;LN&lt;/a&gt;|||&gt; |||&gt;Returns the natural logarithm of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_log.asp"&gt;LOG&lt;/a&gt;|||&gt; |||&gt;Returns the natural logarithm of a number, or the logarithm of a number to a  specified base|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_log10.asp"&gt;LOG10&lt;/a&gt;|||&gt; |||&gt;Returns the natural logarithm of a number to base 10|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_log2.asp"&gt;LOG2&lt;/a&gt;|||&gt; |||&gt;Returns the natural logarithm of a number to base 2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_max.asp"&gt;MAX&lt;/a&gt;|||&gt; |||&gt;Returns the maximum value in a set of values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_min.asp"&gt;MIN&lt;/a&gt;|||&gt; |||&gt;Returns the minimum value in a set of values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_mod.asp"&gt;MOD&lt;/a&gt;|||&gt; |||&gt;Returns the remainder of a number divided by another number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_pi.asp"&gt;PI&lt;/a&gt;|||&gt; |||&gt;Returns the value of PI|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_pow.asp"&gt;POW&lt;/a&gt;|||&gt; |||&gt;Returns the value of a number raised to the power of another number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_power.asp"&gt;POWER&lt;/a&gt;|||&gt; |||&gt;Returns the value of a number raised to the power of another number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_radians.asp"&gt;RADIANS&lt;/a&gt;|||&gt; |||&gt;Converts a degree value into radians|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_rand.asp"&gt;RAND&lt;/a&gt;|||&gt; |||&gt;Returns a random number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_round.asp"&gt;ROUND&lt;/a&gt;|||&gt; |||&gt;Rounds a number to a specified number of decimal places|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sign.asp"&gt;SIGN&lt;/a&gt;|||&gt; |||&gt;Returns the sign of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sin.asp"&gt;SIN&lt;/a&gt;|||&gt; |||&gt;Returns the sine of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sqrt.asp"&gt;SQRT&lt;/a&gt;|||&gt; |||&gt;Returns the square root of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sum.asp"&gt;SUM&lt;/a&gt;|||&gt; |||&gt;Calculates the sum of a set of values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_tan.asp"&gt;TAN&lt;/a&gt;|||&gt; |||&gt;Returns the tangent of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_truncate.asp"&gt;TRUNCATE&lt;/a&gt;|||&gt; |||&gt;Truncates a number to the specified number of decimal places|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Function||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_adddate.asp"&gt;ADDDATE&lt;/a&gt;|||&gt; |||&gt;Adds a time/date interval to a date and then returns the date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_addtime.asp"&gt;ADDTIME&lt;/a&gt;|||&gt; |||&gt;Adds a time interval to a time/datetime and then returns the time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_curdate.asp"&gt;CURDATE&lt;/a&gt;|||&gt; |||&gt;Returns the current date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_current_date.asp"&gt;CURRENT_DATE&lt;/a&gt;|||&gt; |||&gt;Returns the current date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_current_time.asp"&gt;CURRENT_TIME&lt;/a&gt;|||&gt; |||&gt;Returns the current time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_current_timestamp.asp"&gt;CURRENT_TIMESTAMP&lt;/a&gt;|||&gt; |||&gt;Returns the current date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_curtime.asp"&gt;CURTIME&lt;/a&gt;|||&gt; |||&gt;Returns the current time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_date.asp"&gt;DATE&lt;/a&gt;|||&gt; |||&gt;Extracts the date part from a datetime expression|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_datediff.asp"&gt;DATEDIFF&lt;/a&gt;|||&gt; |||&gt;Returns the number of days between two date values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_date_add.asp"&gt;DATE_ADD&lt;/a&gt;|||&gt; |||&gt;Adds a time/date interval to a date and then returns the date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_date_format.asp"&gt;DATE_FORMAT&lt;/a&gt;|||&gt; |||&gt;Formats a date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_date_sub.asp"&gt;DATE_SUB&lt;/a&gt;|||&gt; |||&gt;Subtracts a time/date interval from a date and then returns the date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_day.asp"&gt;DAY&lt;/a&gt;|||&gt; |||&gt;Returns the day of the month for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_dayname.asp"&gt;DAYNAME&lt;/a&gt;|||&gt; |||&gt;Returns the weekday name for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_dayofmonth.asp"&gt;DAYOFMONTH&lt;/a&gt;|||&gt; |||&gt;Returns the day of the month for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_dayofweek.asp"&gt;DAYOFWEEK&lt;/a&gt;|||&gt; |||&gt;Returns the weekday index for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_dayofyear.asp"&gt;DAYOFYEAR&lt;/a&gt;|||&gt; |||&gt;Returns the day of the year for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_extract.asp"&gt;EXTRACT&lt;/a&gt;|||&gt; |||&gt;Extracts a part from a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_from_days.asp"&gt;FROM_DAYS&lt;/a&gt;|||&gt; |||&gt;Returns a date from a numeric datevalue|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_hour.asp"&gt;HOUR&lt;/a&gt;|||&gt; |||&gt;Returns the hour part for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_last_day.asp"&gt;LAST_DAY&lt;/a&gt;|||&gt; |||&gt;Extracts the last day of the month for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_localtime.asp"&gt;LOCALTIME&lt;/a&gt;|||&gt; |||&gt;Returns the current date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_localtimestamp.asp"&gt;LOCALTIMESTAMP&lt;/a&gt;|||&gt; |||&gt;Returns the current date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_makedate.asp"&gt;MAKEDATE&lt;/a&gt;|||&gt; |||&gt;Creates and returns a date based on a year and a number of days value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_maketime.asp"&gt;MAKETIME&lt;/a&gt;|||&gt; |||&gt;Creates and returns a time based on an hour, minute, and second value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_microsecond.asp"&gt;MICROSECOND&lt;/a&gt;|||&gt; |||&gt;Returns the microsecond part of a time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_minute.asp"&gt;MINUTE&lt;/a&gt;|||&gt; |||&gt;Returns the minute part of a time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_month.asp"&gt;MONTH&lt;/a&gt;|||&gt; |||&gt;Returns the month part for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_monthname.asp"&gt;MONTHNAME&lt;/a&gt;|||&gt; |||&gt;Returns the name of the month for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_now.asp"&gt;NOW&lt;/a&gt;|||&gt; |||&gt;Returns the current date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_period_add.asp"&gt;PERIOD_ADD&lt;/a&gt;|||&gt; |||&gt;Adds a specified number of months to a period|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_period_diff.asp"&gt;PERIOD_DIFF&lt;/a&gt;|||&gt; |||&gt;Returns the difference between two periods|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_quarter.asp"&gt;QUARTER&lt;/a&gt;|||&gt; |||&gt;Returns the quarter of the year for a given date value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_second.asp"&gt;SECOND&lt;/a&gt;|||&gt; |||&gt;Returns the seconds part of a time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sec_to_time.asp"&gt;SEC_TO_TIME&lt;/a&gt;|||&gt; |||&gt;Returns a time value based on the specified seconds|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_str_to_date.asp"&gt;STR_TO_DATE&lt;/a&gt;|||&gt; |||&gt;Returns a date based on a string and a format|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_subdate.asp"&gt;SUBDATE&lt;/a&gt;|||&gt; |||&gt;Subtracts a time/date interval from a date and then returns the date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_subtime.asp"&gt;SUBTIME&lt;/a&gt;|||&gt; |||&gt;Subtracts a time interval from a datetime and then returns the time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_sysdate.asp"&gt;SYSDATE&lt;/a&gt;|||&gt; |||&gt;Returns the current date and time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_time.asp"&gt;TIME&lt;/a&gt;|||&gt; |||&gt;Extracts the time part from a given time/datetime|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_time_format.asp"&gt;TIME_FORMAT&lt;/a&gt;|||&gt; |||&gt;Formats a time by a specified format|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_time_to_sec.asp"&gt;TIME_TO_SEC&lt;/a&gt;|||&gt; |||&gt;Converts a time value into seconds|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_timediff.asp"&gt;TIMEDIFF&lt;/a&gt;|||&gt; |||&gt;Returns the difference between two time/datetime expressions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_timestamp.asp"&gt;TIMESTAMP&lt;/a&gt;|||&gt; |||&gt;Returns a datetime value based on a date or datetime value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_to_days.asp"&gt;TO_DAYS&lt;/a&gt;|||&gt; |||&gt;Returns the number of days between a date and date "0000-00-00"|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_week.asp"&gt;WEEK&lt;/a&gt;|||&gt; |||&gt;Returns the week number for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_weekday.asp"&gt;WEEKDAY&lt;/a&gt;|||&gt; |||&gt;Returns the weekday number for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_weekofyear.asp"&gt;WEEKOFYEAR&lt;/a&gt;|||&gt; |||&gt;Returns the week number for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_year.asp"&gt;YEAR&lt;/a&gt;|||&gt; |||&gt;Returns the year part for a given date|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_yearweek.asp"&gt;YEARWEEK&lt;/a&gt;|||&gt; |||&gt;Returns the year and week number for a given date|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Function||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_bin.asp"&gt;BIN&lt;/a&gt;|||&gt; |||&gt;Returns a binary representation of a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_binary.asp"&gt;BINARY&lt;/a&gt;|||&gt; |||&gt;Converts a value to a binary string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_case.asp"&gt;CASE&lt;/a&gt;|||&gt; |||&gt;Goes through conditions and return a value when the first condition is  met|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_cast.asp"&gt;CAST&lt;/a&gt;|||&gt; |||&gt;Converts a value (of any type) into a specified datatype|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_coalesce.asp"&gt;COALESCE&lt;/a&gt;|||&gt; |||&gt;Returns the first non-null value in a list|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_connection_id.asp"&gt;CONNECTION_ID&lt;/a&gt;|||&gt; |||&gt;Returns the unique connection ID for the current connection|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_conv.asp"&gt;CONV&lt;/a&gt;|||&gt; |||&gt;Converts a number from one numeric base system to another|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_convert.asp"&gt;CONVERT&lt;/a&gt;|||&gt; |||&gt;Converts a value into the specified datatype or character set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_current_user.asp"&gt;CURRENT_USER&lt;/a&gt;|||&gt; |||&gt;Returns the user name and host name for the MySQL account that the server  used to authenticate the current client|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_database.asp"&gt;DATABASE&lt;/a&gt;|||&gt; |||&gt;Returns the name of the current database|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_if.asp"&gt;IF&lt;/a&gt;|||&gt; |||&gt;Returns a value if a condition is TRUE, or another value if a condition is FALSE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_ifnull.asp"&gt;IFNULL&lt;/a&gt;|||&gt; |||&gt;Return a specified value if the expression is NULL, otherwise return the  expression|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_isnull.asp"&gt;ISNULL&lt;/a&gt;|||&gt; |||&gt;Returns 1 or 0 depending on whether an expression is NULL|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_last_insert_id.asp"&gt;LAST_INSERT_ID&lt;/a&gt;|||&gt; |||&gt;Returns the AUTO_INCREMENT id of the last row that has been inserted or  updated in a table|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_nullif.asp"&gt;NULLIF&lt;/a&gt;|||&gt; |||&gt;Compares two expressions and returns NULL if they are equal. Otherwise, the  first expression is returned|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_session_user.asp"&gt;SESSION_USER&lt;/a&gt;|||&gt; |||&gt;Returns the current MySQL user name and host name|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_system_user.asp"&gt;SYSTEM_USER&lt;/a&gt;|||&gt; |||&gt;Returns the current MySQL user name and host name|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_user.asp"&gt;USER&lt;/a&gt;|||&gt; |||&gt;Returns the current MySQL user name and host name|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="func_mysql_version.asp"&gt;VERSION&lt;/a&gt;|||&gt; |||&gt;Returns the current version of the MySQL database|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//mysql/mysql_ref_functions.asp</t>
   </si>
   <si>
@@ -1186,9 +1132,6 @@
     <t>['The ASP Response object is used to send output to the user from the server.', '\nWrite text with ASP\nHow to write text with ASP.\n', '\nFormat text with HTML tags in ASP\nHow to combine text and HTML tags with ASP.\n', '\nRedirect the user to a different URL\nHow to redirect the user to a different URL.\n', '\nShow a random link\nHow to create a random link.', '\nControlling the buffer\nHow to control the buffer.\n', '\nClear the buffer\nHow to clear the buffer.\n', '\nEnd a script in the middle of processing and return the result\nHow to end a script in the middle of processing.\n', '\nSet how many minutes a page will be cached in a browser before it expires\nHow to specify how many minutes a page will be cached\nin a browser before it expires.\n', '\nSet a date/time when a page cached in a browser will expire\nHow to specify a date/time a page cached in a browser\nwill expire.\n', '\nCheck if the user is still connected to the server\nHow to check if a user is disconnected from the server.\n', '\nSet the type of content\nHow to specify the type of content.\n', '\nSet the name of the character set\nHow to specify the name of the character set.\n', 'The ASP Response object is used to send output to the user from the server. Its\ncollections, properties, and methods are described below:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Collection||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="coll_cookies_response.asp"&gt;Cookies&lt;/a&gt;|||&gt; |||&gt;Sets a cookie value. If the cookie does not exist, it will be created,       and take the value that is specified|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Property||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_buffer.asp"&gt;Buffer&lt;/a&gt;|||&gt; |||&gt;Specifies whether to buffer the page output or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_cachecontrol.asp"&gt;CacheControl&lt;/a&gt;|||&gt; |||&gt;Sets whether a proxy server can cache the output generated       by ASP or not|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_charset.asp"&gt;Charset&lt;/a&gt;|||&gt; |||&gt;Appends the name of a character-set to the content-type       header in the Response object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_contenttype.asp"&gt;ContentType&lt;/a&gt;|||&gt; |||&gt;Sets the HTTP content type for the Response object|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_expires.asp"&gt;Expires&lt;/a&gt;|||&gt; |||&gt;Sets how long (in minutes) a page will be cached on a browser before it       expires|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_expiresabsolute.asp"&gt;ExpiresAbsolute&lt;/a&gt;|||&gt; |||&gt;Sets a date and time when a page cached on a browser will       expire|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_isclientconnected.asp"&gt;IsClientConnected&lt;/a&gt;|||&gt; |||&gt;Indicates if the client has disconnected from the server|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_pics.asp"&gt;Pics&lt;/a&gt;|||&gt; |||&gt;Appends a value to the PICS label response header|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="prop_status.asp"&gt;Status&lt;/a&gt;|||&gt; |||&gt;Specifies the value of the status line returned by the       server|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Method||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_addheader.asp"&gt;AddHeader&lt;/a&gt;|||&gt; |||&gt;Adds a new HTTP header and a value to the HTTP response|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_appendtolog.asp"&gt;AppendToLog&lt;/a&gt;|||&gt; |||&gt;Adds a string to the end of the server log entry|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_binarywrite.asp"&gt;BinaryWrite&lt;/a&gt;|||&gt; |||&gt;Writes data directly to the output without any character conversion|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_clear.asp"&gt;Clear&lt;/a&gt;|||&gt; |||&gt;Clears any buffered HTML output|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_end.asp"&gt;End&lt;/a&gt;|||&gt; |||&gt;Stops processing a script, and returns the current result|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_flush.asp"&gt;Flush&lt;/a&gt;|||&gt; |||&gt;Sends buffered HTML output immediately|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_redirect.asp"&gt;Redirect&lt;/a&gt;|||&gt; |||&gt;Redirects the user to a different URL|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="met_write_response.asp"&gt;Write&lt;/a&gt;|||&gt; |||&gt;Writes a specified string to the output|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//asp/asp_ref_response.asp</t>
   </si>
   <si>
@@ -1198,9 +1141,6 @@
     <t>['The DOM presents a document as a hierarchy of node objects.', 'The examples below use the XML file books.xml. ', 'Display nodeName and nodeType of all elements', 'Display nodeName and nodeValue of all elements', 'The following table lists the different W3C node types, and which node types they \nmay have as children:', 'The following table lists what the nodeName and the nodeValue properties will return for each node type:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Node Type||| &lt;th style="width:40%"&gt;Description||| |||Children||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Document|||&gt; |||&gt;Represents the entire document (the root-node of the DOM tree)|||&gt; |||&gt;Element (max. one), ProcessingInstruction, Comment, DocumentType|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DocumentFragment|||&gt; |||&gt;Represents a "lightweight" Document object, which can hold a portion of a document|||&gt; |||&gt;Element, ProcessingInstruction, Comment, Text, CDATASection, EntityReference|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DocumentType|||&gt; |||&gt;Provides an interface to the entities defined for the document|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ProcessingInstruction|||&gt; |||&gt;Represents a processing instruction|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EntityReference|||&gt; |||&gt;Represents an entity reference|||&gt; |||&gt;Element, ProcessingInstruction, Comment, Text, CDATASection, EntityReference|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Element|||&gt; |||&gt;Represents an element|||&gt; |||&gt;Element, Text, Comment, ProcessingInstruction, CDATASection, EntityReference|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Attr|||&gt; |||&gt;Represents an attribute|||&gt; |||&gt;Text, EntityReference|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Text|||&gt; |||&gt;Represents textual content in an element or attribute|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CDATASection|||&gt; |||&gt;Represents a CDATA section in a document (text that will NOT be parsed by a parser)|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Comment|||&gt; |||&gt;Represents a comment|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Entity|||&gt; |||&gt;Represents an entity|||&gt; |||&gt;Element, ProcessingInstruction, Comment, Text, CDATASection, EntityReference|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Notation|||&gt; |||&gt;Represents a notation declared in the DTD|||&gt; |||&gt;None|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Node Type||| &lt;th style="width:40%"&gt;nodeName returns||| |||nodeValue returns||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Document|||&gt; |||&gt;#document|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DocumentFragment|||&gt; |||&gt;#document fragment|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DocumentType|||&gt; |||&gt;doctype name|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EntityReference|||&gt; |||&gt;entity reference name|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Element|||&gt; |||&gt;element name|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Attr|||&gt; |||&gt;attribute name|||&gt; |||&gt;attribute value|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ProcessingInstruction|||&gt; |||&gt;target|||&gt; |||&gt;content of node|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Comment|||&gt; |||&gt;#comment|||&gt; |||&gt;comment text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Text|||&gt; |||&gt;#text|||&gt; |||&gt;content of node|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CDATASection|||&gt; |||&gt;#cdata-section|||&gt; |||&gt;content of node|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Entity|||&gt; |||&gt;entity name|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Notation|||&gt; |||&gt;notation name|||&gt; |||&gt;null|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:15%"&gt;NodeType||| |||Named Constant||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;1|||&gt; |||&gt;ELEMENT_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2|||&gt; |||&gt;ATTRIBUTE_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;3|||&gt; |||&gt;TEXT_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;4|||&gt; |||&gt;CDATA_SECTION_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;5|||&gt; |||&gt;ENTITY_REFERENCE_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;6|||&gt; |||&gt;ENTITY_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;7|||&gt; |||&gt;PROCESSING_INSTRUCTION_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;8|||&gt; |||&gt;COMMENT_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;9|||&gt; |||&gt;DOCUMENT_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;10|||&gt; |||&gt;DOCUMENT_TYPE_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;11|||&gt; |||&gt;DOCUMENT_FRAGMENT_NODE|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;12|||&gt; |||&gt;NOTATION_NODE|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/dom_nodetype.asp</t>
   </si>
   <si>
@@ -1210,9 +1150,6 @@
     <t>['With the XMLHttpRequest object you can update parts of a web \npage, without reloading the whole page.', 'A \nsimple XMLHttpRequest example\nCreate a simple XMLHttpRequest, and retrieve data from a TXT file.', '\nRetrieve header information with getAllResponseHeaders()\nRetrieve header information of a resource (file).', '\nRetrieve specific header information with getResponseHeader()\nRetrieve specific header information of a resource (file).', 'Retrieve the content of an ASP file\nHow a web page can communicate with a web server while a user type characters in an input field.', 'Retrieve content from a database\nHow a web page can fetch information from a database with the XMLHttpRequest object.', 'Retrieve the content of an XML file\nCreate an XMLHttpRequest to retrieve data from an XML file and display the data in an HTML table.', 'The XMLHttpRequest object is used to exchange data with a server behind the scenes.', 'The XMLHttpRequest object is the developers dream, because you can:', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:35%"&gt;Method||| &lt;th style="width:65%"&gt;Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;abort()|||&gt; |||&gt;Cancels the current request|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getAllResponseHeaders()|||&gt; |||&gt;Returns header information|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;getResponseHeader()|||&gt; |||&gt;Returns specific header information|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;open(method,url,async,uname,pswd)|||&gt; |||&gt;Specifies the type of request, the URL, if the request should be handled asynchronously or not, and other optional attributes of a request  &lt;br/&gt;&lt;br/&gt;method: the type of request: GET or POST&lt;br/&gt;     url: the location of the file on the server&lt;br/&gt;     async: true (asynchronous) or false (synchronous)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;send(string)|||&gt; |||&gt;send(string) Sends the request off to the server.&lt;br/&gt;&lt;br/&gt;     string: Only used for POST requests|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;setRequestHeader()|||&gt; |||&gt;Adds a label/value pair to the header to be sent|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:35%"&gt;Property||| &lt;th style="width:65%"&gt;Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;onreadystatechange|||&gt; |||&gt;Stores a function (or the name of a function) to be called automatically each time the readyState property changes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;readyState|||&gt; |||&gt;Holds the status of the XMLHttpRequest. Changes from 0 to 4: &lt;br/&gt;     0: request not initialized &lt;br/&gt;     1: server connection established&lt;br/&gt;     2: request received &lt;br/&gt;     3: processing request &lt;br/&gt;     4: request finished and response is ready |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;responseText|||&gt; |||&gt;Returns the response data as a string|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;responseXML|||&gt; |||&gt;Returns the response data as XML data|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;status|||&gt; |||&gt;Returns the status-number (e.g. "404" for "Not Found" or "200" for "OK")|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;statusText|||&gt; |||&gt;Returns the status-text (e.g. "Not Found" or  "OK")|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/dom_http.asp</t>
   </si>
   <si>
@@ -1225,9 +1162,6 @@
     <t>['The XSLT elements from the W3C Recommendation (XSLT Version 1.0).', 'The links in the "Element" column point to attributes and more\nuseful information about each specific element.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:30%"&gt;Element||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_apply-imports.asp"&gt;apply-imports&lt;/a&gt;|||&gt; |||&gt;Applies a template rule from an imported style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_apply-templates.asp"&gt;apply-templates&lt;/a&gt;|||&gt; |||&gt;Applies a template rule to the current element or to the current element's child nodes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_attribute.asp"&gt;attribute&lt;/a&gt;|||&gt; |||&gt;Adds an attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_attributeset.asp"&gt;attribute-set&lt;/a&gt;|||&gt; |||&gt;Defines a named set of attributes|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_call-template.asp"&gt;call-template&lt;/a&gt;|||&gt; |||&gt;Calls a named template|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_choose.asp"&gt;choose&lt;/a&gt;|||&gt; |||&gt;Used in conjunction with &amp;lt;when&amp;gt; and &amp;lt;otherwise&amp;gt; to express multiple conditional tests|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_comment.asp"&gt;comment&lt;/a&gt;|||&gt; |||&gt;Creates a comment node in the result tree|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_copy.asp"&gt;copy&lt;/a&gt;|||&gt; |||&gt;Creates a copy of the current node (without child nodes and attributes)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_copy-of.asp"&gt;copy-of&lt;/a&gt;|||&gt; |||&gt;Creates a copy of the current node (with child nodes and attributes)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_decimal-format.asp"&gt;decimal-format&lt;/a&gt;|||&gt; |||&gt;Defines the characters and symbols to be used when      converting numbers into strings, with the format-number() function|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_element.asp"&gt;element&lt;/a&gt;|||&gt; |||&gt;Creates an element node in the output document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_fallback.asp"&gt;fallback&lt;/a&gt;|||&gt; |||&gt;Specifies an alternate code to run if the processor does not support an XSLT element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_for-each.asp"&gt;for-each&lt;/a&gt;|||&gt; |||&gt;Loops through each node in a specified node set|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_if.asp"&gt;if&lt;/a&gt;|||&gt; |||&gt;Contains a template that will be applied only if a specified condition is true|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_import.asp"&gt;import&lt;/a&gt;|||&gt; |||&gt;Imports the contents of one style sheet into another.     &lt;b&gt;Note:&lt;/b&gt; An imported style sheet has lower precedence than the importing style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_include.asp"&gt;include&lt;/a&gt;|||&gt; |||&gt;Includes the contents of one style sheet into another. &lt;b&gt;Note:&lt;/b&gt;     An included style sheet has the same precedence as the including style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_key.asp"&gt;key&lt;/a&gt;|||&gt; |||&gt;Declares a named key that can be used in the style sheet with the key() function|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_message.asp"&gt;message&lt;/a&gt;|||&gt; |||&gt;Writes a message to the output (used to report errors)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_namespace-alias.asp"&gt;namespace-alias&lt;/a&gt;|||&gt; |||&gt;Replaces a namespace in the style sheet to a different namespace in the output|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_number.asp"&gt;number&lt;/a&gt;|||&gt; |||&gt;Determines the integer position of the current node and formats a number|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_otherwise.asp"&gt;otherwise&lt;/a&gt;|||&gt; |||&gt;Specifies a default action for the &amp;lt;choose&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_output.asp"&gt;output&lt;/a&gt;|||&gt; |||&gt;Defines the format of the output document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_param.asp"&gt;param&lt;/a&gt;|||&gt; |||&gt;Declares a local or global parameter|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_preserve-space.asp"&gt;preserve-space&lt;/a&gt;|||&gt; |||&gt;Defines the elements for which white space should be preserved|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_processing-instruction.asp"&gt;processing-instruction&lt;/a&gt;|||&gt; |||&gt;Writes a processing instruction to the output|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_sort.asp"&gt;sort&lt;/a&gt;|||&gt; |||&gt;Sorts the output|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_strip-space.asp"&gt;strip-space&lt;/a&gt;|||&gt; |||&gt;Defines the elements for which white space should be removed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_stylesheet.asp"&gt;stylesheet&lt;/a&gt;|||&gt; |||&gt;Defines the root element of a style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_template.asp"&gt;template&lt;/a&gt;|||&gt; |||&gt;Rules to apply when a specified node is matched|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_text.asp"&gt;text&lt;/a&gt;|||&gt; |||&gt;Writes literal text to the output|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_transform.asp"&gt;transform&lt;/a&gt;|||&gt; |||&gt;Defines the root element of a style sheet|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_value-of.asp"&gt;value-of&lt;/a&gt;|||&gt; |||&gt;Extracts the value of a selected node|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_variable.asp"&gt;variable&lt;/a&gt;|||&gt; |||&gt;Declares a local or global variable|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_when.asp"&gt;when&lt;/a&gt;|||&gt; |||&gt;Specifies an action for the &amp;lt;choose&amp;gt; element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_xsl_el_with-param.asp"&gt;with-param&lt;/a&gt;|||&gt; |||&gt;Defines the value of a parameter to be passed into a template|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/xsl_elementref.asp</t>
   </si>
   <si>
@@ -1237,9 +1171,6 @@
     <t>['Enables the author to extend the XML document with attributes not specified \nby the schema', 'Look at XSD Restrictions!', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Element||| |||Explanation||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_all.asp"&gt;all&lt;/a&gt;|||&gt; |||&gt;Specifies that the child elements can appear in any order. Each child      element can occur 0 or 1 time|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_annotation.asp"&gt;annotation&lt;/a&gt;|||&gt; |||&gt;Specifies the top-level element for schema comments|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_any.asp"&gt;any&lt;/a&gt;|||&gt; |||&gt;Enables the author to extend the XML document with elements      not specified by the schema|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_anyattribute.asp"&gt;anyAttribute&lt;/a&gt;|||&gt; |||&gt; &lt;p&gt;Enables the author to extend the XML document with attributes not specified  by the schema&lt;/p&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_appinfo.asp"&gt;appinfo&lt;/a&gt;|||&gt; |||&gt;Specifies information to be used by the application (must      go inside annotation)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_attribute.asp"&gt;attribute&lt;/a&gt;|||&gt; |||&gt;Defines an attribute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_attributegroup.asp"&gt;attributeGroup&lt;/a&gt;|||&gt; |||&gt;Defines an attribute group to be used in complex type      definitions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_choice.asp"&gt;choice&lt;/a&gt;|||&gt; |||&gt;Allows only one of the elements contained in the &amp;lt;choice&amp;gt;      declaration to be present within the containing element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_complexcontent.asp"&gt;complexContent&lt;/a&gt;|||&gt; |||&gt;Defines extensions or restrictions on a complex type that      contains mixed content or elements only|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_complextype.asp"&gt;complexType&lt;/a&gt;|||&gt; |||&gt;Defines a complex type element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_documentation.asp"&gt;documentation&lt;/a&gt;|||&gt; |||&gt;Defines text comments in a schema (must go inside      annotation)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_element.asp"&gt;element&lt;/a&gt;|||&gt; |||&gt;Defines an element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_extension.asp"&gt;extension&lt;/a&gt;|||&gt; |||&gt;Extends an existing simpleType or complexType element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_field.asp"&gt;field&lt;/a&gt;|||&gt; |||&gt;Specifies an XPath expression that specifies the value used      to define an identity constraint|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_group.asp"&gt;group&lt;/a&gt;|||&gt; |||&gt;Defines a group of elements to be used in complex type      definitions|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_import.asp"&gt;import&lt;/a&gt;|||&gt; |||&gt;Adds multiple schemas with different target      namespace to a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_include.asp"&gt;include&lt;/a&gt;|||&gt; |||&gt;Adds multiple schemas with the same target      namespace to a document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_key.asp"&gt;key&lt;/a&gt;|||&gt; |||&gt;Specifies an attribute or element value as a      key (unique, non-nullable, and always present) within the containing element      in an instance document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_keyref.asp"&gt;keyref&lt;/a&gt;|||&gt; |||&gt;Specifies that an attribute or element value correspond to      those of the specified key or unique element|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_list.asp"&gt;list&lt;/a&gt;|||&gt; |||&gt;Defines a simple type element as a list of values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_notation.asp"&gt;notation&lt;/a&gt;|||&gt; |||&gt;Describes the format of non-XML data within an XML document|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_redefine.asp"&gt;redefine&lt;/a&gt;|||&gt; |||&gt;Redefines simple and complex types, groups, and attribute      groups from an external schema|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_restriction.asp"&gt;restriction&lt;/a&gt;|||&gt; |||&gt;Defines restrictions on a simpleType, simpleContent, or a      complexContent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_schema.asp"&gt;schema&lt;/a&gt;|||&gt; |||&gt;Defines the root element of a schema|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_selector.asp"&gt;selector&lt;/a&gt;|||&gt; |||&gt;Specifies an XPath expression that selects a set of      elements for an identity constraint|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_sequence.asp"&gt;sequence&lt;/a&gt;|||&gt; |||&gt;Specifies that the child elements must appear in a sequence. Each child      element can occur from 0 to any number of times|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_simpleContent.asp"&gt;simpleContent&lt;/a&gt;|||&gt; |||&gt;Contains extensions or restrictions on a text-only complex type or on a simple type as content and contains no elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_simpletype.asp"&gt;simpleType&lt;/a&gt;|||&gt; |||&gt;Defines a simple type and specifies the constraints and      information about the values of attributes or text-only elements|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_union.asp"&gt;union&lt;/a&gt;|||&gt; |||&gt;Defines a simple type as a collection (union) of values      from specified simple data types|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="el_unique.asp"&gt;unique&lt;/a&gt;|||&gt; |||&gt;Defines that an element or an attribute value must be      unique within the scope|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:25%"&gt;Constraint||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;enumeration|||&gt; |||&gt;Defines a list of acceptable values|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;fractionDigits|||&gt; |||&gt;Specifies the maximum number of decimal places allowed.      Must be equal to or greater than zero|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;length|||&gt; |||&gt;Specifies the exact number of characters or list items      allowed. Must be equal to or greater than zero|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;maxExclusive|||&gt; |||&gt;Specifies the upper bounds for numeric values (the value      must be less than this value)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;maxInclusive|||&gt; |||&gt;Specifies the upper bounds for numeric values (the value      must be less than or equal to this value)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;maxLength|||&gt; |||&gt;Specifies the maximum number of characters or list items      allowed. Must be equal to or greater than zero|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;minExclusive|||&gt; |||&gt;Specifies the lower bounds for numeric values (the value      must be greater than this value)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;minInclusive|||&gt; |||&gt;Specifies the lower bounds for numeric values (the value      must be greater than or equal to this value)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;minLength|||&gt; |||&gt;Specifies the minimum number of characters or list items      allowed. Must be equal to or greater than zero|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;pattern|||&gt; |||&gt;Defines the exact sequence of characters that are      acceptable |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;totalDigits|||&gt; |||&gt;Specifies the maximum number of digits allowed. Must be      greater than zero|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;whiteSpace|||&gt; |||&gt;Specifies how white space (line feeds, tabs, spaces, and      carriage returns) is handled|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//xml/schema_elements_ref.asp</t>
   </si>
   <si>
@@ -1261,9 +1192,6 @@
     <t>['ASCII was the first character set (encoding standard) used \nbetween computers on the Internet.', 'Both ISO-8859-1 (default in HTML 4.01) and UTF-8 (default in \nHTML5), are built on ASCII.', 'ASCII stands for the "American Standard Code for Information Interchange".', "It was designed in the early 60's, as a standard character set for computers \nand electronic devices.", 'ASCII is a 7-bit character set containing 128 characters.', 'It contains the numbers from 0-9, the upper and lower case English letters \nfrom A to Z, and some special characters.', 'The character sets used in modern computers, in HTML, and on the Internet, \nare all based on ASCII.', 'The following tables list the 128 ASCII characters and their equivalent \nnumber.', 'The ASCII control characters (range 00-31, plus 127) were designed to control \nhardware devices.', 'Control characters (except horizontal tab, line feed, and carriage return) \nhave nothing to do inside an HTML document.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Char||| &lt;th style="width:10%"&gt;Number||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;0 - 31|||&gt; |||&gt;Control characters (see below)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt;32|||&gt; |||&gt;space|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;!|||&gt; |||&gt;33|||&gt; |||&gt;exclamation mark|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;"|||&gt; |||&gt;34|||&gt; |||&gt;quotation mark|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;#|||&gt; |||&gt;35|||&gt; |||&gt;number sign|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;$|||&gt; |||&gt;36|||&gt; |||&gt;dollar sign|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;%|||&gt; |||&gt;37|||&gt; |||&gt;percent sign|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;amp;|||&gt; |||&gt;38|||&gt; |||&gt;ampersand|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;'|||&gt; |||&gt;39|||&gt; |||&gt;apostrophe|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;(|||&gt; |||&gt;40|||&gt; |||&gt;left parenthesis|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;)|||&gt; |||&gt;41|||&gt; |||&gt;right parenthesis|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;*|||&gt; |||&gt;42|||&gt; |||&gt;asterisk|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;+|||&gt; |||&gt;43|||&gt; |||&gt;plus sign|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;,|||&gt; |||&gt;44|||&gt; |||&gt;comma|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;-|||&gt; |||&gt;45|||&gt; |||&gt;hyphen|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;.|||&gt; |||&gt;46|||&gt; |||&gt;period|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;/|||&gt; |||&gt;47|||&gt; |||&gt;slash|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;0|||&gt; |||&gt;48|||&gt; |||&gt;digit 0|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;1|||&gt; |||&gt;49|||&gt; |||&gt;digit 1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;2|||&gt; |||&gt;50|||&gt; |||&gt;digit 2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;3|||&gt; |||&gt;51|||&gt; |||&gt;digit 3|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;4|||&gt; |||&gt;52|||&gt; |||&gt;digit 4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;5|||&gt; |||&gt;53|||&gt; |||&gt;digit 5|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;6|||&gt; |||&gt;54|||&gt; |||&gt;digit 6|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;7|||&gt; |||&gt;55|||&gt; |||&gt;digit 7|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;8|||&gt; |||&gt;56|||&gt; |||&gt;digit 8|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;9|||&gt; |||&gt;57|||&gt; |||&gt;digit 9|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;:|||&gt; |||&gt;58|||&gt; |||&gt;colon|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;;|||&gt; |||&gt;59|||&gt; |||&gt;semicolon|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;lt;|||&gt; |||&gt;60|||&gt; |||&gt;less-than|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;=|||&gt; |||&gt;61|||&gt; |||&gt;equals-to|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&amp;gt;|||&gt; |||&gt;62|||&gt; |||&gt;greater-than|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;?|||&gt; |||&gt;63|||&gt; |||&gt;question mark|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;@|||&gt; |||&gt;64|||&gt; |||&gt;at sign|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;A|||&gt; |||&gt;65|||&gt; |||&gt;uppercase A|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;B|||&gt; |||&gt;66|||&gt; |||&gt;uppercase B|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;C|||&gt; |||&gt;67|||&gt; |||&gt;uppercase C|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;D|||&gt; |||&gt;68|||&gt; |||&gt;uppercase D|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;E|||&gt; |||&gt;69|||&gt; |||&gt;uppercase E|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;F|||&gt; |||&gt;70|||&gt; |||&gt;uppercase F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;G|||&gt; |||&gt;71|||&gt; |||&gt;uppercase G|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;H|||&gt; |||&gt;72|||&gt; |||&gt;uppercase H|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;I|||&gt; |||&gt;73|||&gt; |||&gt;uppercase I|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;J|||&gt; |||&gt;74|||&gt; |||&gt;uppercase J|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;K|||&gt; |||&gt;75|||&gt; |||&gt;uppercase K|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;L|||&gt; |||&gt;76|||&gt; |||&gt;uppercase L|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;M|||&gt; |||&gt;77|||&gt; |||&gt;uppercase M|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;N|||&gt; |||&gt;78|||&gt; |||&gt;uppercase N|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;O|||&gt; |||&gt;79|||&gt; |||&gt;uppercase O|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;P|||&gt; |||&gt;80|||&gt; |||&gt;uppercase P|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Q|||&gt; |||&gt;81|||&gt; |||&gt;uppercase Q|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;R|||&gt; |||&gt;82|||&gt; |||&gt;uppercase R|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;S|||&gt; |||&gt;83|||&gt; |||&gt;uppercase S|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;T|||&gt; |||&gt;84|||&gt; |||&gt;uppercase T|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;U|||&gt; |||&gt;85|||&gt; |||&gt;uppercase U|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;V|||&gt; |||&gt;86|||&gt; |||&gt;uppercase V|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;W|||&gt; |||&gt;87|||&gt; |||&gt;uppercase W|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;X|||&gt; |||&gt;88|||&gt; |||&gt;uppercase X|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Y|||&gt; |||&gt;89|||&gt; |||&gt;uppercase Y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Z|||&gt; |||&gt;90|||&gt; |||&gt;uppercase Z|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;[|||&gt; |||&gt;91|||&gt; |||&gt;left square bracket|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;\|||&gt; |||&gt;92|||&gt; |||&gt;backslash|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;]|||&gt; |||&gt;93|||&gt; |||&gt;right square bracket|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;^|||&gt; |||&gt;94|||&gt; |||&gt;caret|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;_|||&gt; |||&gt;95|||&gt; |||&gt;underscore|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;`|||&gt; |||&gt;96|||&gt; |||&gt;grave accent|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;a|||&gt; |||&gt;97|||&gt; |||&gt;lowercase a|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;b|||&gt; |||&gt;98|||&gt; |||&gt;lowercase b|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;c|||&gt; |||&gt;99|||&gt; |||&gt;lowercase c|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;d|||&gt; |||&gt;100|||&gt; |||&gt;lowercase d|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;e|||&gt; |||&gt;101|||&gt; |||&gt;lowercase e|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;f|||&gt; |||&gt;102|||&gt; |||&gt;lowercase f|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;g|||&gt; |||&gt;103|||&gt; |||&gt;lowercase g|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;h|||&gt; |||&gt;104|||&gt; |||&gt;lowercase h|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;i|||&gt; |||&gt;105|||&gt; |||&gt;lowercase i|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;j|||&gt; |||&gt;106|||&gt; |||&gt;lowercase j|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;k|||&gt; |||&gt;107|||&gt; |||&gt;lowercase k|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;l|||&gt; |||&gt;108|||&gt; |||&gt;lowercase l|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;m|||&gt; |||&gt;109|||&gt; |||&gt;lowercase m|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;n|||&gt; |||&gt;110|||&gt; |||&gt;lowercase n|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;o|||&gt; |||&gt;111|||&gt; |||&gt;lowercase o|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;p|||&gt; |||&gt;112|||&gt; |||&gt;lowercase p|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;q|||&gt; |||&gt;113|||&gt; |||&gt;lowercase q|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;r|||&gt; |||&gt;114|||&gt; |||&gt;lowercase r|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;s|||&gt; |||&gt;115|||&gt; |||&gt;lowercase s|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;t|||&gt; |||&gt;116|||&gt; |||&gt;lowercase t|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;u|||&gt; |||&gt;117|||&gt; |||&gt;lowercase u|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;v|||&gt; |||&gt;118|||&gt; |||&gt;lowercase v|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;w|||&gt; |||&gt;119|||&gt; |||&gt;lowercase w|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;x|||&gt; |||&gt;120|||&gt; |||&gt;lowercase x|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;y|||&gt; |||&gt;121|||&gt; |||&gt;lowercase y|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;z|||&gt; |||&gt;122|||&gt; |||&gt;lowercase z|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;{|||&gt; |||&gt;123|||&gt; |||&gt;left curly brace|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;||||&gt; |||&gt;124|||&gt; |||&gt;vertical bar|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;}|||&gt; |||&gt;125|||&gt; |||&gt;right curly brace|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;~|||&gt; |||&gt;126|||&gt; |||&gt;tilde|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt; Char||| &lt;th style="width:10%"&gt;Number||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;NUL|||&gt; |||&gt;00|||&gt; |||&gt;null character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SOH|||&gt; |||&gt;01|||&gt; |||&gt;start of header|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;STX|||&gt; |||&gt;02|||&gt; |||&gt;start of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ETX|||&gt; |||&gt;03|||&gt; |||&gt;end of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EOT|||&gt; |||&gt;04|||&gt; |||&gt;end of transmission|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ENQ|||&gt; |||&gt;05|||&gt; |||&gt;enquiry|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ACK|||&gt; |||&gt;06|||&gt; |||&gt;acknowledge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BEL|||&gt; |||&gt;07|||&gt; |||&gt;bell (ring)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BS|||&gt; |||&gt;08|||&gt; |||&gt;backspace|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;HT|||&gt; |||&gt;09|||&gt; |||&gt;horizontal tab|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;LF|||&gt; |||&gt;10|||&gt; |||&gt;line feed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VT|||&gt; |||&gt;11|||&gt; |||&gt;vertical tab|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;FF|||&gt; |||&gt;12|||&gt; |||&gt;form feed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CR|||&gt; |||&gt;13|||&gt; |||&gt;carriage return|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SO|||&gt; |||&gt;14|||&gt; |||&gt;shift out|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SI|||&gt; |||&gt;15|||&gt; |||&gt;shift in|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DLE|||&gt; |||&gt;16|||&gt; |||&gt;data link escape|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC1|||&gt; |||&gt;17|||&gt; |||&gt;device control 1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC2|||&gt; |||&gt;18|||&gt; |||&gt;device control 2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC3|||&gt; |||&gt;19|||&gt; |||&gt;device control 3|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC4|||&gt; |||&gt;20|||&gt; |||&gt;device control 4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;NAK|||&gt; |||&gt;21|||&gt; |||&gt;negative acknowledge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SYN|||&gt; |||&gt;22|||&gt; |||&gt;synchronize|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ETB|||&gt; |||&gt;23|||&gt; |||&gt;end transmission block|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CAN|||&gt; |||&gt;24|||&gt; |||&gt;cancel|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EM|||&gt; |||&gt;25|||&gt; |||&gt;end of medium|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SUB|||&gt; |||&gt;26|||&gt; |||&gt;substitute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ESC|||&gt; |||&gt;27|||&gt; |||&gt;escape|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;FS|||&gt; |||&gt;28|||&gt; |||&gt;file separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;GS|||&gt; |||&gt;29|||&gt; |||&gt;group separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;RS|||&gt; |||&gt;30|||&gt; |||&gt;record separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;US|||&gt; |||&gt;31|||&gt; |||&gt;unit separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DEL|||&gt; |||&gt;127|||&gt; |||&gt;delete (rubout)|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//charsets/ref_html_ascii.asp</t>
   </si>
   <si>
@@ -1273,9 +1201,6 @@
     <t>['Windows-1252 was the first default character set in Microsoft Windows.', 'It was the most popular character set in Windows from 1985 to 1990.', 'Historically, the term "ANSI Code Pages" was used in Windows to refer to non-DOS character sets.', 'The intention was that these character sets would be ANSI standards like ISO-8859-1.', 'Even though Windows-1252 is almost identical to ISO-8859-1, it has never been an ANSI \nor ISO standard.', 'The first part of Windows-1252 (entity numbers from 0-127) is the original ASCII \ncharacter-set. It contains numbers, upper and lowercase English letters, and \nsome special characters.', 'For a closer look, please study our Complete \nASCII Reference.', 'The control characters (range 00-31, plus 127) were designed to control \nhardware devices.', 'Control characters (except horizontal tab, line feed, and carriage return) \nhave nothing to do inside an HTML document.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Character||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity Name||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;0 - 31|||&gt;|||&gt; |||&gt;|||&gt;Control characters (see below)|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;32|||&gt;|||&gt; |||&gt;|||&gt;space|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;!|||&gt;|||&gt;33|||&gt;|||&gt; |||&gt;|||&gt;exclamation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;"|||&gt;|||&gt;34|||&gt;|||&gt;&amp;amp;quot;|||&gt;|||&gt;quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;#|||&gt;|||&gt;35|||&gt;|||&gt; |||&gt;|||&gt;number sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;$|||&gt;|||&gt;36|||&gt;|||&gt; |||&gt;|||&gt;dollar sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;%|||&gt;|||&gt;37|||&gt;|||&gt; |||&gt;|||&gt;percent sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;|||&gt;|||&gt;38|||&gt;|||&gt;&amp;amp;amp;|||&gt;|||&gt;ampersand|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;'|||&gt;|||&gt;39|||&gt;|||&gt; |||&gt;|||&gt;apostrophe|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;(|||&gt;|||&gt;40|||&gt;|||&gt; |||&gt;|||&gt;left parenthesis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;)|||&gt;|||&gt;41|||&gt;|||&gt; |||&gt;|||&gt;right parenthesis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;*|||&gt;|||&gt;42|||&gt;|||&gt; |||&gt;|||&gt;asterisk|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;+|||&gt;|||&gt;43|||&gt;|||&gt; |||&gt;|||&gt;plus sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;,|||&gt;|||&gt;44|||&gt;|||&gt; |||&gt;|||&gt;comma|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;-|||&gt;|||&gt;45|||&gt;|||&gt; |||&gt;|||&gt;hyphen-minus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;.|||&gt;|||&gt;46|||&gt;|||&gt; |||&gt;|||&gt;full stop|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;/|||&gt;|||&gt;47|||&gt;|||&gt; |||&gt;|||&gt;solidus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;0|||&gt;|||&gt;48|||&gt;|||&gt; |||&gt;|||&gt;digit zero|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;1|||&gt;|||&gt;49|||&gt;|||&gt; |||&gt;|||&gt;digit one|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;2|||&gt;|||&gt;50|||&gt;|||&gt; |||&gt;|||&gt;digit two|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;3|||&gt;|||&gt;51|||&gt;|||&gt; |||&gt;|||&gt;digit three|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;4|||&gt;|||&gt;52|||&gt;|||&gt; |||&gt;|||&gt;digit four|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;5|||&gt;|||&gt;53|||&gt;|||&gt; |||&gt;|||&gt;digit five|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;6|||&gt;|||&gt;54|||&gt;|||&gt; |||&gt;|||&gt;digit six|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;7|||&gt;|||&gt;55|||&gt;|||&gt; |||&gt;|||&gt;digit seven|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8|||&gt;|||&gt;56|||&gt;|||&gt; |||&gt;|||&gt;digit eight|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;9|||&gt;|||&gt;57|||&gt;|||&gt; |||&gt;|||&gt;digit nine|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;:|||&gt;|||&gt;58|||&gt;|||&gt; |||&gt;|||&gt;colon|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;;|||&gt;|||&gt;59|||&gt;|||&gt; |||&gt;|||&gt;semicolon|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;lt;|||&gt;|||&gt;60|||&gt;|||&gt;&amp;amp;lt;|||&gt;|||&gt;less-than sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;=|||&gt;|||&gt;61|||&gt;|||&gt; |||&gt;|||&gt;equals sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;gt;|||&gt;|||&gt;62|||&gt;|||&gt;&amp;amp;gt;|||&gt;|||&gt;greater-than sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;?|||&gt;|||&gt;63|||&gt;|||&gt; |||&gt;|||&gt;question mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;@|||&gt;|||&gt;64|||&gt;|||&gt; |||&gt;|||&gt;commercial at|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;A|||&gt;|||&gt;65|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter A|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;B|||&gt;|||&gt;66|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter B|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;C|||&gt;|||&gt;67|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter C|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;D|||&gt;|||&gt;68|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter D|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;E|||&gt;|||&gt;69|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter E|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;F|||&gt;|||&gt;70|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter F|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;G|||&gt;|||&gt;71|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter G|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;H|||&gt;|||&gt;72|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter H|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;I|||&gt;|||&gt;73|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter I|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;J|||&gt;|||&gt;74|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter J|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;K|||&gt;|||&gt;75|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter K|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;L|||&gt;|||&gt;76|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter L|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;M|||&gt;|||&gt;77|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter M|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;N|||&gt;|||&gt;78|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter N|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;O|||&gt;|||&gt;79|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter O|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;P|||&gt;|||&gt;80|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter P|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Q|||&gt;|||&gt;81|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Q|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;R|||&gt;|||&gt;82|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter R|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;S|||&gt;|||&gt;83|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter S|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;T|||&gt;|||&gt;84|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter T|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;U|||&gt;|||&gt;85|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter U|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;V|||&gt;|||&gt;86|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter V|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;W|||&gt;|||&gt;87|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter W|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;X|||&gt;|||&gt;88|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter X|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Y|||&gt;|||&gt;89|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Y|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Z|||&gt;|||&gt;90|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Z|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;[|||&gt;|||&gt;91|||&gt;|||&gt; |||&gt;|||&gt;left square bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;\|||&gt;|||&gt;92|||&gt;|||&gt; |||&gt;|||&gt;reverse solidus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;]|||&gt;|||&gt;93|||&gt;|||&gt; |||&gt;|||&gt;right square bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;^|||&gt;|||&gt;94|||&gt;|||&gt; |||&gt;|||&gt;circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;_|||&gt;|||&gt;95|||&gt;|||&gt; |||&gt;|||&gt;low line|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;`|||&gt;|||&gt;96|||&gt;|||&gt; |||&gt;|||&gt;grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;a|||&gt;|||&gt;97|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter a|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;b|||&gt;|||&gt;98|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter b|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;c|||&gt;|||&gt;99|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter c|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;d|||&gt;|||&gt;100|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter d|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;e|||&gt;|||&gt;101|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter e|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;f|||&gt;|||&gt;102|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter f|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;g|||&gt;|||&gt;103|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter g|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;h|||&gt;|||&gt;104|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter h|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;i|||&gt;|||&gt;105|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter i|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;j|||&gt;|||&gt;106|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter j|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;k|||&gt;|||&gt;107|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter k|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;l|||&gt;|||&gt;108|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter l|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;m|||&gt;|||&gt;109|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter m|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;n|||&gt;|||&gt;110|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter n|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;o|||&gt;|||&gt;111|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter o|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;p|||&gt;|||&gt;112|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter p|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;q|||&gt;|||&gt;113|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter q|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;r|||&gt;|||&gt;114|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter r|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;s|||&gt;|||&gt;115|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter s|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;t|||&gt;|||&gt;116|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter t|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;u|||&gt;|||&gt;117|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter u|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;v|||&gt;|||&gt;118|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter v|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;w|||&gt;|||&gt;119|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter w|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;x|||&gt;|||&gt;120|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter x|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;y|||&gt;|||&gt;121|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter y|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;z|||&gt;|||&gt;122|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter z|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;{|||&gt;|||&gt;123|||&gt;|||&gt; |||&gt;|||&gt;left curly bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;||||&gt;|||&gt;124|||&gt;|||&gt; |||&gt;|||&gt;vertical line|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;}|||&gt;|||&gt;125|||&gt;|||&gt; |||&gt;|||&gt;right curly bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;~|||&gt;|||&gt;126|||&gt;|||&gt; |||&gt;|||&gt;tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;127|||&gt;|||&gt; |||&gt;|||&gt;Control character (see below)|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;€|||&gt;|||&gt;128|||&gt;|||&gt;&amp;amp;euro;|||&gt;|||&gt;euro sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;129|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‚|||&gt;|||&gt;130|||&gt;|||&gt;&amp;amp;sbquo;|||&gt;|||&gt;single low-9 quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ƒ|||&gt;|||&gt;131|||&gt;|||&gt;&amp;amp;fnof;|||&gt;|||&gt;Latin small letter f with hook|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;„|||&gt;|||&gt;132|||&gt;|||&gt;&amp;amp;bdquo;|||&gt;|||&gt;double low-9 quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;…|||&gt;|||&gt;133|||&gt;|||&gt;&amp;amp;hellip;|||&gt;|||&gt;horizontal ellipsis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;†|||&gt;|||&gt;134|||&gt;|||&gt;&amp;amp;dagger;|||&gt;|||&gt;dagger|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‡|||&gt;|||&gt;135|||&gt;|||&gt;&amp;amp;Dagger;|||&gt;|||&gt;double dagger|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ˆ|||&gt;|||&gt;136|||&gt;|||&gt;&amp;amp;circ;|||&gt;|||&gt;modifier letter circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‰|||&gt;|||&gt;137|||&gt;|||&gt;&amp;amp;permil;|||&gt;|||&gt;per mille sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Š|||&gt;|||&gt;138|||&gt;|||&gt;&amp;amp;Scaron;|||&gt;|||&gt;Latin capital letter S with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‹|||&gt;|||&gt;139|||&gt;|||&gt;&amp;amp;lsaquo;|||&gt;|||&gt;single left-pointing angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Œ|||&gt;|||&gt;140|||&gt;|||&gt;&amp;amp;OElig;|||&gt;|||&gt;Latin capital ligature OE|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;141|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;Zcaron|||&gt;|||&gt;142|||&gt;|||&gt;&amp;amp;Zcaron;|||&gt;|||&gt;Latin capital letter Z with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;143|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;144|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‘|||&gt;|||&gt;145|||&gt;|||&gt;&amp;amp;lsquo;|||&gt;|||&gt;left single quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;’|||&gt;|||&gt;146|||&gt;|||&gt;&amp;amp;rsquo;|||&gt;|||&gt;right single quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;“|||&gt;|||&gt;147|||&gt;|||&gt;&amp;amp;ldquo;|||&gt;|||&gt;left double quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;”|||&gt;|||&gt;148|||&gt;|||&gt;&amp;amp;rdquo;|||&gt;|||&gt;right double quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;•|||&gt;|||&gt;149|||&gt;|||&gt;&amp;amp;bull;|||&gt;|||&gt;bullet|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;–|||&gt;|||&gt;150|||&gt;|||&gt;&amp;amp;ndash;|||&gt;|||&gt;en dash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;—|||&gt;|||&gt;151|||&gt;|||&gt;&amp;amp;mdash;|||&gt;|||&gt;em dash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;˜|||&gt;|||&gt;152|||&gt;|||&gt;&amp;amp;tilde;|||&gt;|||&gt;small tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;™|||&gt;|||&gt;153|||&gt;|||&gt;&amp;amp;trade;|||&gt;|||&gt;trade mark sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;š|||&gt;|||&gt;154|||&gt;|||&gt;&amp;amp;scaron;|||&gt;|||&gt;Latin small letter s with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;›|||&gt;|||&gt;155|||&gt;|||&gt;&amp;amp;rsaquo;|||&gt;|||&gt;single right-pointing angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;œ|||&gt;|||&gt;156|||&gt;|||&gt;&amp;amp;oelig;|||&gt;|||&gt;Latin small ligature oe|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;157|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;zcaron|||&gt;|||&gt;158|||&gt;|||&gt;&amp;amp;zcaron;|||&gt;|||&gt;Latin small letter z with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ÿ|||&gt;|||&gt;159|||&gt;|||&gt;&amp;amp;Yuml;|||&gt;|||&gt;Latin capital letter Y with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;160|||&gt;|||&gt;&amp;amp;nbsp;|||&gt;|||&gt;no-break space|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¡|||&gt;|||&gt;161|||&gt;|||&gt;&amp;amp;iexcl;|||&gt;|||&gt;inverted exclamation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¢|||&gt;|||&gt;162|||&gt;|||&gt;&amp;amp;cent;|||&gt;|||&gt;cent sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;£|||&gt;|||&gt;163|||&gt;|||&gt;&amp;amp;pound;|||&gt;|||&gt;pound sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¤|||&gt;|||&gt;164|||&gt;|||&gt;&amp;amp;curren;|||&gt;|||&gt;currency sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¥|||&gt;|||&gt;165|||&gt;|||&gt;&amp;amp;yen;|||&gt;|||&gt;yen sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¦|||&gt;|||&gt;166|||&gt;|||&gt;&amp;amp;brvbar;|||&gt;|||&gt;broken bar|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;§|||&gt;|||&gt;167|||&gt;|||&gt;&amp;amp;sect;|||&gt;|||&gt;section sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¨|||&gt;|||&gt;168|||&gt;|||&gt;&amp;amp;uml;|||&gt;|||&gt;diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;©|||&gt;|||&gt;169|||&gt;|||&gt;&amp;amp;copy;|||&gt;|||&gt;copyright sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ª|||&gt;|||&gt;170|||&gt;|||&gt;&amp;amp;ordf;|||&gt;|||&gt;feminine ordinal indicator|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;«|||&gt;|||&gt;171|||&gt;|||&gt;&amp;amp;laquo;|||&gt;|||&gt;left-pointing double angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¬|||&gt;|||&gt;172|||&gt;|||&gt;&amp;amp;not;|||&gt;|||&gt;not sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;­­|||&gt;|||&gt;173|||&gt;|||&gt;&amp;amp;shy;|||&gt;|||&gt;soft hyphen|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;®|||&gt;|||&gt;174|||&gt;|||&gt;&amp;amp;reg;|||&gt;|||&gt;registered sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¯|||&gt;|||&gt;175|||&gt;|||&gt;&amp;amp;macr;|||&gt;|||&gt;macron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;°|||&gt;|||&gt;176|||&gt;|||&gt;&amp;amp;deg;|||&gt;|||&gt;degree sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;±|||&gt;|||&gt;177|||&gt;|||&gt;&amp;amp;plusmn;|||&gt;|||&gt;plus-minus sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;²|||&gt;|||&gt;178|||&gt;|||&gt;&amp;amp;sup2;|||&gt;|||&gt;superscript two|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;³|||&gt;|||&gt;179|||&gt;|||&gt;&amp;amp;sup3;|||&gt;|||&gt;superscript three|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;´|||&gt;|||&gt;180|||&gt;|||&gt;&amp;amp;acute;|||&gt;|||&gt;acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;µ|||&gt;|||&gt;181|||&gt;|||&gt;&amp;amp;micro;|||&gt;|||&gt;micro sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¶|||&gt;|||&gt;182|||&gt;|||&gt;&amp;amp;para;|||&gt;|||&gt;pilcrow sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;·|||&gt;|||&gt;183|||&gt;|||&gt;&amp;amp;middot;|||&gt;|||&gt;middle dot|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¸|||&gt;|||&gt;184|||&gt;|||&gt;&amp;amp;cedil;|||&gt;|||&gt;cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¹|||&gt;|||&gt;185|||&gt;|||&gt;&amp;amp;sup1;|||&gt;|||&gt;superscript one|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;º|||&gt;|||&gt;186|||&gt;|||&gt;&amp;amp;ordm;|||&gt;|||&gt;masculine ordinal indicator|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;»|||&gt;|||&gt;187|||&gt;|||&gt;&amp;amp;raquo;|||&gt;|||&gt;right-pointing double angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¼|||&gt;|||&gt;188|||&gt;|||&gt;&amp;amp;frac14;|||&gt;|||&gt;vulgar fraction one quarter|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;½|||&gt;|||&gt;189|||&gt;|||&gt;&amp;amp;frac12;|||&gt;|||&gt;vulgar fraction one half|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¾|||&gt;|||&gt;190|||&gt;|||&gt;&amp;amp;frac34;|||&gt;|||&gt;vulgar fraction three quarters|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¿|||&gt;|||&gt;191|||&gt;|||&gt;&amp;amp;iquest;|||&gt;|||&gt;inverted question mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;À|||&gt;|||&gt;192|||&gt;|||&gt;&amp;amp;Agrave;|||&gt;|||&gt;Latin capital letter A with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Á|||&gt;|||&gt;193|||&gt;|||&gt;&amp;amp;Aacute;|||&gt;|||&gt;Latin capital letter A with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Â|||&gt;|||&gt;194|||&gt;|||&gt;&amp;amp;Acirc;|||&gt;|||&gt;Latin capital letter A with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ã|||&gt;|||&gt;195|||&gt;|||&gt;&amp;amp;Atilde;|||&gt;|||&gt;Latin capital letter A with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ä|||&gt;|||&gt;196|||&gt;|||&gt;&amp;amp;Auml;|||&gt;|||&gt;Latin capital letter A with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Å|||&gt;|||&gt;197|||&gt;|||&gt;&amp;amp;Aring;|||&gt;|||&gt;Latin capital letter A with ring above|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Æ|||&gt;|||&gt;198|||&gt;|||&gt;&amp;amp;AElig;|||&gt;|||&gt;Latin capital letter AE|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ç|||&gt;|||&gt;199|||&gt;|||&gt;&amp;amp;Ccedil;|||&gt;|||&gt;Latin capital letter C with cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;È|||&gt;|||&gt;200|||&gt;|||&gt;&amp;amp;Egrave;|||&gt;|||&gt;Latin capital letter E with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;É|||&gt;|||&gt;201|||&gt;|||&gt;&amp;amp;Eacute;|||&gt;|||&gt;Latin capital letter E with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ê|||&gt;|||&gt;202|||&gt;|||&gt;&amp;amp;Ecirc;|||&gt;|||&gt;Latin capital letter E with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ë|||&gt;|||&gt;203|||&gt;|||&gt;&amp;amp;Euml;|||&gt;|||&gt;Latin capital letter E with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ì|||&gt;|||&gt;204|||&gt;|||&gt;&amp;amp;Igrave;|||&gt;|||&gt;Latin capital letter I with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Í|||&gt;|||&gt;205|||&gt;|||&gt;&amp;amp;Iacute;|||&gt;|||&gt;Latin capital letter I with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Î|||&gt;|||&gt;206|||&gt;|||&gt;&amp;amp;Icirc;|||&gt;|||&gt;Latin capital letter I with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ï|||&gt;|||&gt;207|||&gt;|||&gt;&amp;amp;Iuml;|||&gt;|||&gt;Latin capital letter I with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ð|||&gt;|||&gt;208|||&gt;|||&gt;&amp;amp;ETH;|||&gt;|||&gt;Latin capital letter Eth|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ñ|||&gt;|||&gt;209|||&gt;|||&gt;&amp;amp;Ntilde;|||&gt;|||&gt;Latin capital letter N with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ò|||&gt;|||&gt;210|||&gt;|||&gt;&amp;amp;Ograve;|||&gt;|||&gt;Latin capital letter O with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ó|||&gt;|||&gt;211|||&gt;|||&gt;&amp;amp;Oacute;|||&gt;|||&gt;Latin capital letter O with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ô|||&gt;|||&gt;212|||&gt;|||&gt;&amp;amp;Ocirc;|||&gt;|||&gt;Latin capital letter O with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Õ|||&gt;|||&gt;213|||&gt;|||&gt;&amp;amp;Otilde;|||&gt;|||&gt;Latin capital letter O with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ö|||&gt;|||&gt;214|||&gt;|||&gt;&amp;amp;Ouml;|||&gt;|||&gt;Latin capital letter O with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;×|||&gt;|||&gt;215|||&gt;|||&gt;&amp;amp;times;|||&gt;|||&gt;multiplication sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ø|||&gt;|||&gt;216|||&gt;|||&gt;&amp;amp;Oslash;|||&gt;|||&gt;Latin capital letter O with stroke|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ù|||&gt;|||&gt;217|||&gt;|||&gt;&amp;amp;Ugrave;|||&gt;|||&gt;Latin capital letter U with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ú|||&gt;|||&gt;218|||&gt;|||&gt;&amp;amp;Uacute;|||&gt;|||&gt;Latin capital letter U with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Û|||&gt;|||&gt;219|||&gt;|||&gt;&amp;amp;Ucirc;|||&gt;|||&gt;Latin capital letter U with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ü|||&gt;|||&gt;220|||&gt;|||&gt;&amp;amp;Uuml;|||&gt;|||&gt;Latin capital letter U with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ý|||&gt;|||&gt;221|||&gt;|||&gt;&amp;amp;Yacute;|||&gt;|||&gt;Latin capital letter Y with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Þ|||&gt;|||&gt;222|||&gt;|||&gt;&amp;amp;THORN;|||&gt;|||&gt;Latin capital letter Thorn|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ß|||&gt;|||&gt;223|||&gt;|||&gt;&amp;amp;szlig;|||&gt;|||&gt;Latin small letter sharp s|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;à|||&gt;|||&gt;224|||&gt;|||&gt;&amp;amp;agrave;|||&gt;|||&gt;Latin small letter a with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;á|||&gt;|||&gt;225|||&gt;|||&gt;&amp;amp;aacute;|||&gt;|||&gt;Latin small letter a with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;â|||&gt;|||&gt;226|||&gt;|||&gt;&amp;amp;acirc;|||&gt;|||&gt;Latin small letter a with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ã|||&gt;|||&gt;227|||&gt;|||&gt;&amp;amp;atilde;|||&gt;|||&gt;Latin small letter a with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ä|||&gt;|||&gt;228|||&gt;|||&gt;&amp;amp;auml;|||&gt;|||&gt;Latin small letter a with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;å|||&gt;|||&gt;229|||&gt;|||&gt;&amp;amp;aring;|||&gt;|||&gt;Latin small letter a with ring above|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;æ|||&gt;|||&gt;230|||&gt;|||&gt;&amp;amp;aelig;|||&gt;|||&gt;Latin small letter ae|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ç|||&gt;|||&gt;231|||&gt;|||&gt;&amp;amp;ccedil;|||&gt;|||&gt;Latin small letter c with cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;è|||&gt;|||&gt;232|||&gt;|||&gt;&amp;amp;egrave;|||&gt;|||&gt;Latin small letter e with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;é|||&gt;|||&gt;233|||&gt;|||&gt;&amp;amp;eacute;|||&gt;|||&gt;Latin small letter e with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ê|||&gt;|||&gt;234|||&gt;|||&gt;&amp;amp;ecirc;|||&gt;|||&gt;Latin small letter e with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ë|||&gt;|||&gt;235|||&gt;|||&gt;&amp;amp;euml;|||&gt;|||&gt;Latin small letter e with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ì|||&gt;|||&gt;236|||&gt;|||&gt;&amp;amp;igrave;|||&gt;|||&gt;Latin small letter i with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;í|||&gt;|||&gt;237|||&gt;|||&gt;&amp;amp;iacute;|||&gt;|||&gt;Latin small letter i with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;î|||&gt;|||&gt;238|||&gt;|||&gt;&amp;amp;icirc;|||&gt;|||&gt;Latin small letter i with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ï|||&gt;|||&gt;239|||&gt;|||&gt;&amp;amp;iuml;|||&gt;|||&gt;Latin small letter i with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ð|||&gt;|||&gt;240|||&gt;|||&gt;&amp;amp;eth;|||&gt;|||&gt;Latin small letter eth|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ñ|||&gt;|||&gt;241|||&gt;|||&gt;&amp;amp;ntilde;|||&gt;|||&gt;Latin small letter n with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ò|||&gt;|||&gt;242|||&gt;|||&gt;&amp;amp;ograve;|||&gt;|||&gt;Latin small letter o with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ó|||&gt;|||&gt;243|||&gt;|||&gt;&amp;amp;oacute;|||&gt;|||&gt;Latin small letter o with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ô|||&gt;|||&gt;244|||&gt;|||&gt;&amp;amp;ocirc;|||&gt;|||&gt;Latin small letter o with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;õ|||&gt;|||&gt;245|||&gt;|||&gt;&amp;amp;otilde;|||&gt;|||&gt;Latin small letter o with tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ö|||&gt;|||&gt;246|||&gt;|||&gt;&amp;amp;ouml;|||&gt;|||&gt;Latin small letter o with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;÷|||&gt;|||&gt;247|||&gt;|||&gt;&amp;amp;divide;|||&gt;|||&gt;division sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ø|||&gt;|||&gt;248|||&gt;|||&gt;&amp;amp;oslash;|||&gt;|||&gt;Latin small letter o with stroke|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ù|||&gt;|||&gt;249|||&gt;|||&gt;&amp;amp;ugrave;|||&gt;|||&gt;Latin small letter u with grave|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ú|||&gt;|||&gt;250|||&gt;|||&gt;&amp;amp;uacute;|||&gt;|||&gt;Latin small letter u with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;û|||&gt;|||&gt;251|||&gt;|||&gt;&amp;amp;ucirc;|||&gt;|||&gt;Latin small letter u with circumflex|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ü|||&gt;|||&gt;252|||&gt;|||&gt;&amp;amp;uuml;|||&gt;|||&gt;Latin small letter u with diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ý|||&gt;|||&gt;253|||&gt;|||&gt;&amp;amp;yacute;|||&gt;|||&gt;Latin small letter y with acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;þ|||&gt;|||&gt;254|||&gt;|||&gt;&amp;amp;thorn;|||&gt;|||&gt;Latin small letter thorn|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ÿ|||&gt;|||&gt;255|||&gt;|||&gt;&amp;amp;yuml;|||&gt;|||&gt;Latin small letter y with diaeresis|||&gt;&amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt; Char||| &lt;th style="width:10%"&gt;Number||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;NUL|||&gt; |||&gt;00|||&gt; |||&gt;null character|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SOH|||&gt; |||&gt;01|||&gt; |||&gt;start of header|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;STX|||&gt; |||&gt;02|||&gt; |||&gt;start of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ETX|||&gt; |||&gt;03|||&gt; |||&gt;end of text|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EOT|||&gt; |||&gt;04|||&gt; |||&gt;end of transmission|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ENQ|||&gt; |||&gt;05|||&gt; |||&gt;enquiry|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ACK|||&gt; |||&gt;06|||&gt; |||&gt;acknowledge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BEL|||&gt; |||&gt;07|||&gt; |||&gt;bell (ring)|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;BS|||&gt; |||&gt;08|||&gt; |||&gt;backspace|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;HT|||&gt; |||&gt;09|||&gt; |||&gt;horizontal tab|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;LF|||&gt; |||&gt;10|||&gt; |||&gt;line feed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;VT|||&gt; |||&gt;11|||&gt; |||&gt;vertical tab|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;FF|||&gt; |||&gt;12|||&gt; |||&gt;form feed|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CR|||&gt; |||&gt;13|||&gt; |||&gt;carriage return|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SO|||&gt; |||&gt;14|||&gt; |||&gt;shift out|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SI|||&gt; |||&gt;15|||&gt; |||&gt;shift in|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DLE|||&gt; |||&gt;16|||&gt; |||&gt;data link escape|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC1|||&gt; |||&gt;17|||&gt; |||&gt;device control 1|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC2|||&gt; |||&gt;18|||&gt; |||&gt;device control 2|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC3|||&gt; |||&gt;19|||&gt; |||&gt;device control 3|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DC4|||&gt; |||&gt;20|||&gt; |||&gt;device control 4|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;NAK|||&gt; |||&gt;21|||&gt; |||&gt;negative acknowledge|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SYN|||&gt; |||&gt;22|||&gt; |||&gt;synchronize|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ETB|||&gt; |||&gt;23|||&gt; |||&gt;end transmission block|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;CAN|||&gt; |||&gt;24|||&gt; |||&gt;cancel|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;EM|||&gt; |||&gt;25|||&gt; |||&gt;end of medium|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;SUB|||&gt; |||&gt;26|||&gt; |||&gt;substitute|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;ESC|||&gt; |||&gt;27|||&gt; |||&gt;escape|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;FS|||&gt; |||&gt;28|||&gt; |||&gt;file separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;GS|||&gt; |||&gt;29|||&gt; |||&gt;group separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;RS|||&gt; |||&gt;30|||&gt; |||&gt;record separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;US|||&gt; |||&gt;31|||&gt; |||&gt;unit separator|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; |||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;DEL|||&gt; |||&gt;127|||&gt; |||&gt;delete (rubout)|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//charsets/ref_html_ansi.asp</t>
   </si>
   <si>
@@ -1285,9 +1210,6 @@
     <t>['ISO-8859-1 was the default character in HTML 4.01.', 'ISO (The International Standards Organization) defines the standard character \nsets for different alphabets/languages.', 'The different variants of ISO-8859 are listed at the bottom of this page.', 'The first part of ISO-8859-1 (entity numbers from 0-127) is the original \nASCII character-set. It contains numbers, upper and lowercase English letters, \nand some special characters.', 'For a closer look, please study our Complete \nASCII Reference.', 'ISO-8859-1 is very similar to Windows-1252.', 'In ISO-8859-1, the characters from 128 to 159 are not defined. \n ', 'In Windows-1252, the characters from 128 to 159 are used for some useful symbols.', 'For a closer look, please study our Complete ANSI \n(Windows-1252) Reference.', 'Since many web sites declare ISO-8859-1 and use the values from 128 to 159 as if they \nwere using Windows-1252, most browsers will display these characters from the Windows-1252 character set instead of nothing.', 'The next part of ISO-8859-1 (codes from 160-191) contains commonly used \nspecial characters.', 'The higher part of ISO-8859-1 (codes from 192-255, except 215 and 247) \ncontains characters used in Western European countries.', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Character||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity Name||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;0 - 31|||&gt;|||&gt; |||&gt;|||&gt;Control characters|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;32|||&gt;|||&gt; |||&gt;|||&gt;space|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;!|||&gt;|||&gt;33|||&gt;|||&gt; |||&gt;|||&gt;exclamation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;"|||&gt;|||&gt;34|||&gt;|||&gt;&amp;amp;quot;|||&gt;|||&gt;quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;#|||&gt;|||&gt;35|||&gt;|||&gt; |||&gt;|||&gt;number sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;$|||&gt;|||&gt;36|||&gt;|||&gt; |||&gt;|||&gt;dollar sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;%|||&gt;|||&gt;37|||&gt;|||&gt; |||&gt;|||&gt;percent sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;|||&gt;|||&gt;38|||&gt;|||&gt;&amp;amp;amp;|||&gt;|||&gt;ampersand|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;'|||&gt;|||&gt;39|||&gt;|||&gt; |||&gt;|||&gt;apostrophe|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;(|||&gt;|||&gt;40|||&gt;|||&gt; |||&gt;|||&gt;left parenthesis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;)|||&gt;|||&gt;41|||&gt;|||&gt; |||&gt;|||&gt;right parenthesis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;*|||&gt;|||&gt;42|||&gt;|||&gt; |||&gt;|||&gt;asterisk|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;+|||&gt;|||&gt;43|||&gt;|||&gt; |||&gt;|||&gt;plus sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;,|||&gt;|||&gt;44|||&gt;|||&gt; |||&gt;|||&gt;comma|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;-|||&gt;|||&gt;45|||&gt;|||&gt; |||&gt;|||&gt;hyphen-minus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;.|||&gt;|||&gt;46|||&gt;|||&gt; |||&gt;|||&gt;full stop|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;/|||&gt;|||&gt;47|||&gt;|||&gt; |||&gt;|||&gt;solidus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;0|||&gt;|||&gt;48|||&gt;|||&gt; |||&gt;|||&gt;digit zero|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;1|||&gt;|||&gt;49|||&gt;|||&gt; |||&gt;|||&gt;digit one|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;2|||&gt;|||&gt;50|||&gt;|||&gt; |||&gt;|||&gt;digit two|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;3|||&gt;|||&gt;51|||&gt;|||&gt; |||&gt;|||&gt;digit three|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;4|||&gt;|||&gt;52|||&gt;|||&gt; |||&gt;|||&gt;digit four|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;5|||&gt;|||&gt;53|||&gt;|||&gt; |||&gt;|||&gt;digit five|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;6|||&gt;|||&gt;54|||&gt;|||&gt; |||&gt;|||&gt;digit six|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;7|||&gt;|||&gt;55|||&gt;|||&gt; |||&gt;|||&gt;digit seven|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8|||&gt;|||&gt;56|||&gt;|||&gt; |||&gt;|||&gt;digit eight|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;9|||&gt;|||&gt;57|||&gt;|||&gt; |||&gt;|||&gt;digit nine|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;:|||&gt;|||&gt;58|||&gt;|||&gt; |||&gt;|||&gt;colon|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;;|||&gt;|||&gt;59|||&gt;|||&gt; |||&gt;|||&gt;semicolon|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;lt;|||&gt;|||&gt;60|||&gt;|||&gt;&amp;amp;lt;|||&gt;|||&gt;less-than sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;=|||&gt;|||&gt;61|||&gt;|||&gt; |||&gt;|||&gt;equals sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;gt;|||&gt;|||&gt;62|||&gt;|||&gt;&amp;amp;gt;|||&gt;|||&gt;greater-than sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;?|||&gt;|||&gt;63|||&gt;|||&gt; |||&gt;|||&gt;question mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;@|||&gt;|||&gt;64|||&gt;|||&gt; |||&gt;|||&gt;commercial at|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;A|||&gt;|||&gt;65|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter A|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;B|||&gt;|||&gt;66|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter B|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;C|||&gt;|||&gt;67|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter C|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;D|||&gt;|||&gt;68|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter D|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;E|||&gt;|||&gt;69|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter E|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;F|||&gt;|||&gt;70|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter F|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;G|||&gt;|||&gt;71|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter G|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;H|||&gt;|||&gt;72|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter H|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;I|||&gt;|||&gt;73|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter I|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;J|||&gt;|||&gt;74|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter J|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;K|||&gt;|||&gt;75|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter K|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;L|||&gt;|||&gt;76|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter L|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;M|||&gt;|||&gt;77|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter M|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;N|||&gt;|||&gt;78|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter N|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;O|||&gt;|||&gt;79|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter O|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;P|||&gt;|||&gt;80|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter P|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Q|||&gt;|||&gt;81|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Q|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;R|||&gt;|||&gt;82|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter R|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;S|||&gt;|||&gt;83|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter S|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;T|||&gt;|||&gt;84|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter T|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;U|||&gt;|||&gt;85|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter U|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;V|||&gt;|||&gt;86|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter V|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;W|||&gt;|||&gt;87|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter W|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;X|||&gt;|||&gt;88|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter X|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Y|||&gt;|||&gt;89|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Y|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Z|||&gt;|||&gt;90|||&gt;|||&gt; |||&gt;|||&gt;Latin capital letter Z|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;[|||&gt;|||&gt;91|||&gt;|||&gt; |||&gt;|||&gt;left square bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;\|||&gt;|||&gt;92|||&gt;|||&gt; |||&gt;|||&gt;reverse solidus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;]|||&gt;|||&gt;93|||&gt;|||&gt; |||&gt;|||&gt;right square bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;^|||&gt;|||&gt;94|||&gt;|||&gt; |||&gt;|||&gt;circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;_|||&gt;|||&gt;95|||&gt;|||&gt; |||&gt;|||&gt;low line|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;`|||&gt;|||&gt;96|||&gt;|||&gt; |||&gt;|||&gt;grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;a|||&gt;|||&gt;97|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter a|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;b|||&gt;|||&gt;98|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter b|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;c|||&gt;|||&gt;99|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter c|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;d|||&gt;|||&gt;100|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter d|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;e|||&gt;|||&gt;101|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter e|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;f|||&gt;|||&gt;102|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter f|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;g|||&gt;|||&gt;103|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter g|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;h|||&gt;|||&gt;104|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter h|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;i|||&gt;|||&gt;105|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter i|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;j|||&gt;|||&gt;106|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter j|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;k|||&gt;|||&gt;107|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter k|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;l|||&gt;|||&gt;108|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter l|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;m|||&gt;|||&gt;109|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter m|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;n|||&gt;|||&gt;110|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter n|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;o|||&gt;|||&gt;111|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter o|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;p|||&gt;|||&gt;112|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter p|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;q|||&gt;|||&gt;113|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter q|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;r|||&gt;|||&gt;114|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter r|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;s|||&gt;|||&gt;115|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter s|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;t|||&gt;|||&gt;116|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter t|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;u|||&gt;|||&gt;117|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter u|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;v|||&gt;|||&gt;118|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter v|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;w|||&gt;|||&gt;119|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter w|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;x|||&gt;|||&gt;120|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter x|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;y|||&gt;|||&gt;121|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter y|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;z|||&gt;|||&gt;122|||&gt;|||&gt; |||&gt;|||&gt;Latin small letter z|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;{|||&gt;|||&gt;123|||&gt;|||&gt; |||&gt;|||&gt;left curly bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;||||&gt;|||&gt;124|||&gt;|||&gt; |||&gt;|||&gt;vertical line|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;}|||&gt;|||&gt;125|||&gt;|||&gt; |||&gt;|||&gt;right curly bracket|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;~|||&gt;|||&gt;126|||&gt;|||&gt; |||&gt;|||&gt;tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;127|||&gt;|||&gt; |||&gt;|||&gt;Control character|||&gt;&amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Character||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity Name||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt;€|||&gt;|||&gt;128|||&gt;|||&gt;&amp;amp;euro;|||&gt;|||&gt;euro sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;129|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‚|||&gt;|||&gt;130|||&gt;|||&gt;&amp;amp;sbquo;|||&gt;|||&gt;single low-9 quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ƒ|||&gt;|||&gt;131|||&gt;|||&gt;&amp;amp;fnof;|||&gt;|||&gt;Latin small letter f with hook|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;„|||&gt;|||&gt;132|||&gt;|||&gt;&amp;amp;bdquo;|||&gt;|||&gt;double low-9 quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;…|||&gt;|||&gt;133|||&gt;|||&gt;&amp;amp;hellip;|||&gt;|||&gt;horizontal ellipsis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;†|||&gt;|||&gt;134|||&gt;|||&gt;&amp;amp;dagger;|||&gt;|||&gt;dagger|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‡|||&gt;|||&gt;135|||&gt;|||&gt;&amp;amp;Dagger;|||&gt;|||&gt;double dagger|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ˆ|||&gt;|||&gt;136|||&gt;|||&gt;&amp;amp;circ;|||&gt;|||&gt;modifier letter circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‰|||&gt;|||&gt;137|||&gt;|||&gt;&amp;amp;permil;|||&gt;|||&gt;per mille sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Š|||&gt;|||&gt;138|||&gt;|||&gt;&amp;amp;Scaron;|||&gt;|||&gt;Latin capital letter S with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‹|||&gt;|||&gt;139|||&gt;|||&gt;&amp;amp;lsaquo;|||&gt;|||&gt;single left-pointing angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Œ|||&gt;|||&gt;140|||&gt;|||&gt;&amp;amp;OElig;|||&gt;|||&gt;Latin capital ligature OE|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;141|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;Zcaron|||&gt;|||&gt;142|||&gt;|||&gt;&amp;amp;Zcaron;|||&gt;|||&gt;Latin capital letter Z with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;143|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;144|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;‘|||&gt;|||&gt;145|||&gt;|||&gt;&amp;amp;lsquo;|||&gt;|||&gt;left single quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;’|||&gt;|||&gt;146|||&gt;|||&gt;&amp;amp;rsquo;|||&gt;|||&gt;right single quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;“|||&gt;|||&gt;147|||&gt;|||&gt;&amp;amp;ldquo;|||&gt;|||&gt;left double quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;”|||&gt;|||&gt;148|||&gt;|||&gt;&amp;amp;rdquo;|||&gt;|||&gt;right double quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;•|||&gt;|||&gt;149|||&gt;|||&gt;&amp;amp;bull;|||&gt;|||&gt;bullet|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;–|||&gt;|||&gt;150|||&gt;|||&gt;&amp;amp;ndash;|||&gt;|||&gt;en dash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;—|||&gt;|||&gt;151|||&gt;|||&gt;&amp;amp;mdash;|||&gt;|||&gt;em dash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;˜|||&gt;|||&gt;152|||&gt;|||&gt;&amp;amp;tilde;|||&gt;|||&gt;small tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;™|||&gt;|||&gt;153|||&gt;|||&gt;&amp;amp;trade;|||&gt;|||&gt;trade mark sign|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;š|||&gt;|||&gt;154|||&gt;|||&gt;&amp;amp;scaron;|||&gt;|||&gt;Latin small letter s with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;›|||&gt;|||&gt;155|||&gt;|||&gt;&amp;amp;rsaquo;|||&gt;|||&gt;single right-pointing angle quotation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;œ|||&gt;|||&gt;156|||&gt;|||&gt;&amp;amp;oelig;|||&gt;|||&gt;Latin small ligature oe|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;157|||&gt;|||&gt; |||&gt;|||&gt;NOT USED|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;&amp;amp;zcaron|||&gt;|||&gt;158|||&gt;|||&gt;&amp;amp;zcaron;|||&gt;|||&gt;Latin small letter z with caron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ÿ|||&gt;|||&gt;159|||&gt;|||&gt;&amp;amp;Yuml;|||&gt;|||&gt;Latin capital letter Y with diaeresis|||&gt;&amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:15%"&gt;Character||| &lt;th style="width:15%"&gt;Entity Number||| &lt;th style="width:15%"&gt;Entity Name||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt; |||&gt;|||&gt;&amp;amp;#160;|||&gt;|||&gt;&amp;amp;nbsp;|||&gt;|||&gt;non-breaking space|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¡|||&gt;|||&gt;&amp;amp;#161;|||&gt;|||&gt;&amp;amp;iexcl;|||&gt;|||&gt;inverted exclamation mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¢|||&gt;|||&gt;&amp;amp;#162;|||&gt;|||&gt;&amp;amp;cent;|||&gt;|||&gt;cent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;£|||&gt;|||&gt;&amp;amp;#163;|||&gt;|||&gt;&amp;amp;pound;|||&gt;|||&gt;pound|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¤|||&gt;|||&gt;&amp;amp;#164;|||&gt;|||&gt;&amp;amp;curren;|||&gt;|||&gt;currency|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¥|||&gt;|||&gt;&amp;amp;#165;|||&gt;|||&gt;&amp;amp;yen;|||&gt;|||&gt;yen|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¦|||&gt;|||&gt;&amp;amp;#166;|||&gt;|||&gt;&amp;amp;brvbar;|||&gt;|||&gt;broken vertical bar|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;§|||&gt;|||&gt;&amp;amp;#167;|||&gt;|||&gt;&amp;amp;sect;|||&gt;|||&gt;section|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¨|||&gt;|||&gt;&amp;amp;#168;|||&gt;|||&gt;&amp;amp;uml;|||&gt;|||&gt;spacing diaeresis|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;©|||&gt;|||&gt;&amp;amp;#169;|||&gt;|||&gt;&amp;amp;copy;|||&gt;|||&gt;copyright|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ª|||&gt;|||&gt;&amp;amp;#170;|||&gt;|||&gt;&amp;amp;ordf;|||&gt;|||&gt;feminine ordinal indicator|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;«|||&gt;|||&gt;&amp;amp;#171;|||&gt;|||&gt;&amp;amp;laquo;|||&gt;|||&gt;angle quotation mark (left)|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¬|||&gt;|||&gt;&amp;amp;#172;|||&gt;|||&gt;&amp;amp;not;|||&gt;|||&gt;negation|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;­|||&gt;|||&gt;&amp;amp;#173;|||&gt;|||&gt;&amp;amp;shy;|||&gt;|||&gt;soft hyphen|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;®|||&gt;|||&gt;&amp;amp;#174;|||&gt;|||&gt;&amp;amp;reg;|||&gt;|||&gt;registered trademark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¯|||&gt;|||&gt;&amp;amp;#175;|||&gt;|||&gt;&amp;amp;macr;|||&gt;|||&gt;spacing macron|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;°|||&gt;|||&gt;&amp;amp;#176;|||&gt;|||&gt;&amp;amp;deg;|||&gt;|||&gt;degree|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;±|||&gt;|||&gt;&amp;amp;#177;|||&gt;|||&gt;&amp;amp;plusmn;|||&gt;|||&gt;plus-or-minus|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;²|||&gt;|||&gt;&amp;amp;#178;|||&gt;|||&gt;&amp;amp;sup2;|||&gt;|||&gt;superscript 2|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;³|||&gt;|||&gt;&amp;amp;#179;|||&gt;|||&gt;&amp;amp;sup3;|||&gt;|||&gt;superscript 3|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;´|||&gt;|||&gt;&amp;amp;#180;|||&gt;|||&gt;&amp;amp;acute;|||&gt;|||&gt;spacing acute|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;µ|||&gt;|||&gt;&amp;amp;#181;|||&gt;|||&gt;&amp;amp;micro;|||&gt;|||&gt;micro|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¶|||&gt;|||&gt;&amp;amp;#182;|||&gt;|||&gt;&amp;amp;para;|||&gt;|||&gt;paragraph|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;·|||&gt;|||&gt;&amp;amp;#183;|||&gt;|||&gt;&amp;amp;middot;|||&gt;|||&gt;middle dot|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¸|||&gt;|||&gt;&amp;amp;#184;|||&gt;|||&gt;&amp;amp;cedil;|||&gt;|||&gt;spacing cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¹|||&gt;|||&gt;&amp;amp;#185;|||&gt;|||&gt;&amp;amp;sup1;|||&gt;|||&gt;superscript 1|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;º|||&gt;|||&gt;&amp;amp;#186;|||&gt;|||&gt;&amp;amp;ordm;|||&gt;|||&gt;masculine ordinal indicator|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;»|||&gt;|||&gt;&amp;amp;#187;|||&gt;|||&gt;&amp;amp;raquo;|||&gt;|||&gt;angle quotation mark (right)|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¼|||&gt;|||&gt;&amp;amp;#188;|||&gt;|||&gt;&amp;amp;frac14;|||&gt;|||&gt;fraction 1/4|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;½|||&gt;|||&gt;&amp;amp;#189;|||&gt;|||&gt;&amp;amp;frac12;|||&gt;|||&gt;fraction 1/2|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¾|||&gt;|||&gt;&amp;amp;#190;|||&gt;|||&gt;&amp;amp;frac34;|||&gt;|||&gt;fraction 3/4|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;¿|||&gt;|||&gt;&amp;amp;#191;|||&gt;|||&gt;&amp;amp;iquest;|||&gt;|||&gt;inverted question mark|||&gt;&amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:15%"&gt;Character||| &lt;th style="width:15%"&gt;Entity Number||| &lt;th style="width:15%"&gt;Entity Name||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt;À|||&gt;|||&gt;&amp;amp;#192;|||&gt;|||&gt;&amp;amp;Agrave;|||&gt;|||&gt;capital a, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Á|||&gt;|||&gt;&amp;amp;#193;|||&gt;|||&gt;&amp;amp;Aacute;|||&gt;|||&gt;capital a, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Â|||&gt;|||&gt;&amp;amp;#194;|||&gt;|||&gt;&amp;amp;Acirc;|||&gt;|||&gt;capital a, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ã|||&gt;|||&gt;&amp;amp;#195;|||&gt;|||&gt;&amp;amp;Atilde;|||&gt;|||&gt;capital a, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ä|||&gt;|||&gt;&amp;amp;#196;|||&gt;|||&gt;&amp;amp;Auml;|||&gt;|||&gt;capital a, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Å|||&gt;|||&gt;&amp;amp;#197;|||&gt;|||&gt;&amp;amp;Aring;|||&gt;|||&gt;capital a, ring|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Æ|||&gt;|||&gt;&amp;amp;#198;|||&gt;|||&gt;&amp;amp;AElig;|||&gt;|||&gt;capital ae|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ç|||&gt;|||&gt;&amp;amp;#199;|||&gt;|||&gt;&amp;amp;Ccedil;|||&gt;|||&gt;capital c, cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;È|||&gt;|||&gt;&amp;amp;#200;|||&gt;|||&gt;&amp;amp;Egrave;|||&gt;|||&gt;capital e, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;É|||&gt;|||&gt;&amp;amp;#201;|||&gt;|||&gt;&amp;amp;Eacute;|||&gt;|||&gt;capital e, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ê|||&gt;|||&gt;&amp;amp;#202;|||&gt;|||&gt;&amp;amp;Ecirc;|||&gt;|||&gt;capital e, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ë|||&gt;|||&gt;&amp;amp;#203;|||&gt;|||&gt;&amp;amp;Euml;|||&gt;|||&gt;capital e, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ì|||&gt;|||&gt;&amp;amp;#204;|||&gt;|||&gt;&amp;amp;Igrave;|||&gt;|||&gt;capital i, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Í|||&gt;|||&gt;&amp;amp;#205;|||&gt;|||&gt;&amp;amp;Iacute;|||&gt;|||&gt;capital i, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Î|||&gt;|||&gt;&amp;amp;#206;|||&gt;|||&gt;&amp;amp;Icirc;|||&gt;|||&gt;capital i, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ï|||&gt;|||&gt;&amp;amp;#207;|||&gt;|||&gt;&amp;amp;Iuml;|||&gt;|||&gt;capital i, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ð|||&gt;|||&gt;&amp;amp;#208;|||&gt;|||&gt;&amp;amp;ETH;|||&gt;|||&gt;capital eth, Icelandic|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ñ|||&gt;|||&gt;&amp;amp;#209;|||&gt;|||&gt;&amp;amp;Ntilde;|||&gt;|||&gt;capital n, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ò|||&gt;|||&gt;&amp;amp;#210;|||&gt;|||&gt;&amp;amp;Ograve;|||&gt;|||&gt;capital o, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ó|||&gt;|||&gt;&amp;amp;#211;|||&gt;|||&gt;&amp;amp;Oacute;|||&gt;|||&gt;capital o, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ô|||&gt;|||&gt;&amp;amp;#212;|||&gt;|||&gt;&amp;amp;Ocirc;|||&gt;|||&gt;capital o, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Õ|||&gt;|||&gt;&amp;amp;#213;|||&gt;|||&gt;&amp;amp;Otilde;|||&gt;|||&gt;capital o, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ö|||&gt;|||&gt;&amp;amp;#214;|||&gt;|||&gt;&amp;amp;Ouml;|||&gt;|||&gt;capital o, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;×|||&gt;|||&gt;&amp;amp;#215;|||&gt;|||&gt;&amp;amp;times;|||&gt;|||&gt;multiplication|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ø|||&gt;|||&gt;&amp;amp;#216;|||&gt;|||&gt;&amp;amp;Oslash;|||&gt;|||&gt;capital o, slash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ù|||&gt;|||&gt;&amp;amp;#217;|||&gt;|||&gt;&amp;amp;Ugrave;|||&gt;|||&gt;capital u, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ú|||&gt;|||&gt;&amp;amp;#218;|||&gt;|||&gt;&amp;amp;Uacute;|||&gt;|||&gt;capital u, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Û|||&gt;|||&gt;&amp;amp;#219;|||&gt;|||&gt;&amp;amp;Ucirc;|||&gt;|||&gt;capital u, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ü|||&gt;|||&gt;&amp;amp;#220;|||&gt;|||&gt;&amp;amp;Uuml;|||&gt;|||&gt;capital u, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Ý|||&gt;|||&gt;&amp;amp;#221;|||&gt;|||&gt;&amp;amp;Yacute;|||&gt;|||&gt;capital y, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;Þ|||&gt;|||&gt;&amp;amp;#222;|||&gt;|||&gt;&amp;amp;THORN;|||&gt;|||&gt;capital THORN, Icelandic|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ß|||&gt;|||&gt;&amp;amp;#223;|||&gt;|||&gt;&amp;amp;szlig;|||&gt;|||&gt;small sharp s, German|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;à|||&gt;|||&gt;&amp;amp;#224;|||&gt;|||&gt;&amp;amp;agrave;|||&gt;|||&gt;small a, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;á|||&gt;|||&gt;&amp;amp;#225;|||&gt;|||&gt;&amp;amp;aacute;|||&gt;|||&gt;small a, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;â|||&gt;|||&gt;&amp;amp;#226;|||&gt;|||&gt;&amp;amp;acirc;|||&gt;|||&gt;small a, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ã|||&gt;|||&gt;&amp;amp;#227;|||&gt;|||&gt;&amp;amp;atilde;|||&gt;|||&gt;small a, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ä|||&gt;|||&gt;&amp;amp;#228;|||&gt;|||&gt;&amp;amp;auml;|||&gt;|||&gt;small a, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;å|||&gt;|||&gt;&amp;amp;#229;|||&gt;|||&gt;&amp;amp;aring;|||&gt;|||&gt;small a, ring|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;æ|||&gt;|||&gt;&amp;amp;#230;|||&gt;|||&gt;&amp;amp;aelig;|||&gt;|||&gt;small ae|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ç|||&gt;|||&gt;&amp;amp;#231;|||&gt;|||&gt;&amp;amp;ccedil;|||&gt;|||&gt;small c, cedilla|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;è|||&gt;|||&gt;&amp;amp;#232;|||&gt;|||&gt;&amp;amp;egrave;|||&gt;|||&gt;small e, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;é|||&gt;|||&gt;&amp;amp;#233;|||&gt;|||&gt;&amp;amp;eacute;|||&gt;|||&gt;small e, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ê|||&gt;|||&gt;&amp;amp;#234;|||&gt;|||&gt;&amp;amp;ecirc;|||&gt;|||&gt;small e, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ë|||&gt;|||&gt;&amp;amp;#235;|||&gt;|||&gt;&amp;amp;euml;|||&gt;|||&gt;small e, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ì|||&gt;|||&gt;&amp;amp;#236;|||&gt;|||&gt;&amp;amp;igrave;|||&gt;|||&gt;small i, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;í|||&gt;|||&gt;&amp;amp;#237;|||&gt;|||&gt;&amp;amp;iacute;|||&gt;|||&gt;small i, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;î|||&gt;|||&gt;&amp;amp;#238;|||&gt;|||&gt;&amp;amp;icirc;|||&gt;|||&gt;small i, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ï|||&gt;|||&gt;&amp;amp;#239;|||&gt;|||&gt;&amp;amp;iuml;|||&gt;|||&gt;small i, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ð|||&gt;|||&gt;&amp;amp;#240;|||&gt;|||&gt;&amp;amp;eth;|||&gt;|||&gt;small eth, Icelandic|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ñ|||&gt;|||&gt;&amp;amp;#241;|||&gt;|||&gt;&amp;amp;ntilde;|||&gt;|||&gt;small n, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ò|||&gt;|||&gt;&amp;amp;#242;|||&gt;|||&gt;&amp;amp;ograve;|||&gt;|||&gt;small o, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ó|||&gt;|||&gt;&amp;amp;#243;|||&gt;|||&gt;&amp;amp;oacute;|||&gt;|||&gt;small o, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ô|||&gt;|||&gt;&amp;amp;#244;|||&gt;|||&gt;&amp;amp;ocirc;|||&gt;|||&gt;small o, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;õ|||&gt;|||&gt;&amp;amp;#245;|||&gt;|||&gt;&amp;amp;otilde;|||&gt;|||&gt;small o, tilde|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ö|||&gt;|||&gt;&amp;amp;#246;|||&gt;|||&gt;&amp;amp;ouml;|||&gt;|||&gt;small o, umlaut mark|||&gt; &amp;&amp;&amp;|||&gt;÷|||&gt;|||&gt;&amp;amp;#247;|||&gt;|||&gt;&amp;amp;divide;|||&gt;|||&gt;division|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ø|||&gt;|||&gt;&amp;amp;#248;|||&gt;|||&gt;&amp;amp;oslash;|||&gt;|||&gt;small o, slash|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ù|||&gt;|||&gt;&amp;amp;#249;|||&gt;|||&gt;&amp;amp;ugrave;|||&gt;|||&gt;small u, grave accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ú|||&gt;|||&gt;&amp;amp;#250;|||&gt;|||&gt;&amp;amp;uacute;|||&gt;|||&gt;small u, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;û|||&gt;|||&gt;&amp;amp;#251;|||&gt;|||&gt;&amp;amp;ucirc;|||&gt;|||&gt;small u, circumflex accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ü|||&gt;|||&gt;&amp;amp;#252;|||&gt;|||&gt;&amp;amp;uuml;|||&gt;|||&gt;small u, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ý|||&gt;|||&gt;&amp;amp;#253;|||&gt;|||&gt;&amp;amp;yacute;|||&gt;|||&gt;small y, acute accent|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;þ|||&gt;|||&gt;&amp;amp;#254;|||&gt;|||&gt;&amp;amp;thorn;|||&gt;|||&gt;small thorn, Icelandic|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;ÿ|||&gt;|||&gt;&amp;amp;#255;|||&gt;|||&gt;&amp;amp;yuml;|||&gt;|||&gt;small y, umlaut mark|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;&lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:130px"&gt;Number||| &lt;th style="width:180px"&gt;Description||| |||Covers||| &amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-1|||&gt;|||&gt;Latin 1|||&gt;|||&gt;North America, Western Europe, Latin America, the Caribbean, Canada, Africa.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-2|||&gt;|||&gt;Latin 2|||&gt;|||&gt;Eastern Europe.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-3|||&gt;|||&gt;Latin 3|||&gt;|||&gt;SE Europe, Esperanto, miscellaneous others.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-4|||&gt;|||&gt;Latin 4|||&gt;|||&gt;Scandinavia/Baltics (and others not in ISO-8859-1).|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-5|||&gt;|||&gt;Latin/Cyrillic|||&gt;|||&gt;The Cyrillic alphabet. Bulgarian, Belarusian, Russian and Macedonian.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-6|||&gt;|||&gt;Latin/Arabic|||&gt;|||&gt;The Arabic alphabet.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-7|||&gt;|||&gt;Latin/Greek|||&gt;|||&gt;The modern Greek alphabet and mathematical symbols derived from the Greek.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-8|||&gt;|||&gt;Latin/Hebrew|||&gt;|||&gt;The Hebrew alphabet.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-9|||&gt;|||&gt;Latin/Turkish|||&gt;|||&gt;The Turkish alphabet. Same as ISO-8859-1 except Turkish characters replace Icelandic.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-10|||&gt;|||&gt;Latin/Nordic|||&gt;|||&gt;Nordic alphabets. Lappish, Nordic, Eskimo.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;8859-15|||&gt;|||&gt;Latin 9 (Latin 0)|||&gt;|||&gt;Similar to ISO-8859-1 but replaces some less common symbols with the euro sign and some other missing characters.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;2022-JP|||&gt;|||&gt;Latin/Japanese 1|||&gt;|||&gt;The Japanese alphabet part 1.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;2022-JP-2|||&gt;|||&gt;Latin/Japanese 2|||&gt;|||&gt;The Japanese alphabet part 2.|||&gt;&amp;&amp;&amp; &amp;&amp;&amp;|||&gt;2022-KR|||&gt;|||&gt;Latin/Korean 1|||&gt;|||&gt;The Korean alphabet.|||&gt;&amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//charsets/ref_html_8859.asp</t>
   </si>
   <si>
@@ -1297,9 +1219,6 @@
     <t>['HTML symbols like mathematical operators, arrows, technical symbols and shapes, \nare not present on a normal keyboard.', 'To add these symbols to an HTML page, you can use the HTML entity name.', 'If no entity name exists, you can use the entity number.', 'If the character does not have an entity name, you can use a decimal (or hexadecimal) reference.', 'If you use an HTML entity name or a hexadecimal number, the character will always display \ncorrectly.This is independent of what character set (encoding) your page \nuses!', 'Full Math Refrence', 'Full Greek Reference', 'Full Currency Reference', 'Full Arrows Reference', 'Full Symbols Reference', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Char||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∀|||&gt; |||&gt;&amp;amp;#8704;|||&gt; |||&gt;&amp;amp;forall;|||&gt; |||&gt;for all|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∂|||&gt; |||&gt;&amp;amp;#8706;|||&gt; |||&gt;&amp;amp;part;|||&gt; |||&gt;part|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∃|||&gt; |||&gt;&amp;amp;#8707;|||&gt; |||&gt;&amp;amp;exist;|||&gt; |||&gt;exists|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∅|||&gt; |||&gt;&amp;amp;#8709;|||&gt; |||&gt;&amp;amp;empty;|||&gt; |||&gt;empty|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∇|||&gt; |||&gt;&amp;amp;#8711;|||&gt; |||&gt;&amp;amp;nabla;|||&gt; |||&gt;nabla|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∈|||&gt; |||&gt;&amp;amp;#8712;|||&gt; |||&gt;&amp;amp;isin;|||&gt; |||&gt;isin|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∉|||&gt; |||&gt;&amp;amp;#8713;|||&gt; |||&gt;&amp;amp;notin;|||&gt; |||&gt;notin|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∋|||&gt; |||&gt;&amp;amp;#8715;|||&gt; |||&gt;&amp;amp;ni;|||&gt; |||&gt;ni|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∏|||&gt; |||&gt;&amp;amp;#8719;|||&gt; |||&gt;&amp;amp;prod;|||&gt; |||&gt;prod|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;∑|||&gt; |||&gt;&amp;amp;#8721;|||&gt; |||&gt;&amp;amp;sum;|||&gt; |||&gt;sum|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Char||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Α|||&gt; |||&gt;&amp;amp;#913;|||&gt; |||&gt;&amp;amp;Alpha;|||&gt; |||&gt;Alpha|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Β|||&gt; |||&gt;&amp;amp;#914;|||&gt; |||&gt;&amp;amp;Beta;|||&gt; |||&gt;Beta|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Γ|||&gt; |||&gt;&amp;amp;#915;|||&gt; |||&gt;&amp;amp;Gamma;|||&gt; |||&gt;Gamma|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Δ|||&gt; |||&gt;&amp;amp;#916;|||&gt; |||&gt;&amp;amp;Delta;|||&gt; |||&gt;Delta|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Ε|||&gt; |||&gt;&amp;amp;#917;|||&gt; |||&gt;&amp;amp;Epsilon;|||&gt; |||&gt;Epsilon|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;Ζ|||&gt; |||&gt;&amp;amp;#918;|||&gt; |||&gt;&amp;amp;Zeta;|||&gt; |||&gt;Zeta|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate charset-tryit"&gt; &amp;&amp;&amp; &lt;th style="width:10%"&gt;Char||| &lt;th style="width:10%"&gt;Number||| &lt;th style="width:15%"&gt;Entity||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;©|||&gt; |||&gt;&amp;amp;#169;|||&gt; |||&gt;&amp;amp;copy;|||&gt; |||&gt;COPYRIGHT SYMBOL|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;®|||&gt; |||&gt;&amp;amp;#174;|||&gt; |||&gt;&amp;amp;reg;|||&gt; |||&gt;REGISTERED SIGN|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;€|||&gt; |||&gt;&amp;amp;#8364;|||&gt; |||&gt;&amp;amp;euro;|||&gt; |||&gt;EURO SIGN|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;™|||&gt; |||&gt;&amp;amp;#8482;|||&gt; |||&gt;&amp;amp;trade;|||&gt; |||&gt;trademark|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;←|||&gt; |||&gt;&amp;amp;#8592;|||&gt; |||&gt;&amp;amp;larr;|||&gt; |||&gt;LEFTWARDS ARROW|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;↑|||&gt; |||&gt;&amp;amp;#8593;|||&gt; |||&gt;&amp;amp;uarr;|||&gt; |||&gt;UPWARDS ARROW|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;→|||&gt; |||&gt;&amp;amp;#8594;|||&gt; |||&gt;&amp;amp;rarr;|||&gt; |||&gt;RIGHTWARDS ARROW|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;↓|||&gt; |||&gt;&amp;amp;#8595;|||&gt; |||&gt;&amp;amp;darr;|||&gt; |||&gt;DOWNWARDS ARROW|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;♠|||&gt; |||&gt;&amp;amp;#9824;|||&gt; |||&gt;&amp;amp;spades;|||&gt; |||&gt;BLACK SPADE SUIT|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;♣|||&gt; |||&gt;&amp;amp;#9827;|||&gt; |||&gt;&amp;amp;clubs;|||&gt; |||&gt;BLACK CLUB SUIT|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;♥|||&gt; |||&gt;&amp;amp;#9829;|||&gt; |||&gt;&amp;amp;hearts;|||&gt; |||&gt;BLACK HEART SUIT|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;♦|||&gt; |||&gt;&amp;amp;#9830;|||&gt; |||&gt;&amp;amp;diams;|||&gt; |||&gt;BLACK DIAMOND SUIT|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//charsets/ref_html_symbols.asp</t>
   </si>
   <si>
@@ -1312,9 +1231,6 @@
     <t>['\nThe Unicode Consortium develops the Unicode Standard.\nTheir goal is to replace the existing character sets with its standard Unicode \nTransformation Format (UTF).', '\nThe Unicode Standard has become a success and is implemented in \nHTML, XML, Java, JavaScript, E-mail, ASP, PHP, etc. The Unicode standard is also \nsupported in many operating systems and all modern browsers.', '\nThe Unicode Consortium cooperates with the leading standards development \norganizations, like ISO, W3C, and ECMA.', '\nUnicode can be implemented by different character sets. The most commonly used \nencodings are UTF-8 and UTF-16:', '\nTip: \nThe first 128 characters of Unicode (which correspond one-to-one with ASCII) are \nencoded using a single octet with the same binary value as ASCII, making valid \nASCII text valid UTF-8-encoded Unicode as well.', 'HTML 4 supports UTF-8. HTML 5 supports \nboth UTF-8 and UTF-16!', 'Because the character sets in ISO-8859 were \nlimited in size, and not compatible in multilingual environments, the \nUnicode Consortium developed the Unicode Standard.', '\nThe Unicode Standard covers (almost) all the characters, punctuations, and symbols in the \nworld.', '\nUnicode enables processing, storage, and \ntransport of text independent of platform and language.', 'The default character encoding in HTML-5 is UTF-8.', 'If an HTML5 web page uses a different character set than UTF-8, it should be \nspecified in the &lt;meta&gt; tag like:', 'Unicode is a character set. UTF-8 is encoding.', 'Unicode is a list of characters with unique decimal numbers (code points). A = \n65, B \n= 66, C = 67, ....', 'This list of decimal numbers represent the string "hello": 104 101 108 108 111', 'Encoding is how these numbers are translated into binary numbers to be stored \nin a computer:', 'UTF-8 encoding will store "hello" like this (binary): 01101000 01100101 01101100 \n01101100\xa0 01101111', 'Encoding translates numbers into binary. Character \nsets translates characters to numbers.', 'Below is a list of some of the UTF-8 character codes supported by HTML5: ', 'We just launchedW3Schools videos', 'Get certifiedby completinga course today!', 'If you want to report an error, or if you want to make a suggestion, do not hesitate to send us an e-mail:', 'help@w3schools.com', 'Your message has been sent to W3Schools.']</t>
   </si>
   <si>
-    <t>[&lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; &lt;th style="width:20%"&gt;Character-set||| |||Description||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;UTF-8|||&gt; |||&gt;A character in UTF8 can be from 1 to 4  bytes long. UTF-8 can represent any character in the Unicode standard.  UTF-8 is backwards compatible with ASCII. UTF-8 is the preferred  encoding for e-mail and web pages|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;UTF-16|||&gt; |||&gt;16-bit Unicode Transformation Format is a variable-length  character encoding for Unicode, capable of encoding the entire Unicode  repertoire. UTF-16 is used in major operating systems and environments,  like Microsoft Windows, Java and .NET.|||&gt; &amp;&amp;&amp; &lt;/table&gt;, &lt;table class="ws-table-all notranslate"&gt; &amp;&amp;&amp; |||Character codes||| |||Decimal||| |||Hexadecimal||| &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_basic_latin.asp"&gt;C0 Controls and Basic Latin&lt;/a&gt;|||&gt; |||&gt;0-127|||&gt; |||&gt;0000-007F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_latin1_supplement.asp"&gt;C1 Controls and Latin-1 Supplement&lt;/a&gt;|||&gt; |||&gt;128-255|||&gt; |||&gt;0080-00FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_latin_extended_a.asp"&gt;Latin Extended-A&lt;/a&gt;|||&gt; |||&gt;256-383|||&gt; |||&gt;0100-017F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_latin_extended_b.asp"&gt;Latin Extended-B&lt;/a&gt;|||&gt; |||&gt;384-591|||&gt; |||&gt;0180-024F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_modifiers.asp"&gt;Spacing Modifiers&lt;/a&gt;|||&gt; |||&gt;688-767|||&gt; |||&gt;02B0-02FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_diacritical.asp"&gt;Diacritical Marks&lt;/a&gt;|||&gt; |||&gt;768-879|||&gt; |||&gt;0300-036F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_greek.asp"&gt;Greek and Coptic&lt;/a&gt;|||&gt; |||&gt;880-1023|||&gt; |||&gt;0370-03FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_cyrillic.asp"&gt;Cyrillic Basic&lt;/a&gt;|||&gt; |||&gt;1024-1279|||&gt; |||&gt;0400-04FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_cyrillic_supplement.asp"&gt;Cyrillic Supplement&lt;/a&gt;|||&gt; |||&gt;1280-1327|||&gt; |||&gt;0500-052F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_punctuation.asp"&gt;General Punctuation&lt;/a&gt;|||&gt; |||&gt;8192-8303|||&gt; |||&gt;2000-206F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_currency.asp"&gt;Currency Symbols&lt;/a&gt;|||&gt; |||&gt;8352-8399|||&gt; |||&gt;20A0-20CF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_letterlike.asp"&gt;Letterlike Symbols&lt;/a&gt;|||&gt; |||&gt;8448-8527|||&gt; |||&gt;2100-214F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_arrows.asp"&gt;Arrows&lt;/a&gt;|||&gt; |||&gt;8592-8703|||&gt; |||&gt;2190-21FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_math.asp"&gt;Mathematical Operators&lt;/a&gt;|||&gt; |||&gt;8704-8959|||&gt; |||&gt;2200-22FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_box.asp"&gt;Box Drawings&lt;/a&gt;|||&gt; |||&gt;9472-9599|||&gt; |||&gt;2500-257F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_block.asp"&gt;Block Elements&lt;/a&gt;|||&gt; |||&gt;9600-9631|||&gt; |||&gt;2580-259F|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_geometric.asp"&gt;Geometric Shapes&lt;/a&gt;|||&gt; |||&gt;9632-9727|||&gt; |||&gt;25A0-25FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_symbols.asp"&gt;Miscellaneous Symbols&lt;/a&gt;|||&gt; |||&gt;9728-9983|||&gt; |||&gt;2600-26FF|||&gt; &amp;&amp;&amp; &amp;&amp;&amp; |||&gt;&lt;a href="ref_utf_dingbats.asp"&gt;Dingbats&lt;/a&gt;|||&gt; |||&gt;9984-10175|||&gt; |||&gt;2700-27BF|||&gt; &amp;&amp;&amp; &lt;/table&gt;]</t>
-  </si>
-  <si>
     <t>http://www.w3schools.com//charsets/ref_html_utf8.asp</t>
   </si>
   <si>
@@ -1988,9 +1904,6 @@
   </si>
   <si>
     <t>['\n\n        Self-paced\n      \n', '\n\n$190 Enroll\n\n\n', 'Document your Front end development knowledge with the W3Schools Front end development fundamentals exam to get the W3Schools certification.', "All questions in the exam are based on the content of W3Schools' HTML, CSS and JavaScript tutorials. We strongly recommend the following tutorial, quiz and exercises:", 'The exam consists of 160 multiple choice or true/false questions. The exam is time-limited to 140 minutes.', 'Candidates must have 75% correct answers to pass the exam and become certified.', 'Immediately after completing the exam, you will be informed of your score and of your pass/fail status.', 'If you fail, or want to improve your score, you can take the exam one more time. The best result of the two attempts will count.', 'Certificate of completion preview', '', 'Certification course program', 'This is the standalone Front end certification exam. If you are new to Front end web development and would like to follow preparatory course materials including the certification exams you can find it here:', 'Front end Certification Course Program', '\n        © 2022 W3Schools Courses All Rights Reserved.\n      ']</t>
-  </si>
-  <si>
-    <t>[&lt;table&gt; &lt;tbody&gt; &amp;&amp;&amp; ||| &lt;ul&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/html/default.asp"&gt;HTML Tutorial&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/quiztest/quiztest.asp?qtest=HTML"&gt;HTML Quiz&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/html/html_exercises.asp"&gt;HTML Exercises&lt;/a&gt;&lt;/li&gt; &lt;/ul&gt; ||| ||| &lt;ul&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/css/default.asp"&gt;CSS Tutorial&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/quiztest/quiztest.asp?qtest=css"&gt;CSS Quiz&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/css/css_exercises.asp"&gt;CSS Exercises&lt;/a&gt;&lt;/li&gt; &lt;/ul&gt; ||| ||| &lt;ul&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/js/default.asp"&gt;JavaScript Tutorial&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/quiztest/quiztest.asp?qtest=js"&gt;JavaScript Quiz&lt;/a&gt;&lt;/li&gt; &lt;li&gt;&lt;a href="https://www.w3schools.com/js/js_exercises.asp"&gt;JavaScript Exercises&lt;/a&gt;&lt;/li&gt; &lt;/ul&gt; ||| &amp;&amp;&amp; &lt;/tbody&gt; &lt;/table&gt;]</t>
   </si>
   <si>
     <t>https://courses.w3schools.com/browse/certifications/courses/front-end-certification-exam</t>
@@ -2525,10 +2438,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2536,25 +2449,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2562,25 +2475,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2588,25 +2501,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2614,25 +2527,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2640,13 +2553,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -2658,7 +2571,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2681,10 +2594,10 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2704,13 +2617,13 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2736,7 +2649,7 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2750,19 +2663,19 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2770,25 +2683,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2796,25 +2709,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2822,25 +2735,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2848,25 +2761,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2874,25 +2787,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2900,25 +2813,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2926,25 +2839,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2952,25 +2865,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2978,25 +2891,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
         <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3004,25 +2917,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3030,25 +2943,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3056,25 +2969,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" t="s">
         <v>105</v>
-      </c>
-      <c r="F23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3082,25 +2995,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" t="s">
         <v>110</v>
       </c>
-      <c r="F24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
-      </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3108,25 +3021,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>114</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" t="s">
         <v>115</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3134,25 +3047,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>122</v>
-      </c>
-      <c r="G26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3160,25 +3073,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>129</v>
-      </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3186,25 +3099,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" t="s">
         <v>132</v>
       </c>
-      <c r="F28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" t="s">
-        <v>134</v>
-      </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3212,25 +3125,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>136</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" t="s">
         <v>137</v>
       </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" t="s">
-        <v>139</v>
-      </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3238,25 +3151,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>142</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3264,25 +3177,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
         <v>146</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>148</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3290,25 +3203,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" t="s">
-        <v>157</v>
-      </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3316,25 +3229,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3342,25 +3255,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
+      <c r="H34" t="s">
         <v>163</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" t="s">
-        <v>166</v>
-      </c>
-      <c r="H34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3368,25 +3281,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" t="s">
         <v>168</v>
       </c>
-      <c r="C35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" t="s">
-        <v>172</v>
-      </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3394,25 +3307,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
         <v>173</v>
       </c>
-      <c r="C36" t="s">
+      <c r="H36" t="s">
         <v>174</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" t="s">
-        <v>176</v>
-      </c>
-      <c r="G36" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3420,25 +3333,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" t="s">
         <v>179</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3446,25 +3359,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" t="s">
         <v>184</v>
       </c>
-      <c r="C38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" t="s">
-        <v>188</v>
-      </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3472,25 +3385,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3498,25 +3411,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3524,25 +3437,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3550,25 +3463,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F42" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3576,25 +3489,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3602,25 +3515,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
         <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3628,25 +3541,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3654,25 +3567,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3680,25 +3593,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3706,25 +3619,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3732,25 +3645,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3758,25 +3671,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3784,25 +3697,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3810,25 +3723,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" t="s">
         <v>241</v>
-      </c>
-      <c r="C52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>244</v>
-      </c>
-      <c r="H52" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3836,25 +3749,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
         <v>246</v>
-      </c>
-      <c r="C53" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F53" t="s">
-        <v>249</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3862,25 +3775,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3888,25 +3801,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" t="s">
         <v>255</v>
-      </c>
-      <c r="C55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
-      </c>
-      <c r="H55" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3914,25 +3827,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3940,25 +3853,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3966,25 +3879,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3992,25 +3905,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H59" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4018,25 +3931,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4044,25 +3957,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4070,25 +3983,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4096,25 +4009,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4122,25 +4035,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4148,25 +4061,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4174,25 +4087,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
         <v>63</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
         <v>65</v>
       </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>66</v>
-      </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4200,25 +4113,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" t="s">
         <v>70</v>
       </c>
-      <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s">
-        <v>72</v>
-      </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4226,25 +4139,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C68" t="s">
+      <c r="F68" t="s">
         <v>74</v>
       </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4252,25 +4165,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
         <v>78</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4278,25 +4191,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
         <v>82</v>
       </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4304,25 +4217,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" t="s">
+      <c r="F71" t="s">
         <v>86</v>
       </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" t="s">
-        <v>88</v>
-      </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4330,25 +4243,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C72" t="s">
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
         <v>90</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4356,25 +4269,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C73" t="s">
+      <c r="F73" t="s">
         <v>94</v>
       </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" t="s">
-        <v>96</v>
-      </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4382,25 +4295,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C74" t="s">
+      <c r="F74" t="s">
         <v>98</v>
       </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="G74" t="s">
         <v>99</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4408,25 +4321,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C75" t="s">
+      <c r="F75" t="s">
         <v>104</v>
       </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s">
         <v>105</v>
-      </c>
-      <c r="F75" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4434,25 +4347,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" t="s">
         <v>109</v>
       </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" t="s">
         <v>110</v>
       </c>
-      <c r="F76" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" t="s">
-        <v>112</v>
-      </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4460,25 +4373,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C77" t="s">
+      <c r="F77" t="s">
         <v>114</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="G77" t="s">
         <v>115</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>116</v>
-      </c>
-      <c r="G77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H77" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4486,25 +4399,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C78" t="s">
+      <c r="F78" t="s">
         <v>120</v>
       </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="G78" t="s">
         <v>121</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>122</v>
-      </c>
-      <c r="G78" t="s">
-        <v>123</v>
-      </c>
-      <c r="H78" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4512,25 +4425,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C79" t="s">
+      <c r="F79" t="s">
         <v>126</v>
       </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="G79" t="s">
         <v>127</v>
       </c>
-      <c r="F79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" t="s">
-        <v>129</v>
-      </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4538,25 +4451,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C80" t="s">
+      <c r="F80" t="s">
         <v>131</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="G80" t="s">
         <v>132</v>
       </c>
-      <c r="F80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" t="s">
-        <v>134</v>
-      </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4564,25 +4477,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
         <v>136</v>
       </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="G81" t="s">
         <v>137</v>
       </c>
-      <c r="F81" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" t="s">
-        <v>139</v>
-      </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4590,25 +4503,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C82" t="s">
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
         <v>141</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>142</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4616,25 +4529,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" t="s">
         <v>146</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" t="s">
         <v>147</v>
       </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>148</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F83" t="s">
-        <v>150</v>
-      </c>
-      <c r="G83" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4642,25 +4555,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>302</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4668,13 +4581,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>10</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4682,25 +4607,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>309</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4708,13 +4633,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>33</v>
@@ -4726,7 +4651,7 @@
         <v>35</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4734,13 +4659,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s">
-        <v>313</v>
+        <v>10</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4748,25 +4685,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4774,25 +4711,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4800,25 +4737,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s">
-        <v>323</v>
+        <v>10</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F91" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4826,13 +4763,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>327</v>
+        <v>10</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4840,13 +4789,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>330</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4854,25 +4815,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D94" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4880,13 +4841,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s">
-        <v>337</v>
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4894,13 +4867,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D96" t="s">
-        <v>340</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4908,13 +4893,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C97" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>343</v>
+        <v>10</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>332</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4922,13 +4919,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>346</v>
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4936,25 +4945,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4962,25 +4971,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4988,25 +4997,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5014,25 +5023,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5040,25 +5049,25 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5066,25 +5075,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C104" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D104" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F104" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5092,25 +5101,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5118,25 +5127,25 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5144,25 +5153,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5170,25 +5179,25 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s">
-        <v>379</v>
+        <v>10</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5196,25 +5205,25 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>10</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5222,25 +5231,25 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C110" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5248,25 +5257,25 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
-        <v>390</v>
+        <v>10</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5274,25 +5283,25 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C112" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D112" t="s">
-        <v>394</v>
+        <v>10</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5300,25 +5309,25 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5326,25 +5335,25 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C114" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5352,25 +5361,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C115" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D115" t="s">
-        <v>407</v>
+        <v>10</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5378,25 +5387,25 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C116" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="F116" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5404,25 +5413,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D117" t="s">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5430,25 +5439,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D118" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5456,25 +5465,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D119" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5482,25 +5491,25 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C120" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D120" t="s">
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5508,25 +5517,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D121" t="s">
-        <v>427</v>
+        <v>10</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5534,25 +5543,25 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="D122" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="F122" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5560,25 +5569,25 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5586,25 +5595,25 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="C124" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="F124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5612,25 +5621,25 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5638,25 +5647,25 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C126" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5664,25 +5673,25 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C127" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5690,25 +5699,25 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="C128" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5716,25 +5725,25 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="C129" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5742,25 +5751,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="C130" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5768,25 +5777,25 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C131" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5794,25 +5803,25 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="C132" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5820,25 +5829,25 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C133" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5846,25 +5855,25 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C134" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5872,25 +5881,25 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="C135" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="F135" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5898,25 +5907,25 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="C136" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="F136" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5924,25 +5933,25 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C137" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5950,25 +5959,25 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5976,25 +5985,25 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="C139" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6002,25 +6011,25 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="F140" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6028,25 +6037,25 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6054,25 +6063,25 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6080,25 +6089,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="C143" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6106,25 +6115,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6132,25 +6141,25 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6158,25 +6167,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="C146" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6184,25 +6193,25 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6210,25 +6219,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6236,25 +6245,25 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="C149" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6262,25 +6271,25 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="C150" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6288,25 +6297,25 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="C151" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6314,25 +6323,25 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="C152" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6340,25 +6349,25 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="C153" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6366,25 +6375,25 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="C154" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6392,25 +6401,25 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="C155" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6418,25 +6427,25 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="C156" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6444,25 +6453,25 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="C157" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6470,25 +6479,25 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C158" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6496,25 +6505,25 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="C159" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6522,25 +6531,25 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="C160" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6548,25 +6557,25 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="C161" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6574,25 +6583,25 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="C162" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6600,25 +6609,25 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6626,25 +6635,25 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C164" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6652,25 +6661,25 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C165" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="H165" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6678,25 +6687,25 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="C166" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="H166" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6704,25 +6713,25 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C167" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="H167" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6730,25 +6739,25 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C168" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="H168" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6756,25 +6765,25 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="C169" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="H169" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6782,25 +6791,25 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="C170" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="H170" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6808,25 +6817,25 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="C171" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="H171" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6834,25 +6843,25 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="C172" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="H172" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6860,25 +6869,25 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="C173" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="D173" t="s">
         <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="H173" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6886,25 +6895,25 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="C174" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="H174" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6912,25 +6921,25 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="C175" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H175" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6938,25 +6947,25 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="C176" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H176" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6964,25 +6973,25 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="C177" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H177" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6990,25 +6999,25 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="C178" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H178" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7016,25 +7025,25 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="C179" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="H179" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7042,25 +7051,25 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="C180" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H180" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7068,25 +7077,25 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="C181" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="H181" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7094,25 +7103,25 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="C182" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="H182" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7120,25 +7129,25 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="C183" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="H183" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7146,25 +7155,25 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="C184" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="H184" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7172,25 +7181,25 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="C185" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="H185" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7198,25 +7207,25 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C186" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="D186" t="s">
-        <v>658</v>
+        <v>10</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="H186" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7224,25 +7233,25 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="C187" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="H187" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7250,25 +7259,25 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="C188" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="H188" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7276,25 +7285,25 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C189" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H189" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7302,25 +7311,25 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="C190" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H190" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7328,25 +7337,25 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="C191" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="F191" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="H191" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7354,25 +7363,25 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="C192" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="H192" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7380,25 +7389,25 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="C193" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="H193" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7406,25 +7415,25 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="C194" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="H194" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7432,25 +7441,25 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="C195" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="D195" t="s">
         <v>10</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="H195" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7458,25 +7467,25 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="C196" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="D196" t="s">
         <v>10</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
       <c r="H196" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7484,25 +7493,25 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="C197" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="H197" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -7590,111 +7599,119 @@
     <hyperlink ref="E82" r:id="rId81"/>
     <hyperlink ref="E83" r:id="rId82"/>
     <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E86" r:id="rId84"/>
-    <hyperlink ref="E87" r:id="rId85"/>
-    <hyperlink ref="E89" r:id="rId86"/>
-    <hyperlink ref="E90" r:id="rId87"/>
-    <hyperlink ref="E91" r:id="rId88"/>
-    <hyperlink ref="E94" r:id="rId89"/>
-    <hyperlink ref="E99" r:id="rId90"/>
-    <hyperlink ref="E100" r:id="rId91"/>
-    <hyperlink ref="E101" r:id="rId92"/>
-    <hyperlink ref="E102" r:id="rId93"/>
-    <hyperlink ref="E103" r:id="rId94"/>
-    <hyperlink ref="E104" r:id="rId95"/>
-    <hyperlink ref="E105" r:id="rId96"/>
-    <hyperlink ref="E106" r:id="rId97"/>
-    <hyperlink ref="E107" r:id="rId98"/>
-    <hyperlink ref="E108" r:id="rId99"/>
-    <hyperlink ref="E109" r:id="rId100"/>
-    <hyperlink ref="E110" r:id="rId101"/>
-    <hyperlink ref="E111" r:id="rId102"/>
-    <hyperlink ref="E112" r:id="rId103"/>
-    <hyperlink ref="E113" r:id="rId104"/>
-    <hyperlink ref="E114" r:id="rId105"/>
-    <hyperlink ref="E115" r:id="rId106"/>
-    <hyperlink ref="E116" r:id="rId107"/>
-    <hyperlink ref="E117" r:id="rId108"/>
-    <hyperlink ref="E118" r:id="rId109"/>
-    <hyperlink ref="E119" r:id="rId110"/>
-    <hyperlink ref="E120" r:id="rId111"/>
-    <hyperlink ref="E121" r:id="rId112"/>
-    <hyperlink ref="E122" r:id="rId113"/>
-    <hyperlink ref="E123" r:id="rId114"/>
-    <hyperlink ref="E124" r:id="rId115"/>
-    <hyperlink ref="E125" r:id="rId116"/>
-    <hyperlink ref="E126" r:id="rId117"/>
-    <hyperlink ref="E127" r:id="rId118"/>
-    <hyperlink ref="E128" r:id="rId119"/>
-    <hyperlink ref="E129" r:id="rId120"/>
-    <hyperlink ref="E130" r:id="rId121"/>
-    <hyperlink ref="E131" r:id="rId122"/>
-    <hyperlink ref="E132" r:id="rId123"/>
-    <hyperlink ref="E133" r:id="rId124"/>
-    <hyperlink ref="E134" r:id="rId125"/>
-    <hyperlink ref="E135" r:id="rId126"/>
-    <hyperlink ref="E136" r:id="rId127"/>
-    <hyperlink ref="E137" r:id="rId128"/>
-    <hyperlink ref="E138" r:id="rId129"/>
-    <hyperlink ref="E139" r:id="rId130"/>
-    <hyperlink ref="E140" r:id="rId131"/>
-    <hyperlink ref="E141" r:id="rId132"/>
-    <hyperlink ref="E142" r:id="rId133"/>
-    <hyperlink ref="E143" r:id="rId134"/>
-    <hyperlink ref="E144" r:id="rId135"/>
-    <hyperlink ref="E145" r:id="rId136"/>
-    <hyperlink ref="E146" r:id="rId137"/>
-    <hyperlink ref="E147" r:id="rId138"/>
-    <hyperlink ref="E148" r:id="rId139"/>
-    <hyperlink ref="E149" r:id="rId140"/>
-    <hyperlink ref="E150" r:id="rId141"/>
-    <hyperlink ref="E151" r:id="rId142"/>
-    <hyperlink ref="E152" r:id="rId143"/>
-    <hyperlink ref="E153" r:id="rId144"/>
-    <hyperlink ref="E154" r:id="rId145"/>
-    <hyperlink ref="E155" r:id="rId146"/>
-    <hyperlink ref="E156" r:id="rId147"/>
-    <hyperlink ref="E157" r:id="rId148"/>
-    <hyperlink ref="E158" r:id="rId149"/>
-    <hyperlink ref="E159" r:id="rId150"/>
-    <hyperlink ref="E160" r:id="rId151"/>
-    <hyperlink ref="E161" r:id="rId152"/>
-    <hyperlink ref="E162" r:id="rId153"/>
-    <hyperlink ref="E163" r:id="rId154"/>
-    <hyperlink ref="E164" r:id="rId155"/>
-    <hyperlink ref="E165" r:id="rId156"/>
-    <hyperlink ref="E166" r:id="rId157"/>
-    <hyperlink ref="E167" r:id="rId158"/>
-    <hyperlink ref="E168" r:id="rId159"/>
-    <hyperlink ref="E169" r:id="rId160"/>
-    <hyperlink ref="E170" r:id="rId161"/>
-    <hyperlink ref="E171" r:id="rId162"/>
-    <hyperlink ref="E172" r:id="rId163"/>
-    <hyperlink ref="E173" r:id="rId164"/>
-    <hyperlink ref="E174" r:id="rId165"/>
-    <hyperlink ref="E175" r:id="rId166"/>
-    <hyperlink ref="E176" r:id="rId167"/>
-    <hyperlink ref="E177" r:id="rId168"/>
-    <hyperlink ref="E178" r:id="rId169"/>
-    <hyperlink ref="E179" r:id="rId170"/>
-    <hyperlink ref="E180" r:id="rId171"/>
-    <hyperlink ref="E181" r:id="rId172"/>
-    <hyperlink ref="E182" r:id="rId173"/>
-    <hyperlink ref="E183" r:id="rId174"/>
-    <hyperlink ref="E184" r:id="rId175"/>
-    <hyperlink ref="E185" r:id="rId176"/>
-    <hyperlink ref="E186" r:id="rId177"/>
-    <hyperlink ref="E187" r:id="rId178"/>
-    <hyperlink ref="E188" r:id="rId179"/>
-    <hyperlink ref="E189" r:id="rId180"/>
-    <hyperlink ref="E190" r:id="rId181"/>
-    <hyperlink ref="E191" r:id="rId182"/>
-    <hyperlink ref="E192" r:id="rId183"/>
-    <hyperlink ref="E193" r:id="rId184"/>
-    <hyperlink ref="E194" r:id="rId185"/>
-    <hyperlink ref="E195" r:id="rId186"/>
-    <hyperlink ref="E196" r:id="rId187"/>
-    <hyperlink ref="E197" r:id="rId188"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E187" r:id="rId186"/>
+    <hyperlink ref="E188" r:id="rId187"/>
+    <hyperlink ref="E189" r:id="rId188"/>
+    <hyperlink ref="E190" r:id="rId189"/>
+    <hyperlink ref="E191" r:id="rId190"/>
+    <hyperlink ref="E192" r:id="rId191"/>
+    <hyperlink ref="E193" r:id="rId192"/>
+    <hyperlink ref="E194" r:id="rId193"/>
+    <hyperlink ref="E195" r:id="rId194"/>
+    <hyperlink ref="E196" r:id="rId195"/>
+    <hyperlink ref="E197" r:id="rId196"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
